--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>Element</t>
   </si>
@@ -25,6 +25,24 @@
     <t>Biorefinery</t>
   </si>
   <si>
+    <t>Biofuel displacement</t>
+  </si>
+  <si>
+    <t>Ethanol displacement</t>
+  </si>
+  <si>
+    <t>Biodiesel displacement</t>
+  </si>
+  <si>
+    <t>Biofuel allocation</t>
+  </si>
+  <si>
+    <t>Ethanol allocation</t>
+  </si>
+  <si>
+    <t>Biodiesel allocation</t>
+  </si>
+  <si>
     <t>MFPP [USD/ton]</t>
   </si>
   <si>
@@ -67,6 +85,15 @@
     <t>TCI derivative [10^6*USD]</t>
   </si>
   <si>
+    <t>GWP [kg*CO2*eq / GGE]</t>
+  </si>
+  <si>
+    <t>GWP [kg*CO2*eq / (ethanol*gal)]</t>
+  </si>
+  <si>
+    <t>GWP [kg*CO2*eq / (biodiesel*gal)]</t>
+  </si>
+  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -112,6 +139,9 @@
     <t>oilsorghum</t>
   </si>
   <si>
+    <t>Stream-sugarcane</t>
+  </si>
+  <si>
     <t>Oil retention [%]</t>
   </si>
   <si>
@@ -172,16 +202,16 @@
     <t>Productivity [g/L]</t>
   </si>
   <si>
-    <t>Cane  PL content [% oil]</t>
-  </si>
-  <si>
-    <t>Sorghum  PL content [% oil]</t>
-  </si>
-  <si>
-    <t>Cane  FFA content [% oil]</t>
-  </si>
-  <si>
-    <t>Sorghum  FFA content [% oil]</t>
+    <t>Cane PL content [% oil]</t>
+  </si>
+  <si>
+    <t>Sorghum PL content [% oil]</t>
+  </si>
+  <si>
+    <t>Cane FFA content [% oil]</t>
+  </si>
+  <si>
+    <t>Sorghum FFA content [% oil]</t>
   </si>
   <si>
     <t>Cane oil content [dry wt. %]</t>
@@ -190,7 +220,10 @@
     <t>Relative sorghum oil content [dry wt. %]</t>
   </si>
   <si>
-    <t>TAG to  FFA conversion [% oil]</t>
+    <t>TAG to FFA conversion [% oil]</t>
+  </si>
+  <si>
+    <t>GWP [kg*CO2-eq/kg]</t>
   </si>
 </sst>
 </file>
@@ -548,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,820 +607,1254 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C4">
-        <v>-0.02307611737104469</v>
+        <v>-0.06783078307830782</v>
       </c>
       <c r="E4">
-        <v>-0.01486505272260211</v>
+        <v>-0.07387938793879387</v>
       </c>
       <c r="F4">
-        <v>-0.01820194700007788</v>
+        <v>0.03342334233423342</v>
       </c>
       <c r="H4">
-        <v>0.02341551876062075</v>
+        <v>-0.03726372637263726</v>
       </c>
       <c r="I4">
-        <v>0.01973302955732118</v>
+        <v>-0.03986798679867986</v>
       </c>
       <c r="J4">
-        <v>0.0092137672354733</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>-0.02843434636684782</v>
+      </c>
+      <c r="Q4">
+        <v>0.05417341734173416</v>
+      </c>
+      <c r="R4">
+        <v>0.05417341734173416</v>
+      </c>
+      <c r="T4">
+        <v>0.05838583858385838</v>
+      </c>
+      <c r="U4">
+        <v>0.05838583858385838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>0.006554580838183233</v>
+        <v>-0.1376177617761776</v>
       </c>
       <c r="E5">
-        <v>-0.01249814843592593</v>
+        <v>0.01147314731473147</v>
       </c>
       <c r="F5">
-        <v>-0.02196085201443408</v>
+        <v>0.1062226222622262</v>
       </c>
       <c r="H5">
-        <v>0.02399053430362137</v>
+        <v>-0.1050825082508251</v>
       </c>
       <c r="I5">
-        <v>0.02170403414816137</v>
+        <v>-0.1047704770477047</v>
       </c>
       <c r="J5">
-        <v>0.0006742456668834854</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>-0.2178403897836396</v>
+      </c>
+      <c r="Q5">
+        <v>-0.1198559855985598</v>
+      </c>
+      <c r="R5">
+        <v>-0.1198559855985598</v>
+      </c>
+      <c r="T5">
+        <v>-0.116051605160516</v>
+      </c>
+      <c r="U5">
+        <v>-0.116051605160516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>0.1163238458369538</v>
+        <v>0.1190879087908791</v>
       </c>
       <c r="E6">
-        <v>0.009930803437232136</v>
+        <v>-0.04451245124512451</v>
       </c>
       <c r="F6">
-        <v>-0.9671649738225989</v>
+        <v>-0.9670447044704469</v>
       </c>
       <c r="H6">
-        <v>0.9999999951999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I6">
-        <v>0.9749379623255182</v>
+        <v>0.9740294029402939</v>
       </c>
       <c r="J6">
-        <v>-0.003204945216494785</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>0.1250786688312132</v>
+      </c>
+      <c r="Q6">
+        <v>0.3876387638763876</v>
+      </c>
+      <c r="R6">
+        <v>0.3876387638763876</v>
+      </c>
+      <c r="T6">
+        <v>0.3184158415841584</v>
+      </c>
+      <c r="U6">
+        <v>0.3184158415841584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>0.9679425663657025</v>
+        <v>0.9743654365436543</v>
       </c>
       <c r="E7">
-        <v>0.02183901725756069</v>
+        <v>0.005460546054605459</v>
       </c>
       <c r="F7">
-        <v>-0.002196779607871184</v>
+        <v>-0.009732973297329731</v>
       </c>
       <c r="H7">
-        <v>-0.004819855104794203</v>
+        <v>0.01137713771377138</v>
       </c>
       <c r="I7">
-        <v>0.0009386538615461543</v>
+        <v>0.009948994899489947</v>
       </c>
       <c r="J7">
-        <v>-0.01071530030804239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>0.04007013046454753</v>
+      </c>
+      <c r="Q7">
+        <v>0.07379537953795379</v>
+      </c>
+      <c r="R7">
+        <v>0.07379537953795379</v>
+      </c>
+      <c r="T7">
+        <v>0.0751995199519952</v>
+      </c>
+      <c r="U7">
+        <v>0.0751995199519952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>0.02195997457439898</v>
+        <v>-0.1001500150015001</v>
       </c>
       <c r="E8">
-        <v>0.02210765877230635</v>
+        <v>0.163996399639964</v>
       </c>
       <c r="F8">
-        <v>-0.01830621202824848</v>
+        <v>-0.09647764776477646</v>
       </c>
       <c r="H8">
-        <v>0.013133600109344</v>
+        <v>0.06263426342634262</v>
       </c>
       <c r="I8">
-        <v>0.01705734193029368</v>
+        <v>0.1034143414341434</v>
       </c>
       <c r="J8">
-        <v>-0.001048655815741721</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>0.2401262820534075</v>
+      </c>
+      <c r="Q8">
+        <v>0.05274527452745274</v>
+      </c>
+      <c r="R8">
+        <v>0.05274527452745274</v>
+      </c>
+      <c r="T8">
+        <v>0.03943594359435943</v>
+      </c>
+      <c r="U8">
+        <v>0.03943594359435943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C9">
-        <v>-0.003729259541170381</v>
+        <v>0.04914491449144914</v>
       </c>
       <c r="E9">
-        <v>-0.01555570276622811</v>
+        <v>0.1451305130513051</v>
       </c>
       <c r="F9">
-        <v>0.01773656624546265</v>
+        <v>0.08709270927092709</v>
       </c>
       <c r="H9">
-        <v>-0.01424843855393754</v>
+        <v>-0.1036663666366636</v>
       </c>
       <c r="I9">
-        <v>-0.01634184026967361</v>
+        <v>-0.08783678367836784</v>
       </c>
       <c r="J9">
-        <v>-0.001490918771996608</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>-0.1152639811083085</v>
+      </c>
+      <c r="Q9">
+        <v>-0.1375577557755776</v>
+      </c>
+      <c r="R9">
+        <v>-0.1375577557755776</v>
+      </c>
+      <c r="T9">
+        <v>-0.1336573657365736</v>
+      </c>
+      <c r="U9">
+        <v>-0.1336573657365736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C10">
-        <v>0.05133982093359282</v>
+        <v>0.1533633363336334</v>
       </c>
       <c r="E10">
-        <v>-0.01149723156388926</v>
+        <v>0.03515151515151515</v>
       </c>
       <c r="F10">
-        <v>-0.05887922145916885</v>
+        <v>-0.0502130213021302</v>
       </c>
       <c r="H10">
-        <v>0.01806236366649455</v>
+        <v>0.0785118511851185</v>
       </c>
       <c r="I10">
-        <v>0.01516988211079528</v>
+        <v>0.08636063606360635</v>
       </c>
       <c r="J10">
-        <v>-0.00907803308218955</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>-0.04000401805490152</v>
+      </c>
+      <c r="Q10">
+        <v>0.03000300030003</v>
+      </c>
+      <c r="R10">
+        <v>0.03000300030003</v>
+      </c>
+      <c r="T10">
+        <v>0.02715871587158716</v>
+      </c>
+      <c r="U10">
+        <v>0.02715871587158716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C11">
-        <v>0.0990861353554454</v>
+        <v>0.04544854485448544</v>
       </c>
       <c r="E11">
-        <v>0.9999968654078745</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F11">
-        <v>-0.2512937360357494</v>
+        <v>-0.1973357335733573</v>
       </c>
       <c r="H11">
-        <v>0.007687028851481153</v>
+        <v>-0.04451245124512451</v>
       </c>
       <c r="I11">
-        <v>0.2239012362520494</v>
+        <v>0.1718931893189319</v>
       </c>
       <c r="J11">
-        <v>0.00546151531737148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>-0.1495102093049474</v>
+      </c>
+      <c r="Q11">
+        <v>-0.04933693369336933</v>
+      </c>
+      <c r="R11">
+        <v>-0.04933693369336933</v>
+      </c>
+      <c r="T11">
+        <v>-0.06467446744674467</v>
+      </c>
+      <c r="U11">
+        <v>-0.06467446744674467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C12">
-        <v>-0.1573209172368367</v>
+        <v>-0.1052385238523852</v>
       </c>
       <c r="E12">
-        <v>0.008809107616364305</v>
+        <v>0.1337893789378937</v>
       </c>
       <c r="F12">
-        <v>-0.01671550242862009</v>
+        <v>-0.04854485448544854</v>
       </c>
       <c r="H12">
-        <v>0.01444848460993938</v>
+        <v>0.009384938493849384</v>
       </c>
       <c r="I12">
-        <v>0.01745755231430209</v>
+        <v>0.03956795679567957</v>
       </c>
       <c r="J12">
-        <v>0.0009627596198281013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>0.006388862859429134</v>
+      </c>
+      <c r="Q12">
+        <v>-0.1147554755475547</v>
+      </c>
+      <c r="R12">
+        <v>-0.1147554755475547</v>
+      </c>
+      <c r="T12">
+        <v>-0.1246564656465646</v>
+      </c>
+      <c r="U12">
+        <v>-0.1246564656465646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C13">
-        <v>0.02231155337246214</v>
+        <v>0.1434503450345034</v>
       </c>
       <c r="E13">
-        <v>-0.001814026824561073</v>
+        <v>-0.03255925592559256</v>
       </c>
       <c r="F13">
-        <v>0.003307276356291054</v>
+        <v>-0.007176717671767176</v>
       </c>
       <c r="H13">
-        <v>-0.004730340093213602</v>
+        <v>0.0066006600660066</v>
       </c>
       <c r="I13">
-        <v>-0.004905113668204546</v>
+        <v>0.008544854485448544</v>
       </c>
       <c r="J13">
-        <v>-0.02529054094240918</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>-0.08993691799482366</v>
+      </c>
+      <c r="Q13">
+        <v>-0.07588358835883587</v>
+      </c>
+      <c r="R13">
+        <v>-0.07588358835883587</v>
+      </c>
+      <c r="T13">
+        <v>-0.08319231923192318</v>
+      </c>
+      <c r="U13">
+        <v>-0.08319231923192318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C14">
-        <v>0.002277010651080426</v>
+        <v>-0.01862586258625862</v>
       </c>
       <c r="E14">
-        <v>-0.03806526814661072</v>
+        <v>0.02562256225622562</v>
       </c>
       <c r="F14">
-        <v>0.00844750776190031</v>
+        <v>-0.1259405940594059</v>
       </c>
       <c r="H14">
-        <v>-0.0001488798779551951</v>
+        <v>0.1266846684668467</v>
       </c>
       <c r="I14">
-        <v>-0.008075050595002022</v>
+        <v>0.1209000900090009</v>
       </c>
       <c r="J14">
-        <v>0.02646662279954879</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>0.0291736033110715</v>
+      </c>
+      <c r="Q14">
+        <v>0.1954275427542754</v>
+      </c>
+      <c r="R14">
+        <v>0.1954275427542754</v>
+      </c>
+      <c r="T14">
+        <v>0.1924872487248725</v>
+      </c>
+      <c r="U14">
+        <v>0.1924872487248725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C15">
-        <v>-0.01578359362334374</v>
+        <v>0.01854185418541854</v>
       </c>
       <c r="E15">
-        <v>-0.002610148808405952</v>
+        <v>0.1249444944494449</v>
       </c>
       <c r="F15">
-        <v>0.008902670276106811</v>
+        <v>0.0537053705370537</v>
       </c>
       <c r="H15">
-        <v>-0.00778286277531451</v>
+        <v>-0.08392439243924392</v>
       </c>
       <c r="I15">
-        <v>-0.007917280444691217</v>
+        <v>-0.05232523252325232</v>
       </c>
       <c r="J15">
-        <v>0.005306041993485331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>-0.06811381259257795</v>
+      </c>
+      <c r="Q15">
+        <v>-0.2847164716471647</v>
+      </c>
+      <c r="R15">
+        <v>-0.2847164716471647</v>
+      </c>
+      <c r="T15">
+        <v>-0.283000300030003</v>
+      </c>
+      <c r="U15">
+        <v>-0.283000300030003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>0.001322935060917402</v>
+        <v>0.1126072607260726</v>
       </c>
       <c r="E16">
-        <v>0.017074125130965</v>
+        <v>0.005040504050405041</v>
       </c>
       <c r="F16">
-        <v>-0.008448360145934405</v>
+        <v>-0.2168256825682568</v>
       </c>
       <c r="H16">
-        <v>0.004075764931030597</v>
+        <v>0.225010501050105</v>
       </c>
       <c r="I16">
-        <v>0.00743179229727169</v>
+        <v>0.2276267626762676</v>
       </c>
       <c r="J16">
-        <v>0.007711806998394869</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>0.1623420269953343</v>
+      </c>
+      <c r="Q16">
+        <v>0.1096189618961896</v>
+      </c>
+      <c r="R16">
+        <v>0.1096189618961896</v>
+      </c>
+      <c r="T16">
+        <v>0.08946894689468947</v>
+      </c>
+      <c r="U16">
+        <v>0.08946894689468947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C17">
-        <v>0.001925532845021314</v>
+        <v>0.1489228922892289</v>
       </c>
       <c r="E17">
-        <v>-0.002314138172565526</v>
+        <v>-0.1254725472547255</v>
       </c>
       <c r="F17">
-        <v>-0.003051750554070022</v>
+        <v>-0.1150795079507951</v>
       </c>
       <c r="H17">
-        <v>0.006518833220753327</v>
+        <v>0.1329132913291329</v>
       </c>
       <c r="I17">
-        <v>0.006110963764438549</v>
+        <v>0.1073507350735073</v>
       </c>
       <c r="J17">
-        <v>-0.0004681025414797886</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>0.03249124423149002</v>
+      </c>
+      <c r="Q17">
+        <v>0.08867686768676866</v>
+      </c>
+      <c r="R17">
+        <v>0.08867686768676866</v>
+      </c>
+      <c r="T17">
+        <v>0.08643264326432643</v>
+      </c>
+      <c r="U17">
+        <v>0.08643264326432643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C18">
-        <v>0.01534803565392142</v>
+        <v>-0.1644164416441644</v>
       </c>
       <c r="E18">
-        <v>-0.01649790325191613</v>
+        <v>-0.03529552955295529</v>
       </c>
       <c r="F18">
-        <v>0.002096919635876785</v>
+        <v>-0.000132013201320132</v>
       </c>
       <c r="H18">
-        <v>0.001543278781731151</v>
+        <v>0.009876987698769876</v>
       </c>
       <c r="I18">
-        <v>-0.0001069672362786894</v>
+        <v>0.007992799279927992</v>
       </c>
       <c r="J18">
-        <v>-0.01684126418227029</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>0.07533809590117045</v>
+      </c>
+      <c r="Q18">
+        <v>-0.1045304530453045</v>
+      </c>
+      <c r="R18">
+        <v>-0.1045304530453045</v>
+      </c>
+      <c r="T18">
+        <v>-0.1093429342934293</v>
+      </c>
+      <c r="U18">
+        <v>-0.1093429342934293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C19">
-        <v>0.006270469210818768</v>
+        <v>-0.06507050705070506</v>
       </c>
       <c r="E19">
-        <v>0.01322596968103879</v>
+        <v>0.1766936693669367</v>
       </c>
       <c r="F19">
-        <v>-0.002755475534219021</v>
+        <v>-0.003192319231923192</v>
       </c>
       <c r="H19">
-        <v>-0.0003581276303251052</v>
+        <v>-0.03201920192019202</v>
       </c>
       <c r="I19">
-        <v>0.002195511831820473</v>
+        <v>0.005352535253525352</v>
       </c>
       <c r="J19">
-        <v>-0.01227424302228913</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>0.1137674365626849</v>
+      </c>
+      <c r="Q19">
+        <v>0.02939093909390939</v>
+      </c>
+      <c r="R19">
+        <v>0.02939093909390939</v>
+      </c>
+      <c r="T19">
+        <v>0.01514551455145514</v>
+      </c>
+      <c r="U19">
+        <v>0.01514551455145514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C20">
-        <v>-0.02002485056099402</v>
+        <v>0.007752775277527752</v>
       </c>
       <c r="E20">
-        <v>0.01053898813355952</v>
+        <v>-0.02442244224422442</v>
       </c>
       <c r="F20">
-        <v>0.002179281399171255</v>
+        <v>-0.08079207920792078</v>
       </c>
       <c r="H20">
-        <v>-0.004800714144028564</v>
+        <v>0.07455145514551455</v>
       </c>
       <c r="I20">
-        <v>-0.00234852326194093</v>
+        <v>0.07345934593459345</v>
       </c>
       <c r="J20">
-        <v>-0.006554981031259371</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>0.007506763604352765</v>
+      </c>
+      <c r="Q20">
+        <v>0.0709030903090309</v>
+      </c>
+      <c r="R20">
+        <v>0.0709030903090309</v>
+      </c>
+      <c r="T20">
+        <v>0.06667866786678667</v>
+      </c>
+      <c r="U20">
+        <v>0.06667866786678667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C21">
-        <v>-0.02292948984517959</v>
+        <v>-0.08619261926192619</v>
       </c>
       <c r="E21">
-        <v>-0.002350357150014286</v>
+        <v>0.05267326732673266</v>
       </c>
       <c r="F21">
-        <v>-0.004178701607148064</v>
+        <v>-0.1548874887488749</v>
       </c>
       <c r="H21">
-        <v>0.005052815914112637</v>
+        <v>0.1544194419441944</v>
       </c>
       <c r="I21">
-        <v>0.003811116920444676</v>
+        <v>0.1541674167416742</v>
       </c>
       <c r="J21">
-        <v>0.002884439183359935</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>-0.1079375240757176</v>
+      </c>
+      <c r="Q21">
+        <v>-0.01332133213321332</v>
+      </c>
+      <c r="R21">
+        <v>-0.01332133213321332</v>
+      </c>
+      <c r="T21">
+        <v>-0.02509450945094509</v>
+      </c>
+      <c r="U21">
+        <v>-0.02509450945094509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C22">
-        <v>-0.02151011452440458</v>
+        <v>-0.01386138613861386</v>
       </c>
       <c r="E22">
-        <v>-0.0009326277493051098</v>
+        <v>0.1471347134713471</v>
       </c>
       <c r="F22">
-        <v>0.01030911065236442</v>
+        <v>0.0252985298529853</v>
       </c>
       <c r="H22">
-        <v>-0.01104080376963215</v>
+        <v>-0.05785778577857785</v>
       </c>
       <c r="I22">
-        <v>-0.01083852523354101</v>
+        <v>-0.02807080708070807</v>
       </c>
       <c r="J22">
-        <v>0.002788807182324651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>-0.1679736022533635</v>
+      </c>
+      <c r="Q22">
+        <v>-0.1102790279027903</v>
+      </c>
+      <c r="R22">
+        <v>-0.1102790279027903</v>
+      </c>
+      <c r="T22">
+        <v>-0.1123672367236723</v>
+      </c>
+      <c r="U22">
+        <v>-0.1123672367236723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C23">
-        <v>-0.004674688986987559</v>
+        <v>0.1017461746174617</v>
       </c>
       <c r="E23">
-        <v>0.007889359899574396</v>
+        <v>0.03333933393339333</v>
       </c>
       <c r="F23">
-        <v>0.01273337897333516</v>
+        <v>-0.03595559555955596</v>
       </c>
       <c r="H23">
-        <v>-0.01408196235527849</v>
+        <v>0.02562256225622562</v>
       </c>
       <c r="I23">
-        <v>-0.01244695336187813</v>
+        <v>0.03531953195319532</v>
       </c>
       <c r="J23">
-        <v>0.01251568835646251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>0.1593729787803221</v>
+      </c>
+      <c r="Q23">
+        <v>0.07891989198919892</v>
+      </c>
+      <c r="R23">
+        <v>0.07891989198919892</v>
+      </c>
+      <c r="T23">
+        <v>0.08010801080108011</v>
+      </c>
+      <c r="U23">
+        <v>0.08010801080108011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C24">
-        <v>-0.01038395897535836</v>
+        <v>-0.01634563456345635</v>
       </c>
       <c r="E24">
-        <v>0.01226883879475355</v>
+        <v>-0.03001500150015001</v>
       </c>
       <c r="F24">
-        <v>-0.01258530482341219</v>
+        <v>0.171029102910291</v>
       </c>
       <c r="H24">
-        <v>0.0102692400267696</v>
+        <v>-0.1625802580258026</v>
       </c>
       <c r="I24">
-        <v>0.01228746145149846</v>
+        <v>-0.1686768676867687</v>
       </c>
       <c r="J24">
-        <v>-0.01711366796518031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>-0.05368327663256916</v>
+      </c>
+      <c r="Q24">
+        <v>-0.0276987698769877</v>
+      </c>
+      <c r="R24">
+        <v>-0.0276987698769877</v>
+      </c>
+      <c r="T24">
+        <v>-0.02533453345334533</v>
+      </c>
+      <c r="U24">
+        <v>-0.02533453345334533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C25">
-        <v>0.003998167551926701</v>
+        <v>0.04086408640864087</v>
       </c>
       <c r="E25">
-        <v>0.01236821953472878</v>
+        <v>-0.008772877287728771</v>
       </c>
       <c r="F25">
-        <v>-0.01979377528775101</v>
+        <v>0.02195019501950195</v>
       </c>
       <c r="H25">
-        <v>0.017057774986311</v>
+        <v>-0.03348334833483348</v>
       </c>
       <c r="I25">
-        <v>0.01928704579548183</v>
+        <v>-0.03782778277827783</v>
       </c>
       <c r="J25">
-        <v>-0.009398527920933366</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>0.09992590207043159</v>
+      </c>
+      <c r="Q25">
+        <v>0.02137413741374137</v>
+      </c>
+      <c r="R25">
+        <v>0.02137413741374137</v>
+      </c>
+      <c r="T25">
+        <v>0.02711071107110711</v>
+      </c>
+      <c r="U25">
+        <v>0.02711071107110711</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C26">
-        <v>0.02151790482871619</v>
+        <v>0.07081908190819081</v>
       </c>
       <c r="E26">
-        <v>-0.003203021024120841</v>
+        <v>0.03861986198619861</v>
       </c>
       <c r="F26">
-        <v>-0.01228331684333267</v>
+        <v>-0.03335133513351335</v>
       </c>
       <c r="H26">
-        <v>0.01383635229745409</v>
+        <v>0.02624662466246624</v>
       </c>
       <c r="I26">
-        <v>0.01220160797606432</v>
+        <v>0.03353135313531352</v>
       </c>
       <c r="J26">
-        <v>-0.004617426235770845</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>-0.2887850155528791</v>
+      </c>
+      <c r="Q26">
+        <v>0.002508250825082508</v>
+      </c>
+      <c r="R26">
+        <v>0.002508250825082508</v>
+      </c>
+      <c r="T26">
+        <v>0.009996999699969995</v>
+      </c>
+      <c r="U26">
+        <v>0.009996999699969995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C27">
-        <v>0.02354697329387893</v>
+        <v>-0.09593759375937592</v>
       </c>
       <c r="E27">
-        <v>0.009473349018933959</v>
+        <v>-0.02478247824782478</v>
       </c>
       <c r="F27">
-        <v>0.02170368019614721</v>
+        <v>0.1694569456945694</v>
       </c>
       <c r="H27">
-        <v>-0.0256774725790989</v>
+        <v>-0.1480708070807081</v>
       </c>
       <c r="I27">
-        <v>-0.02272703390108135</v>
+        <v>-0.1563276327632763</v>
       </c>
       <c r="J27">
-        <v>-0.05192585836232322</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>-0.03492538295027534</v>
+      </c>
+      <c r="Q27">
+        <v>-0.008388838883888389</v>
+      </c>
+      <c r="R27">
+        <v>-0.008388838883888389</v>
+      </c>
+      <c r="T27">
+        <v>0.003564356435643564</v>
+      </c>
+      <c r="U27">
+        <v>0.003564356435643564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C28">
-        <v>-0.01384965914598636</v>
+        <v>0.141998199819982</v>
       </c>
       <c r="E28">
-        <v>-0.01217433850297354</v>
+        <v>-0.01908190819081908</v>
       </c>
       <c r="F28">
-        <v>-0.008612261816490472</v>
+        <v>-0.08420042004200419</v>
       </c>
       <c r="H28">
-        <v>0.01173167461326699</v>
+        <v>0.09641764176417641</v>
       </c>
       <c r="I28">
-        <v>0.009357204182288165</v>
+        <v>0.07887188718871886</v>
       </c>
       <c r="J28">
-        <v>-0.01196684235402152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>-0.03580888515190854</v>
+      </c>
+      <c r="Q28">
+        <v>0.01544554455445544</v>
+      </c>
+      <c r="R28">
+        <v>0.01544554455445544</v>
+      </c>
+      <c r="T28">
+        <v>0.01195319531953195</v>
+      </c>
+      <c r="U28">
+        <v>0.01195319531953195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C29">
-        <v>0.01059481789579271</v>
+        <v>-0.03693969396939693</v>
       </c>
       <c r="E29">
-        <v>-0.003751166454046658</v>
+        <v>-0.1309210921092109</v>
       </c>
       <c r="F29">
-        <v>0.006936809461472377</v>
+        <v>0.09372937293729372</v>
       </c>
       <c r="H29">
-        <v>-0.006350725886029035</v>
+        <v>-0.04607260726072606</v>
       </c>
       <c r="I29">
-        <v>-0.007644638705785548</v>
+        <v>-0.08954095409540953</v>
       </c>
       <c r="J29">
-        <v>-0.001597427733414583</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>0.06727839214341461</v>
+      </c>
+      <c r="Q29">
+        <v>-0.01018901890189019</v>
+      </c>
+      <c r="R29">
+        <v>-0.01018901890189019</v>
+      </c>
+      <c r="T29">
+        <v>-0.005460546054605459</v>
+      </c>
+      <c r="U29">
+        <v>-0.005460546054605459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C30">
-        <v>0.003452646282105851</v>
+        <v>-0.02057005700570057</v>
       </c>
       <c r="E30">
-        <v>0.005229708881188355</v>
+        <v>-0.06981098109810981</v>
       </c>
       <c r="F30">
-        <v>-0.003307177380287094</v>
+        <v>-0.04258025802580257</v>
       </c>
       <c r="H30">
-        <v>0.002112123348484933</v>
+        <v>0.07042304230423042</v>
       </c>
       <c r="I30">
-        <v>0.00283410424136417</v>
+        <v>0.04846084608460845</v>
       </c>
       <c r="J30">
-        <v>0.01150521627222267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>-0.04800361962207007</v>
+      </c>
+      <c r="Q30">
+        <v>0.01236123612361236</v>
+      </c>
+      <c r="R30">
+        <v>0.01236123612361236</v>
+      </c>
+      <c r="T30">
+        <v>0.0111011101110111</v>
+      </c>
+      <c r="U30">
+        <v>0.0111011101110111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C31">
-        <v>-0.007525061389002454</v>
+        <v>-0.07086708670867087</v>
       </c>
       <c r="E31">
-        <v>-0.01688516237140649</v>
+        <v>0.1327692769276927</v>
       </c>
       <c r="F31">
-        <v>-0.01622244228089769</v>
+        <v>-0.1137833783378338</v>
       </c>
       <c r="H31">
-        <v>0.02101375111255004</v>
+        <v>0.07746774677467745</v>
       </c>
       <c r="I31">
-        <v>0.0163551425102057</v>
+        <v>0.1103630363036304</v>
       </c>
       <c r="J31">
-        <v>0.003719838438753853</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>-0.1937033500437832</v>
+      </c>
+      <c r="Q31">
+        <v>0.1284488448844884</v>
+      </c>
+      <c r="R31">
+        <v>0.1284488448844884</v>
+      </c>
+      <c r="T31">
+        <v>0.1239483948394839</v>
+      </c>
+      <c r="U31">
+        <v>0.1239483948394839</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C32">
-        <v>0.009147824237912968</v>
+        <v>-0.1034023402340234</v>
       </c>
       <c r="E32">
-        <v>0.006363108158524325</v>
+        <v>0.1934953495349535</v>
       </c>
       <c r="F32">
-        <v>-0.003765536790621471</v>
+        <v>-0.0276027602760276</v>
       </c>
       <c r="H32">
-        <v>0.002408678880347155</v>
+        <v>0.002112211221122112</v>
       </c>
       <c r="I32">
-        <v>0.003258951298358052</v>
+        <v>0.03417941794179417</v>
       </c>
       <c r="J32">
-        <v>0.02927979916221607</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>-0.122554376826547</v>
+      </c>
+      <c r="Q32">
+        <v>-0.03569156915691568</v>
+      </c>
+      <c r="R32">
+        <v>-0.03569156915691568</v>
+      </c>
+      <c r="T32">
+        <v>-0.04592859285928592</v>
+      </c>
+      <c r="U32">
+        <v>-0.04592859285928592</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C33">
-        <v>0.005768133158725326</v>
+        <v>-0.05770177017701769</v>
       </c>
       <c r="E33">
-        <v>0.009229193457167738</v>
+        <v>0.1581998199819982</v>
       </c>
       <c r="F33">
-        <v>0.00519766926390677</v>
+        <v>0.1813621362136213</v>
       </c>
       <c r="H33">
-        <v>-0.007617297616691904</v>
+        <v>-0.2402040204020402</v>
       </c>
       <c r="I33">
-        <v>-0.005348972853958914</v>
+        <v>-0.1965796579657966</v>
       </c>
       <c r="J33">
-        <v>-0.01205737278759988</v>
+        <v>-0.0745868185188293</v>
+      </c>
+      <c r="Q33">
+        <v>-0.2471047104710471</v>
+      </c>
+      <c r="R33">
+        <v>-0.2471047104710471</v>
+      </c>
+      <c r="T33">
+        <v>-0.235019501950195</v>
+      </c>
+      <c r="U33">
+        <v>-0.235019501950195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34">
+        <v>0.1221842184218422</v>
+      </c>
+      <c r="E34">
+        <v>-0.06076207620762076</v>
+      </c>
+      <c r="F34">
+        <v>-0.2399039903990399</v>
+      </c>
+      <c r="H34">
+        <v>0.2555775577557756</v>
+      </c>
+      <c r="I34">
+        <v>0.2484968496849685</v>
+      </c>
+      <c r="J34">
+        <v>0.1335230266087278</v>
+      </c>
+      <c r="Q34">
+        <v>0.9888868886888689</v>
+      </c>
+      <c r="R34">
+        <v>0.9888868886888689</v>
+      </c>
+      <c r="T34">
+        <v>0.9972397239723971</v>
+      </c>
+      <c r="U34">
+        <v>0.9972397239723971</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>Crude glycerol GWP [kg*CO2*eq / gal]</t>
+          <t>Crude glycerol GWP [kg*CO2*eq / kg]</t>
         </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
@@ -712,37 +712,37 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.2162136213621362</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>-0.1501470147014701</v>
+        <v>0.3338345864661654</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.06832283228322832</v>
+        <v>-0.3669172932330827</v>
       </c>
       <c r="G4" t="n">
-        <v>0.154047404740474</v>
+        <v>-0.4345864661654135</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09986198619861984</v>
+        <v>0.2661654135338345</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07625562556255625</v>
+        <v>0.3488721804511278</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1135998342854563</v>
+        <v>0.3675497867646511</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1004500450045004</v>
+        <v>0.2421052631578947</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1004500450045004</v>
+        <v>0.2421052631578947</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>0.1004500450045004</v>
+        <v>0.2421052631578947</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -764,37 +764,37 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.08787278727872787</v>
+        <v>-0.1398496240601504</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>-0.01000900090009001</v>
+        <v>-0.3082706766917293</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1231563156315632</v>
+        <v>-0.2300751879699248</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1051545154515452</v>
+        <v>0.4075187969924812</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1017341734173417</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1110951095109511</v>
+        <v>0.2616541353383459</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01140145418969951</v>
+        <v>-0.1773597533669261</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1052025202520252</v>
+        <v>0.3022556390977443</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1052025202520252</v>
+        <v>0.3022556390977443</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>-0.1052025202520252</v>
+        <v>0.3022556390977443</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -816,37 +816,37 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1343774377437744</v>
+        <v>-0.206015037593985</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>-0.1649564956495649</v>
+        <v>-0.3022556390977443</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.9638523852385238</v>
+        <v>-0.9578947368421054</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.007404740474047404</v>
+        <v>0.237593984962406</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9742574257425741</v>
+        <v>0.9684210526315788</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.2413057376184743</v>
+        <v>-0.233209207618639</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9984398439843983</v>
+        <v>0.9969924812030074</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9984398439843983</v>
+        <v>0.9969924812030074</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>0.9984398439843983</v>
+        <v>0.9969924812030074</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -872,37 +872,37 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9626882688268826</v>
+        <v>0.9533834586466164</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>-0.03132313231323132</v>
+        <v>0.2796992481203007</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00276027602760276</v>
+        <v>0.3413533834586466</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01562556255625562</v>
+        <v>-0.2436090225563909</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003672367236723672</v>
+        <v>-0.3864661654135338</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.00204020402040204</v>
+        <v>-0.3518796992481203</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06163516748306194</v>
+        <v>-0.05660417660646577</v>
       </c>
       <c r="K7" t="n">
-        <v>0.005316531653165315</v>
+        <v>-0.4045112781954887</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005316531653165315</v>
+        <v>-0.4045112781954887</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>0.005316531653165315</v>
+        <v>-0.4045112781954887</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -928,37 +928,37 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.09881788178817881</v>
+        <v>0.2721804511278195</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>-0.01188118811881188</v>
+        <v>-0.3052631578947368</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01683768376837684</v>
+        <v>0.3849624060150376</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04925292529252925</v>
+        <v>0.2090225563909774</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02007800780078008</v>
+        <v>-0.2932330827067668</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005976597659765976</v>
+        <v>-0.3323308270676691</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1884275120196465</v>
+        <v>0.1600011392076099</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02703870387038703</v>
+        <v>-0.2857142857142857</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02703870387038703</v>
+        <v>-0.2857142857142857</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>0.02703870387038703</v>
+        <v>-0.2857142857142857</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -984,37 +984,37 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.04303630363036304</v>
+        <v>-0.2781954887218045</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.1419021902190219</v>
+        <v>-0.237593984962406</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.05278127812781278</v>
+        <v>0.356390977443609</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1253285328532853</v>
+        <v>0.4165413533834587</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01807380738073807</v>
+        <v>-0.2526315789473684</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03785178517851785</v>
+        <v>-0.3699248120300751</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.03268376799345596</v>
+        <v>0.05434000954220714</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01782178217821782</v>
+        <v>-0.2345864661654135</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01782178217821782</v>
+        <v>-0.2345864661654135</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>0.01782178217821782</v>
+        <v>-0.2345864661654135</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -1040,37 +1040,37 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.02163816381638164</v>
+        <v>0.1172932330827067</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>-0.06111011101110111</v>
+        <v>-0.4586466165413533</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04716471647164716</v>
+        <v>-0.1533834586466165</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.00438043804380438</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.04614461446144614</v>
+        <v>0.2496240601503759</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04612061206120611</v>
+        <v>0.1804511278195489</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.0762941800126756</v>
+        <v>-0.08000056960380496</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.04655265526552655</v>
+        <v>0.2496240601503759</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.04655265526552655</v>
+        <v>0.2496240601503759</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>-0.04655265526552655</v>
+        <v>0.2496240601503759</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1092,37 +1092,37 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1030783078307831</v>
+        <v>0.2902255639097744</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.714959495949595</v>
+        <v>0.8210526315789473</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2073327332733273</v>
+        <v>0.06917293233082707</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.9856585658565855</v>
+        <v>-0.9819548872180449</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.03181518151815181</v>
+        <v>-0.3172932330827067</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1783978397839784</v>
+        <v>-0.1037593984962406</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06176138284309552</v>
+        <v>0.2083033699117941</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0553135313531353</v>
+        <v>-0.3443609022556391</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0553135313531353</v>
+        <v>-0.3443609022556391</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>-0.0553135313531353</v>
+        <v>-0.3443609022556391</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1144,37 +1144,37 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1837143714371437</v>
+        <v>-0.07969924812030074</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>-0.1581878187818782</v>
+        <v>0.2</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1076267626762676</v>
+        <v>0.3909774436090225</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1495349534953495</v>
+        <v>-0.2165413533834586</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.08556855685568555</v>
+        <v>-0.4030075187969925</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1013261326132613</v>
+        <v>-0.4135338345864661</v>
       </c>
       <c r="J12" t="n">
-        <v>0.008865126478548646</v>
+        <v>0.3947197915357546</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.09038103810381036</v>
+        <v>-0.425563909774436</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.09038103810381036</v>
+        <v>-0.425563909774436</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>-0.09038103810381036</v>
+        <v>-0.425563909774436</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1200,37 +1200,37 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.02411041104110411</v>
+        <v>-0.4210526315789473</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>-0.06078607860786078</v>
+        <v>-0.2015037593984962</v>
       </c>
       <c r="F13" t="n">
-        <v>0.021002100210021</v>
+        <v>-0.2721804511278195</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04001200120012001</v>
+        <v>0.2586466165413533</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01018901890189019</v>
+        <v>0.3097744360902255</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01347734773477348</v>
+        <v>0.2872180451127819</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.02369242615487374</v>
+        <v>-0.2777378265490588</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0123012301230123</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0123012301230123</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>0.0123012301230123</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1256,37 +1256,37 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.021002100210021</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>0.002172217221722172</v>
+        <v>-0.2616541353383459</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01876987698769877</v>
+        <v>-0.1548872180451128</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03278727872787279</v>
+        <v>0.275187969924812</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03548754875487549</v>
+        <v>0.2481203007518797</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0302070207020702</v>
+        <v>0.2045112781954887</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.1207880995521303</v>
+        <v>-0.2083033699117941</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02557455745574557</v>
+        <v>0.2601503759398496</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02557455745574557</v>
+        <v>0.2601503759398496</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>0.02557455745574557</v>
+        <v>0.2601503759398496</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1312,37 +1312,37 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1044224422442244</v>
+        <v>0.162406015037594</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>-0.0484008400840084</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04601260126012601</v>
+        <v>-0.02105263157894736</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03366336633663366</v>
+        <v>-0.1443609022556391</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.03284728472847284</v>
+        <v>-0.08270676691729321</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.04292829282928293</v>
+        <v>-0.02706766917293233</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.02908963536011895</v>
+        <v>-0.2664169912277656</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.03007500750075007</v>
+        <v>-0.08872180451127819</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.03007500750075007</v>
+        <v>-0.08872180451127819</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>-0.03007500750075007</v>
+        <v>-0.08872180451127819</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1368,37 +1368,37 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.007476747674767476</v>
+        <v>0.1293233082706767</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>0.006756675667566756</v>
+        <v>-0.4496240601503759</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02459045904590459</v>
+        <v>0.2616541353383459</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03865586558655865</v>
+        <v>0.5052631578947367</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04448844884488448</v>
+        <v>-0.1203007518796992</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04168016801680167</v>
+        <v>-0.2270676691729323</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.02804986120365189</v>
+        <v>-0.06792501192775893</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0471047104710471</v>
+        <v>-0.08571428571428572</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0471047104710471</v>
+        <v>-0.08571428571428572</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>0.0471047104710471</v>
+        <v>-0.08571428571428572</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1420,37 +1420,37 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.06372637263726372</v>
+        <v>-0.08421052631578946</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>-0.2391959195919592</v>
+        <v>0.2736842105263158</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08530453045304529</v>
+        <v>-0.3699248120300751</v>
       </c>
       <c r="G17" t="n">
-        <v>0.171017101710171</v>
+        <v>-0.2421052631578947</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05272127212721272</v>
+        <v>0.3172932330827067</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.07153915391539153</v>
+        <v>0.3473684210526315</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2198190751365683</v>
+        <v>0.04981167541368987</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0422082208220822</v>
+        <v>0.2842105263157895</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0422082208220822</v>
+        <v>0.2842105263157895</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>-0.0422082208220822</v>
+        <v>0.2842105263157895</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
@@ -1476,37 +1476,37 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.0285988598859886</v>
+        <v>0.1819548872180451</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>0.08345634563456344</v>
+        <v>-0.1353383458646616</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04145214521452145</v>
+        <v>0.18796992481203</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04536453645364536</v>
+        <v>0.1383458646616541</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.02072607260726072</v>
+        <v>-0.1112781954887218</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.02761476147614761</v>
+        <v>-0.1714285714285714</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001394379215609007</v>
+        <v>-0.3411345043483003</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.02868286828682868</v>
+        <v>-0.1022556390977443</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.02868286828682868</v>
+        <v>-0.1022556390977443</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>-0.02868286828682868</v>
+        <v>-0.1022556390977443</v>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -1532,37 +1532,37 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.1643684368436844</v>
+        <v>0.09022556390977443</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>0.05573357335733573</v>
+        <v>-0.3654135338345864</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.002328232823282328</v>
+        <v>0.03007518796992481</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.05478547854785478</v>
+        <v>0.306766917293233</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.01914191419141914</v>
+        <v>0.05413533834586466</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002796279627962796</v>
+        <v>-0.01654135338345865</v>
       </c>
       <c r="J19" t="n">
-        <v>0.06961678644137557</v>
+        <v>0.1388689132745294</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.02091809180918092</v>
+        <v>0.04210526315789473</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.02091809180918092</v>
+        <v>0.04210526315789473</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>-0.02091809180918092</v>
+        <v>0.04210526315789473</v>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -1584,37 +1584,37 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01714971497149715</v>
+        <v>-0.2165413533834586</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.05791779177917791</v>
+        <v>-0.3022556390977443</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01604560456045604</v>
+        <v>-0.1578947368421053</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.03329132913291329</v>
+        <v>0.4661654135338345</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01422142214221422</v>
+        <v>0.2706766917293233</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01389738973897389</v>
+        <v>0.1112781954887218</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.0542665945591971</v>
+        <v>-0.06641556721825317</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01411341134113411</v>
+        <v>0.2601503759398496</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01411341134113411</v>
+        <v>0.2601503759398496</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>0.01411341134113411</v>
+        <v>0.2601503759398496</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -1636,37 +1636,37 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.03312331233123312</v>
+        <v>0.3413533834586466</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.04711671167116711</v>
+        <v>0.1849624060150376</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1116591659165917</v>
+        <v>-0.3353383458646617</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0785118511851185</v>
+        <v>-0.05864661654135337</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08284428442844284</v>
+        <v>0.2766917293233083</v>
       </c>
       <c r="I21" t="n">
-        <v>0.117971797179718</v>
+        <v>0.2887218045112782</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02116811895420226</v>
+        <v>0.1418878026935408</v>
       </c>
       <c r="K21" t="n">
-        <v>0.08458445844584457</v>
+        <v>0.2406015037593985</v>
       </c>
       <c r="L21" t="n">
-        <v>0.08458445844584457</v>
+        <v>0.2406015037593985</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>0.08458445844584457</v>
+        <v>0.2406015037593985</v>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -1688,37 +1688,37 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.01842184218421842</v>
+        <v>-0.09774436090225563</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>-0.02981098109810981</v>
+        <v>0.03759398496240601</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1102310231023102</v>
+        <v>0.1759398496240602</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1255925592559256</v>
+        <v>-0.2706766917293233</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.1008460846084608</v>
+        <v>-0.1984962406015038</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1066306630663066</v>
+        <v>-0.1684210526315789</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1600651175435305</v>
+        <v>-0.04981167541368987</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.09837383738373837</v>
+        <v>-0.2</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.09837383738373837</v>
+        <v>-0.2</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
-        <v>-0.09837383738373837</v>
+        <v>-0.2</v>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -1744,37 +1744,37 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.05706570657065705</v>
+        <v>-0.02556390977443609</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>-0.1644044404440444</v>
+        <v>-0.5097744360902255</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08362436243624362</v>
+        <v>-0.09924812030075188</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1958355835583558</v>
+        <v>0.356390977443609</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.03285928592859286</v>
+        <v>0.2</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.07461146114611461</v>
+        <v>0.1383458646616541</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02756904078447637</v>
+        <v>-0.3871725679882259</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.02223822382238224</v>
+        <v>0.237593984962406</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.02223822382238224</v>
+        <v>0.237593984962406</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>-0.02223822382238224</v>
+        <v>0.237593984962406</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -1796,37 +1796,37 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.01866186618661866</v>
+        <v>-0.2932330827067668</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>0.09197719771977197</v>
+        <v>-0.05263157894736842</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07871587158715872</v>
+        <v>-0.03157894736842105</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.07672367236723672</v>
+        <v>0.0706766917293233</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.09218121812181217</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.09278127812781277</v>
+        <v>0.04060150375939849</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0122128386470582</v>
+        <v>-0.04981167541368987</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.09556555655565556</v>
+        <v>0.04661654135338346</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.09556555655565556</v>
+        <v>0.04661654135338346</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>-0.09556555655565556</v>
+        <v>0.04661654135338346</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
@@ -1852,37 +1852,37 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.04108010801080108</v>
+        <v>0.04661654135338346</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>0.09722172217221721</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.2462286228622862</v>
+        <v>0.6481203007518795</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02390639063906391</v>
+        <v>0.004511278195488721</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2555295529552955</v>
+        <v>-0.6270676691729322</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2388598859885989</v>
+        <v>-0.6526315789473683</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.1887640863130694</v>
+        <v>0.1849069769144549</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2515211521152115</v>
+        <v>-0.6375939849624059</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2515211521152115</v>
+        <v>-0.6375939849624059</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
-        <v>0.2515211521152115</v>
+        <v>-0.6375939849624059</v>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
@@ -1904,37 +1904,37 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.08115211521152114</v>
+        <v>0.06616541353383458</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>-0.1291929192919292</v>
+        <v>-0.0150375939849624</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07231923192319231</v>
+        <v>0.09473684210526315</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1518271827182718</v>
+        <v>0.150375939849624</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.04523252325232523</v>
+        <v>-0.04962406015037594</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0586978697869787</v>
+        <v>-0.05714285714285714</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.06634720759098203</v>
+        <v>-0.08528362608707508</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.04442844284428443</v>
+        <v>-0.04661654135338346</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.04442844284428443</v>
+        <v>-0.04661654135338346</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>-0.04442844284428443</v>
+        <v>-0.04661654135338346</v>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
@@ -1960,37 +1960,37 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.08076807680768075</v>
+        <v>0.3729323308270677</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>0.08872487248724871</v>
+        <v>-0.01804511278195488</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.134017401740174</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1000780078007801</v>
+        <v>0.1007518796992481</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1097389738973897</v>
+        <v>-0.4105263157894736</v>
       </c>
       <c r="I27" t="n">
-        <v>0.13002100210021</v>
+        <v>-0.4571428571428571</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.04211385846453584</v>
+        <v>0.07245334605627618</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1067026702670267</v>
+        <v>-0.4105263157894736</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1067026702670267</v>
+        <v>-0.4105263157894736</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
-        <v>0.1067026702670267</v>
+        <v>-0.4105263157894736</v>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
@@ -2016,37 +2016,37 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.2049564956495649</v>
+        <v>0.07669172932330826</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>-0.01233723372337234</v>
+        <v>0.318796992481203</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04782478247824782</v>
+        <v>-0.1052631578947368</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.01897389738973897</v>
+        <v>-0.4992481203007519</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.067998799879988</v>
+        <v>-0.02706766917293233</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.05557755775577557</v>
+        <v>0.09624060150375939</v>
       </c>
       <c r="J28" t="n">
-        <v>0.00476613240507734</v>
+        <v>-0.1796239204311847</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0709150915091509</v>
+        <v>-0.03458646616541353</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0709150915091509</v>
+        <v>-0.03458646616541353</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>-0.0709150915091509</v>
+        <v>-0.03458646616541353</v>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
@@ -2072,37 +2072,37 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.03757575757575757</v>
+        <v>-0.02406015037593985</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>-0.1913831383138313</v>
+        <v>0.2796992481203007</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1706210621062106</v>
+        <v>-0.1834586466165413</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2238463846384638</v>
+        <v>-0.3308270676691729</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.1164116411641164</v>
+        <v>0.07218045112781954</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1531833183318331</v>
+        <v>0.1759398496240602</v>
       </c>
       <c r="J29" t="n">
-        <v>0.004525722195489581</v>
+        <v>0.1343405791460121</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.1116591659165917</v>
+        <v>0.08872180451127819</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.1116591659165917</v>
+        <v>0.08872180451127819</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>-0.1116591659165917</v>
+        <v>0.08872180451127819</v>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -2128,37 +2128,37 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1882268226822682</v>
+        <v>-0.4902255639097743</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.003228322832283228</v>
+        <v>-0.2075187969924812</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.03236723672367237</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01166516651665166</v>
+        <v>0.2932330827067668</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01424542454245424</v>
+        <v>-0.3548872180451128</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02935493549354935</v>
+        <v>-0.4781954887218045</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1599869842254145</v>
+        <v>0.2037750357832768</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01724572457245724</v>
+        <v>-0.3398496240601503</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01724572457245724</v>
+        <v>-0.3398496240601503</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>0.01724572457245724</v>
+        <v>-0.3398496240601503</v>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
@@ -2184,37 +2184,37 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.00156015601560156</v>
+        <v>0.1172932330827067</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>0.1689528952895289</v>
+        <v>0.1443609022556391</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.01381338133813381</v>
+        <v>0.1067669172932331</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.119039903990399</v>
+        <v>-0.2195488721804511</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.03247524752475248</v>
+        <v>-0.1593984962406015</v>
       </c>
       <c r="I31" t="n">
-        <v>0.003516351635163516</v>
+        <v>-0.1022556390977443</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.1255001396600504</v>
+        <v>0.2030203134285239</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.04272427242724272</v>
+        <v>-0.1609022556390977</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.04272427242724272</v>
+        <v>-0.1609022556390977</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>-0.04272427242724272</v>
+        <v>-0.1609022556390977</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -2240,37 +2240,37 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.03182718271827183</v>
+        <v>-0.05263157894736842</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>-0.24</v>
+        <v>0.1037593984962406</v>
       </c>
       <c r="F32" t="n">
-        <v>0.162988298829883</v>
+        <v>0.3488721804511278</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1861266126612661</v>
+        <v>-0.01804511278195488</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.1241884188418842</v>
+        <v>-0.356390977443609</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1543354335433543</v>
+        <v>-0.356390977443609</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.06834261233056044</v>
+        <v>-0.08603834844182798</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.118991899189919</v>
+        <v>-0.3443609022556391</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.118991899189919</v>
+        <v>-0.3443609022556391</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="n">
-        <v>-0.118991899189919</v>
+        <v>-0.3443609022556391</v>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2296,37 +2296,37 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.02941494149414941</v>
+        <v>0.5398496240601504</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>-0.01077707770777078</v>
+        <v>0.3172932330827067</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0306990699069907</v>
+        <v>-0.08120300751879699</v>
       </c>
       <c r="G33" t="n">
-        <v>0.08870087008700869</v>
+        <v>-0.156390977443609</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.03152715271527153</v>
+        <v>0.04060150375939849</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.03878787878787878</v>
+        <v>0.0706766917293233</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.02897544051056477</v>
+        <v>0.2181147605235814</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.02673867386738673</v>
+        <v>0.01353383458646617</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.02673867386738673</v>
+        <v>0.01353383458646617</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="n">
-        <v>-0.02673867386738673</v>
+        <v>0.01353383458646617</v>
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2352,37 +2352,37 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.1097389738973897</v>
+        <v>-0.1278195488721804</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>0.05519351935193519</v>
+        <v>-0.3684210526315789</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07308730873087309</v>
+        <v>-0.4706766917293232</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0356075607560756</v>
+        <v>0.3654135338345864</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.07822382238223821</v>
+        <v>0.5097744360902255</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.08427242724272427</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="J34" t="n">
-        <v>0.09921729349686852</v>
+        <v>-0.2052844804927826</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.08277227722772276</v>
+        <v>0.5308270676691729</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.08277227722772276</v>
+        <v>0.5308270676691729</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>-0.08277227722772276</v>
+        <v>0.5308270676691729</v>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2408,37 +2408,37 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.055001500150015</v>
+        <v>-0.006015037593984962</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>0.09340534053405339</v>
+        <v>-0.2977443609022556</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.009312931293129312</v>
+        <v>-0.1323308270676692</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.1529432943294329</v>
+        <v>0.1533834586466165</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.01656165616561656</v>
+        <v>0.2135338345864662</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01275727572757276</v>
+        <v>0.1639097744360902</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0234339851795669</v>
+        <v>0.1245291885342247</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.01796579657965796</v>
+        <v>0.2255639097744361</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.01796579657965796</v>
+        <v>0.2255639097744361</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>-0.01796579657965796</v>
+        <v>0.2255639097744361</v>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2464,37 +2464,37 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.01339333933393339</v>
+        <v>-0.1443609022556391</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>-0.1006420642064206</v>
+        <v>-0.3323308270676691</v>
       </c>
       <c r="F36" t="n">
-        <v>0.08946894689468947</v>
+        <v>-0.1037593984962406</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.001704170417041704</v>
+        <v>0.2406015037593985</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.08973297329732971</v>
+        <v>0.2225563909774436</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.07734773477347733</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.004669968321242236</v>
+        <v>0.1539633603695869</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.08206420642064205</v>
+        <v>0.2120300751879699</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.08206420642064205</v>
+        <v>0.2120300751879699</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>-0.08206420642064205</v>
+        <v>0.2120300751879699</v>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
@@ -2520,37 +2520,37 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.09974197419741973</v>
+        <v>-0.1954887218045113</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>0.08476447644764476</v>
+        <v>-0.4827067669172932</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.0386078607860786</v>
+        <v>-0.03308270676691729</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.07108310831083108</v>
+        <v>0.38796992481203</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001272127212721272</v>
+        <v>0.1458646616541353</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02844284428442844</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.1823210926961174</v>
+        <v>-0.03849084009239673</v>
       </c>
       <c r="K37" t="n">
-        <v>0.001728172817281728</v>
+        <v>0.1488721804511278</v>
       </c>
       <c r="L37" t="n">
-        <v>0.001728172817281728</v>
+        <v>0.1488721804511278</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
-        <v>0.001728172817281728</v>
+        <v>0.1488721804511278</v>
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Electricity GWP [kg*CO2*eq / kWhr]</t>
+          <t>Electricity GWP [kg*CO2*eq / MWhr]</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="Z2" s="1" t="inlineStr">
         <is>
-          <t>Electricity GWP derivative [kg*CO2*eq / kWhr]</t>
+          <t>Electricity GWP derivative [kg*CO2*eq / MWhr]</t>
         </is>
       </c>
     </row>
@@ -716,33 +716,33 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0.3338345864661654</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3669172932330827</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4345864661654135</v>
+        <v>-0.3</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2661654135338345</v>
+        <v>-0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3488721804511278</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3675497867646511</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2421052631578947</v>
+        <v>-0.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2421052631578947</v>
+        <v>-0.2</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>0.2421052631578947</v>
+        <v>-0.2</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -764,37 +764,37 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1398496240601504</v>
+        <v>0.6</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>-0.3082706766917293</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2300751879699248</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4075187969924812</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2857142857142857</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2616541353383459</v>
+        <v>-0.2</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1773597533669261</v>
+        <v>0.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3022556390977443</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3022556390977443</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>0.3022556390977443</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -816,37 +816,37 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.206015037593985</v>
+        <v>-0.2</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>-0.3022556390977443</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.9578947368421054</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="G6" t="n">
-        <v>0.237593984962406</v>
+        <v>0.3</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9684210526315788</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.233209207618639</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9969924812030074</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9969924812030074</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>0.9969924812030074</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -872,37 +872,37 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9533834586466164</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.2796992481203007</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3413533834586466</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2436090225563909</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.3864661654135338</v>
+        <v>-0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3518796992481203</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.05660417660646577</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4045112781954887</v>
+        <v>-0.2</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.4045112781954887</v>
+        <v>-0.2</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>-0.4045112781954887</v>
+        <v>-0.2</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -928,37 +928,37 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2721804511278195</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>-0.3052631578947368</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3849624060150376</v>
+        <v>-0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2090225563909774</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.2932330827067668</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3323308270676691</v>
+        <v>0.2</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1600011392076099</v>
+        <v>0.3</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.2857142857142857</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.2857142857142857</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>-0.2857142857142857</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -984,37 +984,37 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.2781954887218045</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>-0.237593984962406</v>
+        <v>-0.3</v>
       </c>
       <c r="F9" t="n">
-        <v>0.356390977443609</v>
+        <v>0.7</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4165413533834587</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.2526315789473684</v>
+        <v>-0.6</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3699248120300751</v>
+        <v>-0.7</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05434000954220714</v>
+        <v>0.3</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.2345864661654135</v>
+        <v>-0.6</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.2345864661654135</v>
+        <v>-0.6</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>-0.2345864661654135</v>
+        <v>-0.6</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -1040,37 +1040,37 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1172932330827067</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>-0.4586466165413533</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1533834586466165</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1473684210526316</v>
+        <v>0.2</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2496240601503759</v>
+        <v>-0.7</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1804511278195489</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.08000056960380496</v>
+        <v>0.6</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2496240601503759</v>
+        <v>-0.7</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2496240601503759</v>
+        <v>-0.7</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>0.2496240601503759</v>
+        <v>-0.7</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1092,37 +1092,37 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2902255639097744</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.8210526315789473</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06917293233082707</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.9819548872180449</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.3172932330827067</v>
+        <v>-0.3</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1037593984962406</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2083033699117941</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.3443609022556391</v>
+        <v>-0.3</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.3443609022556391</v>
+        <v>-0.3</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>-0.3443609022556391</v>
+        <v>-0.3</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1144,37 +1144,37 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.07969924812030074</v>
+        <v>-0.3</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>0.2</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3909774436090225</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2165413533834586</v>
+        <v>-0.2</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.4030075187969925</v>
+        <v>0.3</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4135338345864661</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3947197915357546</v>
+        <v>-0.6</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.425563909774436</v>
+        <v>0.3</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.425563909774436</v>
+        <v>0.3</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>-0.425563909774436</v>
+        <v>0.3</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1200,37 +1200,37 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.4210526315789473</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>-0.2015037593984962</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2721804511278195</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2586466165413533</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3097744360902255</v>
+        <v>-0.6</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2872180451127819</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.2777378265490588</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3142857142857143</v>
+        <v>-0.6</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3142857142857143</v>
+        <v>-0.6</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>0.3142857142857143</v>
+        <v>-0.6</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1256,37 +1256,37 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.07368421052631578</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>-0.2616541353383459</v>
+        <v>-0.7</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1548872180451128</v>
+        <v>0.3</v>
       </c>
       <c r="G14" t="n">
-        <v>0.275187969924812</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2481203007518797</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2045112781954887</v>
+        <v>-0.3</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.2083033699117941</v>
+        <v>0.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2601503759398496</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2601503759398496</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>0.2601503759398496</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1312,37 +1312,37 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.162406015037594</v>
+        <v>0.6</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02105263157894736</v>
+        <v>0.2</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1443609022556391</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.08270676691729321</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.02706766917293233</v>
+        <v>-0.2</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.2664169912277656</v>
+        <v>0.3</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.08872180451127819</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.08872180451127819</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>-0.08872180451127819</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1368,37 +1368,37 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1293233082706767</v>
+        <v>-0.6</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>-0.4496240601503759</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2616541353383459</v>
+        <v>-0.2</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5052631578947367</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1203007518796992</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2270676691729323</v>
+        <v>0.2</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.06792501192775893</v>
+        <v>-0.3</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.08571428571428572</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.08571428571428572</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>-0.08571428571428572</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1420,37 +1420,37 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.08421052631578946</v>
+        <v>-0.3</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>0.2736842105263158</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3699248120300751</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2421052631578947</v>
+        <v>0.3</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3172932330827067</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3473684210526315</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04981167541368987</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2842105263157895</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2842105263157895</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>0.2842105263157895</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
@@ -1476,37 +1476,37 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.1819548872180451</v>
+        <v>0.7</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>-0.1353383458646616</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="F18" t="n">
-        <v>0.18796992481203</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1383458646616541</v>
+        <v>-0.7</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1112781954887218</v>
+        <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1714285714285714</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.3411345043483003</v>
+        <v>0.4</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.1022556390977443</v>
+        <v>0.3</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.1022556390977443</v>
+        <v>0.3</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>-0.1022556390977443</v>
+        <v>0.3</v>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -1532,37 +1532,37 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.09022556390977443</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>-0.3654135338345864</v>
+        <v>-0.6</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03007518796992481</v>
+        <v>-0.6</v>
       </c>
       <c r="G19" t="n">
-        <v>0.306766917293233</v>
+        <v>0.7</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05413533834586466</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.01654135338345865</v>
+        <v>0.6</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1388689132745294</v>
+        <v>-0.4</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04210526315789473</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04210526315789473</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>0.04210526315789473</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -1584,37 +1584,37 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.2165413533834586</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>-0.3022556390977443</v>
+        <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1578947368421053</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4661654135338345</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2706766917293233</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1112781954887218</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.06641556721825317</v>
+        <v>0.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2601503759398496</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2601503759398496</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>0.2601503759398496</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -1636,37 +1636,37 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.3413533834586466</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.1849624060150376</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3353383458646617</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.05864661654135337</v>
+        <v>0.3</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2766917293233083</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2887218045112782</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1418878026935408</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2406015037593985</v>
+        <v>0.2</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2406015037593985</v>
+        <v>0.2</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>0.2406015037593985</v>
+        <v>0.2</v>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -1688,37 +1688,37 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.09774436090225563</v>
+        <v>0.2</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>0.03759398496240601</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1759398496240602</v>
+        <v>-0.6</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.2706766917293233</v>
+        <v>0.3</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.1984962406015038</v>
+        <v>0.7</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1684210526315789</v>
+        <v>0.6</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.04981167541368987</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.2</v>
+        <v>0.7</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.2</v>
+        <v>0.7</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
-        <v>-0.2</v>
+        <v>0.7</v>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -1744,37 +1744,37 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.02556390977443609</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>-0.5097744360902255</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.09924812030075188</v>
+        <v>-0.2</v>
       </c>
       <c r="G23" t="n">
-        <v>0.356390977443609</v>
+        <v>-0.4</v>
       </c>
       <c r="H23" t="n">
+        <v>-0.09999999999999999</v>
+      </c>
+      <c r="I23" t="n">
         <v>0.2</v>
       </c>
-      <c r="I23" t="n">
-        <v>0.1383458646616541</v>
-      </c>
       <c r="J23" t="n">
-        <v>-0.3871725679882259</v>
+        <v>-0.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.237593984962406</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L23" t="n">
-        <v>0.237593984962406</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>0.237593984962406</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -1796,37 +1796,37 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.2932330827067668</v>
+        <v>0.6</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>-0.05263157894736842</v>
+        <v>0.7</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.03157894736842105</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0706766917293233</v>
+        <v>-0.6</v>
       </c>
       <c r="H24" t="n">
-        <v>0.05263157894736842</v>
+        <v>-0.6</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04060150375939849</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.04981167541368987</v>
+        <v>0.7</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04661654135338346</v>
+        <v>-0.6</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04661654135338346</v>
+        <v>-0.6</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>0.04661654135338346</v>
+        <v>-0.6</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
@@ -1852,37 +1852,37 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.04661654135338346</v>
+        <v>0.3</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>0.07368421052631578</v>
+        <v>0.6</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6481203007518795</v>
+        <v>-0.6</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004511278195488721</v>
+        <v>-0.7</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.6270676691729322</v>
+        <v>0.3</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.6526315789473683</v>
+        <v>0.6</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1849069769144549</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.6375939849624059</v>
+        <v>0.3</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.6375939849624059</v>
+        <v>0.3</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
-        <v>-0.6375939849624059</v>
+        <v>0.3</v>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
@@ -1904,37 +1904,37 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.06616541353383458</v>
+        <v>-0.6</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>-0.0150375939849624</v>
+        <v>-0.7</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09473684210526315</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>0.150375939849624</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.04962406015037594</v>
+        <v>0.6</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.05714285714285714</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.08528362608707508</v>
+        <v>-0.7</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.04661654135338346</v>
+        <v>0.6</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.04661654135338346</v>
+        <v>0.6</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>-0.04661654135338346</v>
+        <v>0.6</v>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
@@ -1960,37 +1960,37 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.3729323308270677</v>
+        <v>0.4</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>-0.01804511278195488</v>
+        <v>0.3</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4421052631578947</v>
+        <v>-0.3</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1007518796992481</v>
+        <v>-0.6</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.4105263157894736</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.4571428571428571</v>
+        <v>0.3</v>
       </c>
       <c r="J27" t="n">
-        <v>0.07245334605627618</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.4105263157894736</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.4105263157894736</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
-        <v>-0.4105263157894736</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
@@ -2016,37 +2016,37 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.07669172932330826</v>
+        <v>0</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>0.318796992481203</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1052631578947368</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.4992481203007519</v>
+        <v>-0.3</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.02706766917293233</v>
+        <v>-0.2</v>
       </c>
       <c r="I28" t="n">
-        <v>0.09624060150375939</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.1796239204311847</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.03458646616541353</v>
+        <v>-0.2</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.03458646616541353</v>
+        <v>-0.2</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>-0.03458646616541353</v>
+        <v>-0.2</v>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
@@ -2072,37 +2072,37 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.02406015037593985</v>
+        <v>-0.3</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>0.2796992481203007</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1834586466165413</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.3308270676691729</v>
+        <v>0.3</v>
       </c>
       <c r="H29" t="n">
-        <v>0.07218045112781954</v>
+        <v>-0.2</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1759398496240602</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1343405791460121</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="K29" t="n">
-        <v>0.08872180451127819</v>
+        <v>-0.2</v>
       </c>
       <c r="L29" t="n">
-        <v>0.08872180451127819</v>
+        <v>-0.2</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>0.08872180451127819</v>
+        <v>-0.2</v>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -2128,37 +2128,37 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.4902255639097743</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>-0.2075187969924812</v>
+        <v>-0.3</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4421052631578947</v>
+        <v>0.7</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2932330827067668</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.3548872180451128</v>
+        <v>-0.4</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.4781954887218045</v>
+        <v>-0.7</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2037750357832768</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.3398496240601503</v>
+        <v>-0.4</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.3398496240601503</v>
+        <v>-0.4</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>-0.3398496240601503</v>
+        <v>-0.4</v>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
@@ -2184,37 +2184,37 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1172932330827067</v>
+        <v>0.3</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>0.1443609022556391</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1067669172932331</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.2195488721804511</v>
+        <v>0.3</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.1593984962406015</v>
+        <v>0.3</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.1022556390977443</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2030203134285239</v>
+        <v>0.4</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.1609022556390977</v>
+        <v>0.3</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.1609022556390977</v>
+        <v>0.3</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>-0.1609022556390977</v>
+        <v>0.3</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -2240,37 +2240,37 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.05263157894736842</v>
+        <v>-0.6</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>0.1037593984962406</v>
+        <v>-0.2</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3488721804511278</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.01804511278195488</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.356390977443609</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.356390977443609</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.08603834844182798</v>
+        <v>0.3</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.3443609022556391</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.3443609022556391</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="n">
-        <v>-0.3443609022556391</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2296,37 +2296,37 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5398496240601504</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>0.3172932330827067</v>
+        <v>0.7</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.08120300751879699</v>
+        <v>0.3</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.156390977443609</v>
+        <v>-0.6</v>
       </c>
       <c r="H33" t="n">
-        <v>0.04060150375939849</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0706766917293233</v>
+        <v>-0.3</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2181147605235814</v>
+        <v>0.2</v>
       </c>
       <c r="K33" t="n">
-        <v>0.01353383458646617</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01353383458646617</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="n">
-        <v>0.01353383458646617</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2352,37 +2352,37 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.1278195488721804</v>
+        <v>-0.6</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>-0.3684210526315789</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.4706766917293232</v>
+        <v>-0.7</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3654135338345864</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5097744360902255</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.7</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.2052844804927826</v>
+        <v>-0.2</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5308270676691729</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="L34" t="n">
-        <v>0.5308270676691729</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>0.5308270676691729</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2408,37 +2408,37 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.006015037593984962</v>
+        <v>-0.6</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>-0.2977443609022556</v>
+        <v>-0.3</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.1323308270676692</v>
+        <v>0.3</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1533834586466165</v>
+        <v>0.4</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2135338345864662</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1639097744360902</v>
+        <v>-0.3</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1245291885342247</v>
+        <v>0.7</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2255639097744361</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.2255639097744361</v>
+        <v>0</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>0.2255639097744361</v>
+        <v>0</v>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2464,37 +2464,37 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.1443609022556391</v>
+        <v>0</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>-0.3323308270676691</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.1037593984962406</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2406015037593985</v>
+        <v>-0.3</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2225563909774436</v>
+        <v>-0.2</v>
       </c>
       <c r="I36" t="n">
-        <v>0.112781954887218</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1539633603695869</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2120300751879699</v>
+        <v>-0.2</v>
       </c>
       <c r="L36" t="n">
-        <v>0.2120300751879699</v>
+        <v>-0.2</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>0.2120300751879699</v>
+        <v>-0.2</v>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
@@ -2520,37 +2520,37 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.1954887218045113</v>
+        <v>0.6</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>-0.4827067669172932</v>
+        <v>0.3</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.03308270676691729</v>
+        <v>-0.3</v>
       </c>
       <c r="G37" t="n">
-        <v>0.38796992481203</v>
+        <v>-0.4</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1458646616541353</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.3</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.03849084009239673</v>
+        <v>-0.7</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1488721804511278</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1488721804511278</v>
+        <v>0</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
-        <v>0.1488721804511278</v>
+        <v>0</v>
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
@@ -712,37 +712,37 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0.02520688468827538</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.007782661943306476</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.008223408328936331</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3</v>
+        <v>0.003914455548578222</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.2</v>
+        <v>-0.007852005434080217</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.007427469321098772</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.8999999999999998</v>
+        <v>0.01547328433134627</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.2</v>
+        <v>-0.007325059589002383</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.2</v>
+        <v>-0.007325059589002383</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>-0.2</v>
+        <v>-0.007325059589002383</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -764,37 +764,37 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6</v>
+        <v>0.0115595550543822</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.01407169025886761</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2</v>
+        <v>0.0007133395485335818</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.8999999999999998</v>
+        <v>0.01979438354377534</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.005608826624353065</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2</v>
+        <v>0.00101141024845641</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3</v>
+        <v>-0.01162842516101724</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.005777384391095375</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.005777384391095375</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.005777384391095375</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -816,37 +816,37 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.2</v>
+        <v>0.1242969290678771</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.2397781137511245</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.9630775918351036</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3</v>
+        <v>-0.01103339948133598</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999985236159408</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.974571654918866</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.001146409098474829</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.998159780438391</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.998159780438391</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.998159780438391</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -872,37 +872,37 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9679153566046141</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.01554655732586229</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.0008166083846643351</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.0129473774778951</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2</v>
+        <v>0.005653261570130462</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.002638555305542212</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.02341774543165503</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2</v>
+        <v>0.006539426661577065</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.2</v>
+        <v>0.006539426661577065</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>-0.2</v>
+        <v>0.006539426661577065</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -928,37 +928,37 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.01221661767266471</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.01610273526810941</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2</v>
+        <v>0.008100074244002969</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.01662873100114924</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.01299195315967813</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2</v>
+        <v>-0.0102946025557841</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3</v>
+        <v>0.002334397337582074</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.01346264981850599</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.01346264981850599</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.01346264981850599</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -984,37 +984,37 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.01822791653711666</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>-0.3</v>
+        <v>0.008118562116742485</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7</v>
+        <v>-0.02970020230800809</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.01572980117319205</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.6</v>
+        <v>0.02697309285492371</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.7</v>
+        <v>0.02904841143393645</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3</v>
+        <v>-0.006415171041820074</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.6</v>
+        <v>0.02638637059145482</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.6</v>
+        <v>0.02638637059145482</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>-0.6</v>
+        <v>0.02638637059145482</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -1040,37 +1040,37 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.02995293355011733</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.00996457681458307</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.002169485654779426</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2</v>
+        <v>0.001081241707249668</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.7</v>
+        <v>-0.00188187050727482</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.001164699886587995</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6</v>
+        <v>-0.01730201824222126</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.7</v>
+        <v>-0.002570364294814572</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.7</v>
+        <v>-0.002570364294814572</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>-0.7</v>
+        <v>-0.002570364294814572</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1092,37 +1092,37 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.0682421952416878</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.7349377253015089</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.2476595541303822</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-0.986848105553924</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.3</v>
+        <v>-0.005492080539683221</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.2132218491688739</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-0.003444746942869331</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.3</v>
+        <v>-0.03849618038784721</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.3</v>
+        <v>-0.03849618038784721</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>-0.3</v>
+        <v>-0.03849618038784721</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1144,37 +1144,37 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.3</v>
+        <v>-0.195346674373867</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.0005569421982776878</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.00579465949578638</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2</v>
+        <v>0.002669817706792708</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3</v>
+        <v>0.007162120990484839</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.006233193849327753</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.6</v>
+        <v>0.02224051103150239</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3</v>
+        <v>0.006510444164417765</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3</v>
+        <v>0.006510444164417765</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>0.3</v>
+        <v>0.006510444164417765</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1200,37 +1200,37 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.01029115845964634</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-0.02247291190691647</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.007538661709546468</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.02293552142942086</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.6</v>
+        <v>0.01388905399556216</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.009781065223242607</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.001155375210786514</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.6</v>
+        <v>0.01559175316767012</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.6</v>
+        <v>0.01559175316767012</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>-0.6</v>
+        <v>0.01559175316767012</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1256,37 +1256,37 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.00437981326319253</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>-0.7</v>
+        <v>-0.01727859064314363</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3</v>
+        <v>0.006693708363748334</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01574907528596301</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.003306701220268048</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3</v>
+        <v>-0.006288456731538269</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2</v>
+        <v>-0.01784087026903606</v>
       </c>
       <c r="K14" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.002267557338702293</v>
       </c>
       <c r="L14" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.002267557338702293</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.002267557338702293</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1312,37 +1312,37 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6</v>
+        <v>0.006973099862923994</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.005723682180947287</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2</v>
+        <v>0.01205131574605263</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.8999999999999998</v>
+        <v>0.0003351033734041349</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.01231107908444316</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2</v>
+        <v>-0.01113809343752374</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3</v>
+        <v>-0.03215043972383302</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.01252159672486387</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.01252159672486387</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.01252159672486387</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1368,37 +1368,37 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.6</v>
+        <v>0.02342736938509477</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.01545196487407859</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2</v>
+        <v>-0.01154427982177119</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.00507402452296098</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.009126217901048716</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2</v>
+        <v>0.0114335949853438</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.3</v>
+        <v>-0.01444963310289037</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.008193815463752616</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.008193815463752616</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.008193815463752616</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1420,37 +1420,37 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.3</v>
+        <v>-0.0006896704595868182</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.01026630636265225</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.009664435682577426</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3</v>
+        <v>0.002034194577367783</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.007901475196059007</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.006991911447676457</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.01456265703121181</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.006728304845132193</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.006728304845132193</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.006728304845132193</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
@@ -1476,37 +1476,37 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.7</v>
+        <v>-0.01939918445596737</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01386254801050192</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.004673633274945329</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.7</v>
+        <v>-0.005226530513061219</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3</v>
+        <v>-0.00731511101260444</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.005049995625999825</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4</v>
+        <v>-0.01042169579337634</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3</v>
+        <v>-0.008199142215965688</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3</v>
+        <v>-0.008199142215965688</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>0.3</v>
+        <v>-0.008199142215965688</v>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -1532,37 +1532,37 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.01588151573926063</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>-0.6</v>
+        <v>-0.002911123316444933</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6</v>
+        <v>0.006796998799879952</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7</v>
+        <v>-0.002696432267857291</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.0066431175137247</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6</v>
+        <v>-0.005374445494977819</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.4</v>
+        <v>-0.01646803326647601</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.00675762478230499</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.00675762478230499</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.00675762478230499</v>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -1584,37 +1584,37 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.008443730545749222</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.2</v>
+        <v>0.01809021624360865</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.006464746914589876</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.01337225410289016</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.009791524615660983</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.006784460047378401</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3</v>
+        <v>0.006980377396312287</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.01081085179243407</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.01081085179243407</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.01081085179243407</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -1636,37 +1636,37 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.007346701541868061</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.003649722289988891</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.009431244473249778</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3</v>
+        <v>-0.004802896992115879</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>-0.009914377644575104</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.0100263775850551</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.01177479646290069</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2</v>
+        <v>-0.00935579653423186</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2</v>
+        <v>-0.00935579653423186</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>0.2</v>
+        <v>-0.00935579653423186</v>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -1688,37 +1688,37 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2</v>
+        <v>0.006930391861215674</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.001589515551580622</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.6</v>
+        <v>0.01709893393195736</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3</v>
+        <v>-0.00361174900846996</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7</v>
+        <v>-0.01984955349798214</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6</v>
+        <v>-0.01796197329447893</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.005632457545436058</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7</v>
+        <v>-0.01960951787238071</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7</v>
+        <v>-0.01960951787238071</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
-        <v>0.7</v>
+        <v>-0.01960951787238071</v>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -1744,37 +1744,37 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.009002455944098238</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-0.00257142375085695</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.2</v>
+        <v>0.01232098647683946</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.4</v>
+        <v>0.01631303652452146</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.008776817343072693</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2</v>
+        <v>-0.01193964566158582</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.7</v>
+        <v>-0.02344283543262435</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.00894218301368732</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.00894218301368732</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.00894218301368732</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -1796,37 +1796,37 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.6</v>
+        <v>0.0007663044786521791</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>0.7</v>
+        <v>0.01217688855107554</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.02449781301191252</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.6</v>
+        <v>-0.005227342673093706</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.6</v>
+        <v>0.02186211965848478</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.02275960987038439</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7</v>
+        <v>-0.005259561393981524</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.6</v>
+        <v>0.0209824675912987</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.6</v>
+        <v>0.0209824675912987</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>-0.6</v>
+        <v>0.0209824675912987</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
@@ -1852,37 +1852,37 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3</v>
+        <v>0.0240912826596513</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>0.6</v>
+        <v>-0.007191037247641488</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.6</v>
+        <v>-0.009800704712028187</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.7</v>
+        <v>0.007577252943090117</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3</v>
+        <v>0.01142455264898211</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6</v>
+        <v>0.01117785644711426</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.01435854734231898</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3</v>
+        <v>0.01178341544733662</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3</v>
+        <v>0.01178341544733662</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
-        <v>0.3</v>
+        <v>0.01178341544733662</v>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
@@ -1904,37 +1904,37 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.6</v>
+        <v>-0.01170576651623066</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>-0.7</v>
+        <v>-0.01469849578793983</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.01033753615750145</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6</v>
+        <v>0.01766405216256208</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6</v>
+        <v>-0.005179425807177031</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.009274533202981328</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.7</v>
+        <v>0.01880119663886984</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6</v>
+        <v>-0.004281952683278106</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6</v>
+        <v>-0.004281952683278106</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>0.6</v>
+        <v>-0.004281952683278106</v>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
@@ -1960,37 +1960,37 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4</v>
+        <v>0.01502293327291733</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>0.3</v>
+        <v>-0.03465603959424158</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.3</v>
+        <v>-0.01713647281345891</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.6</v>
+        <v>0.004103097956123918</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.02207754165110166</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3</v>
+        <v>0.01994497692579908</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.01058199059041446</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.02462607045704282</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.02462607045704282</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.02462607045704282</v>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
@@ -2016,37 +2016,37 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-0.004767116638684665</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.01506191666647666</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.006258648250345929</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.3</v>
+        <v>-0.008269908234796328</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.2</v>
+        <v>-0.008266401258656049</v>
       </c>
       <c r="I28" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.008308641836345672</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.004181471191781383</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.2</v>
+        <v>-0.008948820357952813</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.2</v>
+        <v>-0.008948820357952813</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>-0.2</v>
+        <v>-0.008948820357952813</v>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
@@ -2072,37 +2072,37 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.3</v>
+        <v>-0.005609890496395618</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.02586618785064751</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.01980953378438135</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3</v>
+        <v>-0.007308810436352417</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.2</v>
+        <v>0.01749584383583375</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.01698371127134845</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01847455664723586</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.2</v>
+        <v>0.01490515307620612</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.2</v>
+        <v>0.01490515307620612</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>-0.2</v>
+        <v>0.01490515307620612</v>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -2128,37 +2128,37 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.005613895904555835</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>-0.3</v>
+        <v>0.01918661644746465</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7</v>
+        <v>0.01417785570311422</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.01238681281547251</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.4</v>
+        <v>-0.01718398916735956</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.7</v>
+        <v>-0.01571460946058437</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.007748158357410279</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.4</v>
+        <v>-0.01813534190941367</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.4</v>
+        <v>-0.01813534190941367</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>-0.4</v>
+        <v>-0.01813534190941367</v>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
@@ -2184,37 +2184,37 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.3</v>
+        <v>0.01884732968189318</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.01824520181780807</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.0190875325395013</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3</v>
+        <v>-0.0005945371437814855</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3</v>
+        <v>-0.02042824804912992</v>
       </c>
       <c r="I31" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.02022070112882804</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4</v>
+        <v>-0.002456968714847717</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3</v>
+        <v>-0.02154230697369227</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3</v>
+        <v>-0.02154230697369227</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>0.3</v>
+        <v>-0.02154230697369227</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -2240,37 +2240,37 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.6</v>
+        <v>0.006831829809273191</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>-0.2</v>
+        <v>-0.007914755740590227</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.01092167150886686</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.01206494093059764</v>
       </c>
       <c r="H32" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.007686408691456347</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-0.01066486276259451</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3</v>
+        <v>-0.01635629014271284</v>
       </c>
       <c r="K32" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.007525910509036419</v>
       </c>
       <c r="L32" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.007525910509036419</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.007525910509036419</v>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2296,37 +2296,37 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.02805956521838261</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>0.7</v>
+        <v>-0.02234691276587651</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3</v>
+        <v>0.0009205416368216654</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.6</v>
+        <v>0.02809268310770732</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.004991588455663538</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.3</v>
+        <v>-0.0002478960099158403</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2</v>
+        <v>-0.02975334152411836</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.005963607310544291</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.005963607310544291</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.005963607310544291</v>
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2352,37 +2352,37 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.6</v>
+        <v>-0.01327298856291954</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.0004143562725742508</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.7</v>
+        <v>-0.01256295717451828</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>-0.007547552653902105</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.009961462382458494</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7</v>
+        <v>0.01112760610910424</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.2</v>
+        <v>-0.0008376853340178389</v>
       </c>
       <c r="K34" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01027877445915098</v>
       </c>
       <c r="L34" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01027877445915098</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01027877445915098</v>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2408,37 +2408,37 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.6</v>
+        <v>0.0162348474973939</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>-0.3</v>
+        <v>0.02612780658111226</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3</v>
+        <v>-0.02187856321114252</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4</v>
+        <v>-0.02810160870806434</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.01638748279949931</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.3</v>
+        <v>0.02121788081671523</v>
       </c>
       <c r="J35" t="n">
-        <v>0.7</v>
+        <v>-0.00639943378213678</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.01455211805408472</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.01455211805408472</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>0.01455211805408472</v>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2464,37 +2464,37 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.02282898148915926</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.002307951356318054</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.002517871972714878</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.3</v>
+        <v>0.001494377915775116</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.2</v>
+        <v>-0.001649435297977412</v>
       </c>
       <c r="I36" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.002243779097751163</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.8999999999999998</v>
+        <v>0.006495649534634759</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.2</v>
+        <v>-0.001343303573732143</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.2</v>
+        <v>-0.001343303573732143</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>-0.2</v>
+        <v>-0.001343303573732143</v>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
@@ -2520,37 +2520,37 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.6</v>
+        <v>0.01849582105983284</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>0.3</v>
+        <v>-0.008949108453964337</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3</v>
+        <v>0.01616912887076515</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.4</v>
+        <v>0.01710014084400563</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-0.01259444555977782</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3</v>
+        <v>-0.01429813353192534</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.7</v>
+        <v>0.002181480533989604</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-0.01190055714802228</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-0.01190055714802228</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>-0.01190055714802228</v>
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
@@ -712,37 +712,37 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.02520688468827538</v>
+        <v>-0.0253464949978598</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>-0.007782661943306476</v>
+        <v>-0.007824133656965345</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008223408328936331</v>
+        <v>-0.001777012487080499</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003914455548578222</v>
+        <v>0.002648429385937175</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.007852005434080217</v>
+        <v>-0.007832288377291535</v>
       </c>
       <c r="I4" t="n">
         <v>-0.007427469321098772</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01547328433134627</v>
+        <v>-0.003885753537981767</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.007325059589002383</v>
+        <v>0.01110296214011848</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.007325059589002383</v>
+        <v>0.01110296214011848</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>-0.007325059589002383</v>
+        <v>0.01110296214011848</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -764,37 +764,37 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0115595550543822</v>
+        <v>0.01172179016487161</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>-0.01407169025886761</v>
+        <v>-0.01443077702523108</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0007133395485335818</v>
+        <v>0.02045391979415679</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01979438354377534</v>
+        <v>0.02039013153560526</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005608826624353065</v>
+        <v>0.005604104192164167</v>
       </c>
       <c r="I5" t="n">
         <v>0.00101141024845641</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01162842516101724</v>
+        <v>0.02113936112348385</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005777384391095375</v>
+        <v>0.00767235525089421</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005777384391095375</v>
+        <v>0.00767235525089421</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>0.005777384391095375</v>
+        <v>0.00767235525089421</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -816,37 +816,37 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1242969290678771</v>
+        <v>0.1573129986765199</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>-0.2397781137511245</v>
+        <v>-0.2399218307488732</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.9630775918351036</v>
+        <v>0.7399928465597138</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01103339948133598</v>
+        <v>0.01021602645664106</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999985236159408</v>
+        <v>0.9999986473599457</v>
       </c>
       <c r="I6" t="n">
         <v>0.974571654918866</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.001146409098474829</v>
+        <v>-0.001169439107719189</v>
       </c>
       <c r="K6" t="n">
-        <v>0.998159780438391</v>
+        <v>-0.5453406654936266</v>
       </c>
       <c r="L6" t="n">
-        <v>0.998159780438391</v>
+        <v>-0.5453406654936266</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>0.998159780438391</v>
+        <v>-0.5453406654936266</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -872,37 +872,37 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9679153566046141</v>
+        <v>0.9629221444048857</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>-0.01554655732586229</v>
+        <v>-0.01524237171369487</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0008166083846643351</v>
+        <v>0.01286107606644304</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0129473774778951</v>
+        <v>0.01193824569352983</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005653261570130462</v>
+        <v>0.005700587652023505</v>
       </c>
       <c r="I7" t="n">
         <v>0.002638555305542212</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02341774543165503</v>
+        <v>-0.000497144713794027</v>
       </c>
       <c r="K7" t="n">
-        <v>0.006539426661577065</v>
+        <v>0.009813191144527646</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006539426661577065</v>
+        <v>0.009813191144527646</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>0.006539426661577065</v>
+        <v>0.009813191144527646</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -928,37 +928,37 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.01221661767266471</v>
+        <v>-0.01278558387142335</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.01610273526810941</v>
+        <v>0.0165743976869759</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008100074244002969</v>
+        <v>-0.01808841672353666</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01662873100114924</v>
+        <v>-0.01566450485058019</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.01299195315967813</v>
+        <v>-0.01301314976852599</v>
       </c>
       <c r="I8" t="n">
         <v>-0.0102946025557841</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002334397337582074</v>
+        <v>-0.01581543630502708</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01346264981850599</v>
+        <v>-0.001710245636409825</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.01346264981850599</v>
+        <v>-0.001710245636409825</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>-0.01346264981850599</v>
+        <v>-0.001710245636409825</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -984,37 +984,37 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01822791653711666</v>
+        <v>0.01897909352716374</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.008118562116742485</v>
+        <v>0.00779487026379481</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02970020230800809</v>
+        <v>0.01063508567340343</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01572980117319205</v>
+        <v>-0.01496265967050638</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02697309285492371</v>
+        <v>0.02696720085468803</v>
       </c>
       <c r="I9" t="n">
         <v>0.02904841143393645</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.006415171041820074</v>
+        <v>0.001533847295487822</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02638637059145482</v>
+        <v>-0.02191206606048264</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02638637059145482</v>
+        <v>-0.02191206606048264</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>0.02638637059145482</v>
+        <v>-0.02191206606048264</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -1040,37 +1040,37 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.02995293355011733</v>
+        <v>0.03357303062292123</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.00996457681458307</v>
+        <v>0.009961287854451512</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002169485654779426</v>
+        <v>-0.002122721652908866</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001081241707249668</v>
+        <v>-0.001369223382768935</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.00188187050727482</v>
+        <v>-0.001887306795492272</v>
       </c>
       <c r="I10" t="n">
         <v>-0.001164699886587995</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.01730201824222126</v>
+        <v>0.0128699084863439</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.002570364294814572</v>
+        <v>-0.007725228309009131</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.002570364294814572</v>
+        <v>-0.007725228309009131</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>-0.002570364294814572</v>
+        <v>-0.007725228309009131</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1092,37 +1092,37 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0682421952416878</v>
+        <v>0.06744144845765793</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.7349377253015089</v>
+        <v>0.7354200222168008</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2476595541303822</v>
+        <v>-0.6367352219814087</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.986848105553924</v>
+        <v>-0.9943630343345211</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.005492080539683221</v>
+        <v>-0.005519006620760263</v>
       </c>
       <c r="I11" t="n">
         <v>0.2132218491688739</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.003444746942869331</v>
+        <v>0.009753814828666232</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.03849618038784721</v>
+        <v>-0.5390104423284175</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.03849618038784721</v>
+        <v>-0.5390104423284175</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>-0.03849618038784721</v>
+        <v>-0.5390104423284175</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1144,37 +1144,37 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.195346674373867</v>
+        <v>-0.1937478730299149</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>0.0005569421982776878</v>
+        <v>0.0004580551863222074</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.00579465949578638</v>
+        <v>0.009822249992889998</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002669817706792708</v>
+        <v>0.004239332329573292</v>
       </c>
       <c r="H12" t="n">
-        <v>0.007162120990484839</v>
+        <v>0.007142704317708173</v>
       </c>
       <c r="I12" t="n">
         <v>0.006233193849327753</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02224051103150239</v>
+        <v>0.03449165853403902</v>
       </c>
       <c r="K12" t="n">
-        <v>0.006510444164417765</v>
+        <v>-0.01144471120978845</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006510444164417765</v>
+        <v>-0.01144471120978845</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>0.006510444164417765</v>
+        <v>-0.01144471120978845</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1200,37 +1200,37 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01029115845964634</v>
+        <v>0.01074628727785149</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>-0.02247291190691647</v>
+        <v>-0.02248968493158739</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.007538661709546468</v>
+        <v>0.02610560888422435</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02293552142942086</v>
+        <v>0.02158594703943788</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01388905399556216</v>
+        <v>0.0139143574845743</v>
       </c>
       <c r="I13" t="n">
         <v>0.009781065223242607</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.001155375210786514</v>
+        <v>-0.0125595409937328</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01559175316767012</v>
+        <v>0.005502082204083288</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01559175316767012</v>
+        <v>0.005502082204083288</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>0.01559175316767012</v>
+        <v>0.005502082204083288</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1256,37 +1256,37 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.00437981326319253</v>
+        <v>-0.004881154083246162</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>-0.01727859064314363</v>
+        <v>-0.01726787233871489</v>
       </c>
       <c r="F14" t="n">
-        <v>0.006693708363748334</v>
+        <v>0.004693291867731673</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01574907528596301</v>
+        <v>0.01541331037653241</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.003306701220268048</v>
+        <v>-0.003298731299949251</v>
       </c>
       <c r="I14" t="n">
         <v>-0.006288456731538269</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.01784087026903606</v>
+        <v>-0.03766547666952736</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.002267557338702293</v>
+        <v>0.0195799050391962</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.002267557338702293</v>
+        <v>0.0195799050391962</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>-0.002267557338702293</v>
+        <v>0.0195799050391962</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1312,37 +1312,37 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.006973099862923994</v>
+        <v>0.006693884907755395</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0.005723682180947287</v>
+        <v>0.006167963478718538</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01205131574605263</v>
+        <v>-0.006227074713082988</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0003351033734041349</v>
+        <v>-0.002131174453246978</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.01231107908444316</v>
+        <v>-0.01229977882799115</v>
       </c>
       <c r="I15" t="n">
         <v>-0.01113809343752374</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.03215043972383302</v>
+        <v>-0.007683808930672282</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01252159672486387</v>
+        <v>0.001577535423101417</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.01252159672486387</v>
+        <v>0.001577535423101417</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>-0.01252159672486387</v>
+        <v>0.001577535423101417</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1368,37 +1368,37 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.02342736938509477</v>
+        <v>0.02354171566166862</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>0.01545196487407859</v>
+        <v>0.01528144438725777</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01154427982177119</v>
+        <v>0.001544806621792265</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.00507402452296098</v>
+        <v>-0.004584344823373793</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009126217901048716</v>
+        <v>0.009122941804917671</v>
       </c>
       <c r="I16" t="n">
         <v>0.0114335949853438</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.01444963310289037</v>
+        <v>0.01188672191000843</v>
       </c>
       <c r="K16" t="n">
-        <v>0.008193815463752616</v>
+        <v>-0.02280497438419897</v>
       </c>
       <c r="L16" t="n">
-        <v>0.008193815463752616</v>
+        <v>-0.02280497438419897</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>0.008193815463752616</v>
+        <v>-0.02280497438419897</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1420,37 +1420,37 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.0006896704595868182</v>
+        <v>-0.0008145614725824588</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>-0.01026630636265225</v>
+        <v>-0.01022141234485649</v>
       </c>
       <c r="F17" t="n">
-        <v>0.009664435682577426</v>
+        <v>-0.003662362898494516</v>
       </c>
       <c r="G17" t="n">
-        <v>0.002034194577367783</v>
+        <v>0.001785244871409795</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.007901475196059007</v>
+        <v>-0.007894792923791716</v>
       </c>
       <c r="I17" t="n">
         <v>-0.006991911447676457</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.01456265703121181</v>
+        <v>0.008550744887254023</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.006728304845132193</v>
+        <v>0.01149941546797662</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.006728304845132193</v>
+        <v>0.01149941546797662</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>-0.006728304845132193</v>
+        <v>0.01149941546797662</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
@@ -1476,37 +1476,37 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01939918445596737</v>
+        <v>-0.01978966783158671</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>0.01386254801050192</v>
+        <v>0.0137006301800252</v>
       </c>
       <c r="F18" t="n">
-        <v>0.004673633274945329</v>
+        <v>-0.009528304413132174</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.005226530513061219</v>
+        <v>-0.006163715766548629</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.00731511101260444</v>
+        <v>-0.007316056516642259</v>
       </c>
       <c r="I18" t="n">
         <v>-0.005049995625999825</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.01042169579337634</v>
+        <v>0.01806586275515859</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.008199142215965688</v>
+        <v>-0.009881243723249748</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.008199142215965688</v>
+        <v>-0.009881243723249748</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>-0.008199142215965688</v>
+        <v>-0.009881243723249748</v>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -1532,37 +1532,37 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.01588151573926063</v>
+        <v>-0.01577849544713981</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>-0.002911123316444933</v>
+        <v>-0.003251872546074901</v>
       </c>
       <c r="F19" t="n">
-        <v>0.006796998799879952</v>
+        <v>-0.003885452987418119</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.002696432267857291</v>
+        <v>-0.003871026586841063</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0066431175137247</v>
+        <v>-0.006641963305678531</v>
       </c>
       <c r="I19" t="n">
         <v>-0.005374445494977819</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.01646803326647601</v>
+        <v>-0.01989754095947236</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.00675762478230499</v>
+        <v>0.01035969583838783</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.00675762478230499</v>
+        <v>0.01035969583838783</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>-0.00675762478230499</v>
+        <v>0.01035969583838783</v>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -1584,37 +1584,37 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.008443730545749222</v>
+        <v>0.008610939032437561</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.01809021624360865</v>
+        <v>0.01794155390166215</v>
       </c>
       <c r="F20" t="n">
-        <v>0.006464746914589876</v>
+        <v>-0.0183010449240418</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01337225410289016</v>
+        <v>-0.01300403197616128</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.009791524615660983</v>
+        <v>-0.009781805767272229</v>
       </c>
       <c r="I20" t="n">
         <v>-0.006784460047378401</v>
       </c>
       <c r="J20" t="n">
-        <v>0.006980377396312287</v>
+        <v>0.01958023474334126</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01081085179243407</v>
+        <v>-0.01296668586266743</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01081085179243407</v>
+        <v>-0.01296668586266743</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>-0.01081085179243407</v>
+        <v>-0.01296668586266743</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -1636,37 +1636,37 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.007346701541868061</v>
+        <v>-0.007744677717787107</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>-0.003649722289988891</v>
+        <v>-0.003997274079890963</v>
       </c>
       <c r="F21" t="n">
-        <v>0.009431244473249778</v>
+        <v>-0.007149019677960786</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.004802896992115879</v>
+        <v>-0.004551657494066299</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.009914377644575104</v>
+        <v>-0.009923075052922999</v>
       </c>
       <c r="I21" t="n">
         <v>-0.0100263775850551</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01177479646290069</v>
+        <v>-0.0120796442619906</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.00935579653423186</v>
+        <v>0.01658548635941945</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.00935579653423186</v>
+        <v>0.01658548635941945</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>-0.00935579653423186</v>
+        <v>0.01658548635941945</v>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -1688,37 +1688,37 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.006930391861215674</v>
+        <v>0.005726502277060091</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>0.001589515551580622</v>
+        <v>0.001652625186105007</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01709893393195736</v>
+        <v>-0.02043987950559518</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.00361174900846996</v>
+        <v>-0.004909157284366291</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.01984955349798214</v>
+        <v>-0.0198552125062085</v>
       </c>
       <c r="I22" t="n">
         <v>-0.01796197329447893</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.005632457545436058</v>
+        <v>0.006359986011191723</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.01960951787238071</v>
+        <v>0.01587779977111199</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.01960951787238071</v>
+        <v>0.01587779977111199</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
-        <v>-0.01960951787238071</v>
+        <v>0.01587779977111199</v>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -1744,37 +1744,37 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.009002455944098238</v>
+        <v>0.008634688281387529</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>-0.00257142375085695</v>
+        <v>-0.003084369435374777</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01232098647683946</v>
+        <v>0.002614729160589166</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01631303652452146</v>
+        <v>0.0163241949889678</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.008776817343072693</v>
+        <v>-0.008764825022593001</v>
       </c>
       <c r="I23" t="n">
         <v>-0.01193964566158582</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.02344283543262435</v>
+        <v>-0.009571355476389532</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.00894218301368732</v>
+        <v>0.006081938355277533</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.00894218301368732</v>
+        <v>0.006081938355277533</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>-0.00894218301368732</v>
+        <v>0.006081938355277533</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -1796,37 +1796,37 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0007663044786521791</v>
+        <v>0.00180304125612165</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>0.01217688855107554</v>
+        <v>0.01198870396754816</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.02449781301191252</v>
+        <v>0.007928872445154896</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.005227342673093706</v>
+        <v>-0.004109743844389753</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02186211965848478</v>
+        <v>0.02184168836166753</v>
       </c>
       <c r="I24" t="n">
         <v>0.02275960987038439</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.005259561393981524</v>
+        <v>0.0005354476456662057</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0209824675912987</v>
+        <v>-0.02316202124648085</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0209824675912987</v>
+        <v>-0.02316202124648085</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>0.0209824675912987</v>
+        <v>-0.02316202124648085</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
@@ -1852,37 +1852,37 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0240912826596513</v>
+        <v>0.02467563362702534</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>-0.007191037247641488</v>
+        <v>-0.00737321127092845</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.009800704712028187</v>
+        <v>0.01358594137543765</v>
       </c>
       <c r="G25" t="n">
-        <v>0.007577252943090117</v>
+        <v>0.007208892672355706</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01142455264898211</v>
+        <v>0.01143331072933243</v>
       </c>
       <c r="I25" t="n">
         <v>0.01117785644711426</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01435854734231898</v>
+        <v>0.01235157367462905</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01178341544733662</v>
+        <v>0.0004149219045968761</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01178341544733662</v>
+        <v>0.0004149219045968761</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
-        <v>0.01178341544733662</v>
+        <v>0.0004149219045968761</v>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
@@ -1904,37 +1904,37 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.01170576651623066</v>
+        <v>-0.01194336086173443</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>-0.01469849578793983</v>
+        <v>-0.0146488325859533</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01033753615750145</v>
+        <v>0.01004373841774953</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01766405216256208</v>
+        <v>0.01781188631247545</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.005179425807177031</v>
+        <v>-0.005159395406375815</v>
       </c>
       <c r="I26" t="n">
         <v>-0.009274533202981328</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01880119663886984</v>
+        <v>-0.006386116245419144</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.004281952683278106</v>
+        <v>0.006936192181447686</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.004281952683278106</v>
+        <v>0.006936192181447686</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>-0.004281952683278106</v>
+        <v>0.006936192181447686</v>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
@@ -1960,37 +1960,37 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.01502293327291733</v>
+        <v>0.01564511668980467</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>-0.03465603959424158</v>
+        <v>-0.03406958037078321</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.01713647281345891</v>
+        <v>0.03218577853543114</v>
       </c>
       <c r="G27" t="n">
-        <v>0.004103097956123918</v>
+        <v>0.005150940686037627</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02207754165110166</v>
+        <v>0.02209406565176262</v>
       </c>
       <c r="I27" t="n">
         <v>0.01994497692579908</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01058199059041446</v>
+        <v>-0.01677739223420718</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02462607045704282</v>
+        <v>0.01195746691029867</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02462607045704282</v>
+        <v>0.01195746691029867</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
-        <v>0.02462607045704282</v>
+        <v>0.01195746691029867</v>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
@@ -2016,37 +2016,37 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.004767116638684665</v>
+        <v>-0.005019957800798312</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>0.01506191666647666</v>
+        <v>0.01474815697392628</v>
       </c>
       <c r="F28" t="n">
-        <v>0.006258648250345929</v>
+        <v>-0.01150158689206347</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.008269908234796328</v>
+        <v>-0.006422412160896485</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.008266401258656049</v>
+        <v>-0.008269358058774321</v>
       </c>
       <c r="I28" t="n">
         <v>-0.008308641836345672</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.004181471191781383</v>
+        <v>0.03019984404841896</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.008948820357952813</v>
+        <v>-0.002804539696181588</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.008948820357952813</v>
+        <v>-0.002804539696181588</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>-0.008948820357952813</v>
+        <v>-0.002804539696181588</v>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
@@ -2072,37 +2072,37 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.005609890496395618</v>
+        <v>-0.005036065353442613</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>0.02586618785064751</v>
+        <v>0.02517837671913507</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.01980953378438135</v>
+        <v>0.004233015529320621</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.007308810436352417</v>
+        <v>-0.006199261975970477</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01749584383583375</v>
+        <v>0.0174978076119123</v>
       </c>
       <c r="I29" t="n">
         <v>0.01698371127134845</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01847455664723586</v>
+        <v>-0.002422644045860455</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01490515307620612</v>
+        <v>-0.03489877781195111</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01490515307620612</v>
+        <v>-0.03489877781195111</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>0.01490515307620612</v>
+        <v>-0.03489877781195111</v>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -2128,37 +2128,37 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.005613895904555835</v>
+        <v>-0.006001124016044959</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.01918661644746465</v>
+        <v>0.01916096860643874</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01417785570311422</v>
+        <v>-0.02404527091381083</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01238681281547251</v>
+        <v>-0.01148328621933145</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.01718398916735956</v>
+        <v>-0.01721377240055089</v>
       </c>
       <c r="I30" t="n">
         <v>-0.01571460946058437</v>
       </c>
       <c r="J30" t="n">
-        <v>0.007748158357410279</v>
+        <v>-0.01480097060647023</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.01813534190941367</v>
+        <v>0.004367392398695696</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.01813534190941367</v>
+        <v>0.004367392398695696</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>-0.01813534190941367</v>
+        <v>0.004367392398695696</v>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
@@ -2184,37 +2184,37 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.01884732968189318</v>
+        <v>0.01811191973247679</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>0.01824520181780807</v>
+        <v>0.01821368616854744</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0190875325395013</v>
+        <v>-0.01915208044608321</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.0005945371437814855</v>
+        <v>-0.001365398646615946</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.02042824804912992</v>
+        <v>-0.02044519886580795</v>
       </c>
       <c r="I31" t="n">
         <v>-0.02022070112882804</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.002456968714847717</v>
+        <v>-0.02824837374837219</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.02154230697369227</v>
+        <v>0.001009895944395838</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.02154230697369227</v>
+        <v>0.001009895944395838</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>-0.02154230697369227</v>
+        <v>0.001009895944395838</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -2240,37 +2240,37 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.006831829809273191</v>
+        <v>0.006262597882503915</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>-0.007914755740590227</v>
+        <v>-0.007618263184730526</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01092167150886686</v>
+        <v>1.300704052028162e-06</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01206494093059764</v>
+        <v>0.01171535125261405</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.007686408691456347</v>
+        <v>-0.007680788371231533</v>
       </c>
       <c r="I32" t="n">
         <v>-0.01066486276259451</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.01635629014271284</v>
+        <v>0.01240719362794885</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.007525910509036419</v>
+        <v>0.006123431476937258</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.007525910509036419</v>
+        <v>0.006123431476937258</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="n">
-        <v>-0.007525910509036419</v>
+        <v>0.006123431476937258</v>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2296,37 +2296,37 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.02805956521838261</v>
+        <v>-0.0276473800818952</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>-0.02234691276587651</v>
+        <v>-0.02243202070528082</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0009205416368216654</v>
+        <v>0.0240051525122061</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02809268310770732</v>
+        <v>0.0289288526451541</v>
       </c>
       <c r="H33" t="n">
-        <v>0.004991588455663538</v>
+        <v>0.004996305607852224</v>
       </c>
       <c r="I33" t="n">
         <v>-0.0002478960099158403</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.02975334152411836</v>
+        <v>0.001334095568395402</v>
       </c>
       <c r="K33" t="n">
-        <v>0.005963607310544291</v>
+        <v>0.009755657958226317</v>
       </c>
       <c r="L33" t="n">
-        <v>0.005963607310544291</v>
+        <v>0.009755657958226317</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="n">
-        <v>0.005963607310544291</v>
+        <v>0.009755657958226317</v>
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2352,37 +2352,37 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.01327298856291954</v>
+        <v>-0.01290248336409933</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>-0.0004143562725742508</v>
+        <v>-2.007811280312451e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.01256295717451828</v>
+        <v>0.0006147938165917525</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.007547552653902105</v>
+        <v>-0.008099062211962486</v>
       </c>
       <c r="H34" t="n">
-        <v>0.009961462382458494</v>
+        <v>0.009982854639314184</v>
       </c>
       <c r="I34" t="n">
         <v>0.01112760610910424</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.0008376853340178389</v>
+        <v>0.008054961935905649</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01027877445915098</v>
+        <v>-0.006914807988592318</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01027877445915098</v>
+        <v>-0.006914807988592318</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>0.01027877445915098</v>
+        <v>-0.006914807988592318</v>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2408,37 +2408,37 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0162348474973939</v>
+        <v>0.01653491586139663</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>0.02612780658111226</v>
+        <v>0.02592898126115925</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.02187856321114252</v>
+        <v>-0.008573669814946791</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.02810160870806434</v>
+        <v>-0.02747115681084627</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01638748279949931</v>
+        <v>0.01641128408045136</v>
       </c>
       <c r="I35" t="n">
         <v>0.02121788081671523</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.00639943378213678</v>
+        <v>-0.01157585975517109</v>
       </c>
       <c r="K35" t="n">
-        <v>0.01455211805408472</v>
+        <v>-0.03639752756790109</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01455211805408472</v>
+        <v>-0.03639752756790109</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>0.01455211805408472</v>
+        <v>-0.03639752756790109</v>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2464,37 +2464,37 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.02282898148915926</v>
+        <v>0.02261141552845662</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>-0.002307951356318054</v>
+        <v>-0.002107388148295526</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002517871972714878</v>
+        <v>-0.002302037660081506</v>
       </c>
       <c r="G36" t="n">
-        <v>0.001494377915775116</v>
+        <v>0.001205747472229899</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.001649435297977412</v>
+        <v>-0.001651786050071442</v>
       </c>
       <c r="I36" t="n">
         <v>-0.002243779097751163</v>
       </c>
       <c r="J36" t="n">
-        <v>0.006495649534634759</v>
+        <v>-0.0009240171717130185</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.001343303573732143</v>
+        <v>0.00361794475271779</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.001343303573732143</v>
+        <v>0.00361794475271779</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>-0.001343303573732143</v>
+        <v>0.00361794475271779</v>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
@@ -2520,37 +2520,37 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01849582105983284</v>
+        <v>0.01775419875816795</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>-0.008949108453964337</v>
+        <v>-0.008918682404747294</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01616912887076515</v>
+        <v>-0.004996264807850591</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01710014084400563</v>
+        <v>0.01664829935393197</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.01259444555977782</v>
+        <v>-0.01259171282366851</v>
       </c>
       <c r="I37" t="n">
         <v>-0.01429813353192534</v>
       </c>
       <c r="J37" t="n">
-        <v>0.002181480533989604</v>
+        <v>0.01339307336529383</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.01190055714802228</v>
+        <v>0.0194065050322602</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.01190055714802228</v>
+        <v>0.0194065050322602</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
-        <v>-0.01190055714802228</v>
+        <v>0.0194065050322602</v>
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:AE37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,57 +505,54 @@
           <t>Economic allocation</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Ethanol</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Biodiesel</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Crude glycerol</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Electricity</t>
-        </is>
-      </c>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Biorefinery</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="n"/>
+          <t>Displacement allocation</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Energy allocation</t>
+        </is>
+      </c>
       <c r="R1" s="1" t="n"/>
       <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Biorefinery</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Economic allocation</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Ethanol</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Biodiesel</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Crude glycerol</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Electricity</t>
         </is>
@@ -574,34 +571,34 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
+          <t>Feedstock consumption [ton/yr]</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
           <t>Biodiesel production [Gal/ton]</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Ethanol production [Gal/ton]</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Electricity production [kWhr/ton]</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Natural gas consumption [cf/ton]</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>TCI [10^6*USD]</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>Feedstock consumption [ton/yr]</t>
-        </is>
-      </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>Heat exchanger network error [%]</t>
@@ -634,55 +631,80 @@
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
+          <t>Ethanol GWP [kg*CO2*eq / ga;]</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>Biofuel GWP [kg*CO2*eq / GGE]</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>Ethanol GWP [kg*CO2*eq / gal]</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>Biodiesel GWP [kg*CO2*eq / gal]</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>Crude-glycerol GWP [kg*CO2*eq / kg]</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
           <t>MFPP derivative [USD/ton]</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="V2" s="1" t="inlineStr">
         <is>
           <t>Biodiesel production derivative [Gal/ton]</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="W2" s="1" t="inlineStr">
         <is>
           <t>Ethanol production derivative [Gal/ton]</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="X2" s="1" t="inlineStr">
         <is>
           <t>Electricity production derivative [kWhr/ton]</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
+      <c r="Y2" s="1" t="inlineStr">
         <is>
           <t>Natural gas consumption derivative [cf/ton]</t>
         </is>
       </c>
-      <c r="U2" s="1" t="inlineStr">
+      <c r="Z2" s="1" t="inlineStr">
         <is>
           <t>TCI derivative [10^6*USD]</t>
         </is>
       </c>
-      <c r="V2" s="1" t="inlineStr">
+      <c r="AA2" s="1" t="inlineStr">
         <is>
           <t>GWP derivative [kg*CO2*eq / USD]</t>
         </is>
       </c>
-      <c r="W2" s="1" t="inlineStr">
+      <c r="AB2" s="1" t="inlineStr">
         <is>
           <t>Ethanol GWP derivative [kg*CO2*eq / gal]</t>
         </is>
       </c>
-      <c r="X2" s="1" t="inlineStr">
+      <c r="AC2" s="1" t="inlineStr">
         <is>
           <t>Biodiesel GWP derivative [kg*CO2*eq / gal]</t>
         </is>
       </c>
-      <c r="Y2" s="1" t="inlineStr">
+      <c r="AD2" s="1" t="inlineStr">
         <is>
           <t>Crude glycerol GWP derivative [kg*CO2*eq / kg]</t>
         </is>
       </c>
-      <c r="Z2" s="1" t="inlineStr">
+      <c r="AE2" s="1" t="inlineStr">
         <is>
           <t>Electricity GWP derivative [kg*CO2*eq / MWhr]</t>
         </is>
@@ -712,41 +734,47 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.0253464949978598</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>-0.007824133656965345</v>
-      </c>
+        <v>-0.2119051905190519</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07625562556255625</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>-0.001777012487080499</v>
+        <v>-0.1352415241524152</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002648429385937175</v>
+        <v>0.1754455445544554</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.007832288377291535</v>
+        <v>0.1437743774377438</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007427469321098772</v>
+        <v>0.09986198619861984</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.003885753537981767</v>
+        <v>-0.0478718106431333</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01110296214011848</v>
+        <v>0.06693069306930692</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01110296214011848</v>
+        <v>0.06693069306930692</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>0.01110296214011848</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+        <v>0.06693069306930692</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.1755535553555355</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.03307530753075307</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.03307530753075307</v>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
@@ -755,6 +783,11 @@
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -764,41 +797,47 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01172179016487161</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>-0.01443077702523108</v>
-      </c>
+        <v>-0.08834083408340833</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.1110951095109511</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.02045391979415679</v>
+        <v>0.004008400840084008</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02039013153560526</v>
+        <v>-0.0183978397839784</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005604104192164167</v>
+        <v>0.09260126012601261</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00101141024845641</v>
+        <v>-0.1017341734173417</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02113936112348385</v>
+        <v>0.03913726268540764</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00767235525089421</v>
+        <v>0.02525052505250525</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00767235525089421</v>
+        <v>0.02525052505250525</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>0.00767235525089421</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+        <v>0.02525052505250525</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.02387038703870387</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.02405040504050405</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.02405040504050405</v>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -807,6 +846,11 @@
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -816,41 +860,47 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1573129986765199</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>-0.2399218307488732</v>
-      </c>
+        <v>0.1635763576357636</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9742574257425741</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0.7399928465597138</v>
+        <v>-0.1612361236123612</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01021602645664106</v>
+        <v>0.7489348934893489</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999986473599457</v>
+        <v>0.01309330933093309</v>
       </c>
       <c r="I6" t="n">
-        <v>0.974571654918866</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.001169439107719189</v>
+        <v>-0.05896720959631026</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.5453406654936266</v>
+        <v>-0.556039603960396</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.5453406654936266</v>
+        <v>-0.556039603960396</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>-0.5453406654936266</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+        <v>-0.556039603960396</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.7616801680168015</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.6914371437143714</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.6914371437143714</v>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -859,6 +909,11 @@
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -872,41 +927,47 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9629221444048857</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>-0.01524237171369487</v>
-      </c>
+        <v>0.9586438643864386</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.00204020402040204</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>0.01286107606644304</v>
+        <v>-0.0308070807080708</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01193824569352983</v>
+        <v>0.003312331233123312</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005700587652023505</v>
+        <v>0.006852685268526852</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002638555305542212</v>
+        <v>0.003672367236723672</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.000497144713794027</v>
+        <v>0.02120560817797221</v>
       </c>
       <c r="K7" t="n">
-        <v>0.009813191144527646</v>
+        <v>-0.007788778877887788</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009813191144527646</v>
+        <v>-0.007788778877887788</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>0.009813191144527646</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+        <v>-0.007788778877887788</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.000576057605760576</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.0007800780078007799</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.0007800780078007799</v>
+      </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
@@ -915,6 +976,11 @@
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -928,41 +994,47 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.01278558387142335</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>0.0165743976869759</v>
-      </c>
+        <v>0.09284128412841283</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.005976597659765976</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>-0.01808841672353666</v>
+        <v>-0.02508250825082508</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01566450485058019</v>
+        <v>0.05896189618961895</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.01301314976852599</v>
+        <v>0.05256525652565257</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0102946025557841</v>
+        <v>0.02007800780078008</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.01581543630502708</v>
+        <v>-0.002985605457351895</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.001710245636409825</v>
+        <v>0.02166216621662166</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.001710245636409825</v>
+        <v>0.02166216621662166</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>-0.001710245636409825</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+        <v>0.02166216621662166</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.04925292529252925</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0177977797779778</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0177977797779778</v>
+      </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
@@ -971,6 +1043,11 @@
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -984,41 +1061,47 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01897909352716374</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0.00779487026379481</v>
-      </c>
+        <v>0.04661266126612661</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.03785178517851785</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>0.01063508567340343</v>
+        <v>0.1368376837683768</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01496265967050638</v>
+        <v>-0.06423042304230422</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02696720085468803</v>
+        <v>-0.1138193819381938</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02904841143393645</v>
+        <v>0.01807380738073807</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001533847295487822</v>
+        <v>0.06612184963596038</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.02191206606048264</v>
+        <v>-0.1355895589558956</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.02191206606048264</v>
+        <v>-0.1355895589558956</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>-0.02191206606048264</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+        <v>-0.1355895589558956</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.06581458145814581</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.1011941194119412</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.1011941194119412</v>
+      </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
@@ -1027,6 +1110,11 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1040,41 +1128,47 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.03357303062292123</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0.009961287854451512</v>
-      </c>
+        <v>-0.02219021902190219</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.04612061206120611</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-0.002122721652908866</v>
+        <v>-0.04922892289228922</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.001369223382768935</v>
+        <v>-0.0383078307830783</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.001887306795492272</v>
+        <v>-0.01155715571557156</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.001164699886587995</v>
+        <v>-0.04614461446144614</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0128699084863439</v>
+        <v>0.07586561633983316</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.007725228309009131</v>
+        <v>0.08865286528652863</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.007725228309009131</v>
+        <v>0.08865286528652863</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>-0.007725228309009131</v>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+        <v>0.08865286528652863</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.03558355835583558</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.09191719171917191</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.09191719171917191</v>
+      </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
@@ -1083,6 +1177,11 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -1092,41 +1191,47 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.06744144845765793</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>0.7354200222168008</v>
-      </c>
+        <v>0.1024062406240624</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1783978397839784</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>-0.6367352219814087</v>
+        <v>0.7225322532253224</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.9943630343345211</v>
+        <v>-0.6500330033003301</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.005519006620760263</v>
+        <v>-0.9941914191419141</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2132218491688739</v>
+        <v>-0.03181518151815181</v>
       </c>
       <c r="J11" t="n">
-        <v>0.009753814828666232</v>
+        <v>-0.1108458589518253</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.5390104423284175</v>
+        <v>-0.4791479147914791</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.5390104423284175</v>
+        <v>-0.4791479147914791</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>-0.5390104423284175</v>
-      </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+        <v>-0.4791479147914791</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.6264866486648664</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.3489348934893489</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.3489348934893489</v>
+      </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
@@ -1135,6 +1240,11 @@
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -1144,41 +1254,47 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1937478730299149</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>0.0004580551863222074</v>
-      </c>
+        <v>-0.1822622262226223</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.1013261326132613</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>0.009822249992889998</v>
+        <v>-0.1506750675067507</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004239332329573292</v>
+        <v>0.04139213921392138</v>
       </c>
       <c r="H12" t="n">
-        <v>0.007142704317708173</v>
+        <v>0.1490909090909091</v>
       </c>
       <c r="I12" t="n">
-        <v>0.006233193849327753</v>
+        <v>-0.08556855685568555</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03449165853403902</v>
+        <v>0.03011436651449708</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.01144471120978845</v>
+        <v>0.1111311131113111</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.01144471120978845</v>
+        <v>0.1111311131113111</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>-0.01144471120978845</v>
-      </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+        <v>0.1111311131113111</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.03501950195019502</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0909210921092109</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.0909210921092109</v>
+      </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
@@ -1187,6 +1303,11 @@
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1200,41 +1321,47 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01074628727785149</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>-0.02248968493158739</v>
-      </c>
+        <v>0.02552655265526553</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.01347734773477348</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>0.02610560888422435</v>
+        <v>-0.05776177617761775</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02158594703943788</v>
+        <v>0.00726072607260726</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0139143574845743</v>
+        <v>0.03379537953795379</v>
       </c>
       <c r="I13" t="n">
-        <v>0.009781065223242607</v>
+        <v>0.01018901890189019</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0125595409937328</v>
+        <v>-0.06801413478498623</v>
       </c>
       <c r="K13" t="n">
-        <v>0.005502082204083288</v>
+        <v>0.06952295229522952</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005502082204083288</v>
+        <v>0.06952295229522952</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>0.005502082204083288</v>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+        <v>0.06952295229522952</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.001776177617761776</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.05131713171317132</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.05131713171317132</v>
+      </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
@@ -1243,6 +1370,11 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1256,41 +1388,47 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.004881154083246162</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>-0.01726787233871489</v>
-      </c>
+        <v>0.01822982298229823</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0302070207020702</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.004693291867731673</v>
+        <v>0.01933393339333933</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01541331037653241</v>
+        <v>0.05707770777077707</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.003298731299949251</v>
+        <v>0.0245064506450645</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.006288456731538269</v>
+        <v>0.03548754875487549</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.03766547666952736</v>
+        <v>-0.1038894583087398</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0195799050391962</v>
+        <v>-0.06772277227722773</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0195799050391962</v>
+        <v>-0.06772277227722773</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>0.0195799050391962</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+        <v>-0.06772277227722773</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-0.05299729972997299</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.07584758475847583</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-0.07584758475847583</v>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
@@ -1299,6 +1437,11 @@
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1312,41 +1455,47 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.006693884907755395</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>0.006167963478718538</v>
-      </c>
+        <v>-0.1061506150615061</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.04292829282928293</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>-0.006227074713082988</v>
+        <v>-0.03654365436543654</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.002131174453246978</v>
+        <v>-0.006048604860486049</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.01229977882799115</v>
+        <v>0.03581158115811581</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.01113809343752374</v>
+        <v>-0.03284728472847284</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.007683808930672282</v>
+        <v>0.1262604738483343</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001577535423101417</v>
+        <v>0.0418001800180018</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001577535423101417</v>
+        <v>0.0418001800180018</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>0.001577535423101417</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+        <v>0.0418001800180018</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.002352235223522352</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.0466006600660066</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0466006600660066</v>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
@@ -1355,6 +1504,11 @@
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1368,41 +1522,47 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.02354171566166862</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.01528144438725777</v>
-      </c>
+        <v>0.004668466846684667</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.04168016801680167</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>0.001544806621792265</v>
+        <v>0.0174017401740174</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.004584344823373793</v>
+        <v>0.03499549954995499</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009122941804917671</v>
+        <v>0.02667866786678667</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0114335949853438</v>
+        <v>0.04448844884488448</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01188672191000843</v>
+        <v>-0.04740925205114921</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.02280497438419897</v>
+        <v>-0.03564356435643564</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02280497438419897</v>
+        <v>-0.03564356435643564</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>-0.02280497438419897</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+        <v>-0.03564356435643564</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-0.02612661266126613</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-0.0378037803780378</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.0378037803780378</v>
+      </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
@@ -1411,6 +1571,11 @@
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -1420,41 +1585,47 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.0008145614725824588</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>-0.01022141234485649</v>
-      </c>
+        <v>-0.06660666066606659</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.07153915391539153</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>-0.003662362898494516</v>
+        <v>-0.234035403540354</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001785244871409795</v>
+        <v>0.06297029702970297</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.007894792923791716</v>
+        <v>0.1672607260726073</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.006991911447676457</v>
+        <v>-0.05272127212721272</v>
       </c>
       <c r="J17" t="n">
-        <v>0.008550744887254023</v>
+        <v>0.01953559144327639</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01149941546797662</v>
+        <v>0.2477647764776477</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01149941546797662</v>
+        <v>0.2477647764776477</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>0.01149941546797662</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
+        <v>0.2477647764776477</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-0.06397839783978397</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.2184698469846985</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.2184698469846985</v>
+      </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
@@ -1463,6 +1634,11 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1476,41 +1652,47 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01978966783158671</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>0.0137006301800252</v>
-      </c>
+        <v>-0.02975097509750975</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.02761476147614761</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>-0.009528304413132174</v>
+        <v>0.06820282028202819</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.006163715766548629</v>
+        <v>-0.01813381338133813</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.007316056516642259</v>
+        <v>0.04949294929492948</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.005049995625999825</v>
+        <v>-0.02072607260726072</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01806586275515859</v>
+        <v>-0.04217092617829035</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.009881243723249748</v>
+        <v>-0.0653105310531053</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.009881243723249748</v>
+        <v>-0.0653105310531053</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>-0.009881243723249748</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+        <v>-0.0653105310531053</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.02393039303930393</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.06737473747374736</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.06737473747374736</v>
+      </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
@@ -1519,6 +1701,11 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1532,41 +1719,47 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.01577849544713981</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>-0.003251872546074901</v>
-      </c>
+        <v>-0.16002400240024</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.002796279627962796</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>-0.003885452987418119</v>
+        <v>0.04469246924692469</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.003871026586841063</v>
+        <v>-0.0445004500450045</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.006641963305678531</v>
+        <v>-0.05356135613561355</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.005374445494977819</v>
+        <v>-0.01914191419141914</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.01989754095947236</v>
+        <v>-0.1048926698004456</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01035969583838783</v>
+        <v>-0.02868286828682868</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01035969583838783</v>
+        <v>-0.02868286828682868</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>0.01035969583838783</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+        <v>-0.02868286828682868</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.04196819681968196</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.02443444344434443</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.02443444344434443</v>
+      </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
@@ -1575,6 +1768,11 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1584,41 +1782,47 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.008610939032437561</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.01794155390166215</v>
-      </c>
+        <v>-0.01496549654965496</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01389738973897389</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>-0.0183010449240418</v>
+        <v>0.06868286828682867</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01300403197616128</v>
+        <v>-0.05228922892289228</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.009781805767272229</v>
+        <v>-0.03679567956795679</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.006784460047378401</v>
+        <v>0.01422142214221422</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01958023474334126</v>
+        <v>0.02600540447661238</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01296668586266743</v>
+        <v>-0.05668166816681668</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01296668586266743</v>
+        <v>-0.05668166816681668</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>-0.01296668586266743</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+        <v>-0.05668166816681668</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.04547254725472546</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-0.03667566756675668</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-0.03667566756675668</v>
+      </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
@@ -1627,6 +1831,11 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1636,41 +1845,47 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.007744677717787107</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>-0.003997274079890963</v>
-      </c>
+        <v>0.03881188118811881</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.117971797179718</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>-0.007149019677960786</v>
+        <v>0.03359135913591359</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.004551657494066299</v>
+        <v>-0.003468346834683468</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.009923075052922999</v>
+        <v>-0.07675967596759675</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0100263775850551</v>
+        <v>0.08284428442844284</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.0120796442619906</v>
+        <v>0.05326031787702595</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01658548635941945</v>
+        <v>-0.08121212121212121</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01658548635941945</v>
+        <v>-0.08121212121212121</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>0.01658548635941945</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+        <v>-0.08121212121212121</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-0.004116411641164116</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-0.08351635163516351</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-0.08351635163516351</v>
+      </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
@@ -1679,6 +1894,11 @@
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
@@ -1688,41 +1908,47 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.005726502277060091</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>0.001652625186105007</v>
-      </c>
+        <v>-0.02093009300930092</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.1066306630663066</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>-0.02043987950559518</v>
+        <v>-0.03498349834983498</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.004909157284366291</v>
+        <v>-0.004536453645364535</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.0198552125062085</v>
+        <v>0.1257005700570057</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.01796197329447893</v>
+        <v>-0.1008460846084608</v>
       </c>
       <c r="J22" t="n">
-        <v>0.006359986011191723</v>
+        <v>0.04530671299667604</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01587779977111199</v>
+        <v>0.07650765076507651</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01587779977111199</v>
+        <v>0.07650765076507651</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
-        <v>0.01587779977111199</v>
-      </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+        <v>0.07650765076507651</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.01455745574557456</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.06857485748574857</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.06857485748574857</v>
+      </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
@@ -1731,6 +1957,11 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1744,41 +1975,47 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.008634688281387529</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
-        <v>-0.003084369435374777</v>
-      </c>
+        <v>-0.05948994899489948</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.07461146114611461</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>0.002614729160589166</v>
+        <v>-0.160984098409841</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0163241949889678</v>
+        <v>0.08530453045304529</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.008764825022593001</v>
+        <v>0.1886948694869487</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.01193964566158582</v>
+        <v>-0.03285928592859286</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.009571355476389532</v>
+        <v>0.008542315815602405</v>
       </c>
       <c r="K23" t="n">
-        <v>0.006081938355277533</v>
+        <v>0.156039603960396</v>
       </c>
       <c r="L23" t="n">
-        <v>0.006081938355277533</v>
+        <v>0.156039603960396</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>0.006081938355277533</v>
-      </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+        <v>0.156039603960396</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.09040504050405039</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.151971197119712</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.151971197119712</v>
+      </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
@@ -1787,6 +2024,11 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1796,41 +2038,47 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.00180304125612165</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
-        <v>0.01198870396754816</v>
-      </c>
+        <v>-0.02268226822682268</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.09278127812781277</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>0.007928872445154896</v>
+        <v>0.07767176717671767</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.004109743844389753</v>
+        <v>-0.1313411341134113</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02184168836166753</v>
+        <v>-0.04831683168316832</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02275960987038439</v>
+        <v>-0.09218121812181217</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0005354476456662057</v>
+        <v>0.04567916277203986</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.02316202124648085</v>
+        <v>-0.01174917491749175</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.02316202124648085</v>
+        <v>-0.01174917491749175</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>-0.02316202124648085</v>
-      </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+        <v>-0.01174917491749175</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.1332493249324932</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.0174017401740174</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.0174017401740174</v>
+      </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
@@ -1839,6 +2087,11 @@
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1852,41 +2105,47 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.02467563362702534</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="n">
-        <v>-0.00737321127092845</v>
-      </c>
+        <v>0.04234023402340234</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.2388598859885989</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>0.01358594137543765</v>
+        <v>0.09016501650165015</v>
       </c>
       <c r="G25" t="n">
-        <v>0.007208892672355706</v>
+        <v>0.1843624362436243</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01143331072933243</v>
+        <v>0.03456345634563456</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01117785644711426</v>
+        <v>0.2555295529552955</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01235157367462905</v>
+        <v>0.00947344025401195</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0004149219045968761</v>
+        <v>-0.2833483348334833</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0004149219045968761</v>
+        <v>-0.2833483348334833</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
-        <v>0.0004149219045968761</v>
-      </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+        <v>-0.2833483348334833</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-0.1758775877587758</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-0.3033903390339033</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-0.3033903390339033</v>
+      </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
@@ -1895,6 +2154,11 @@
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
@@ -1904,41 +2168,47 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.01194336086173443</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>-0.0146488325859533</v>
-      </c>
+        <v>-0.08289228922892287</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.0586978697869787</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>0.01004373841774953</v>
+        <v>-0.1274167416741674</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01781188631247545</v>
+        <v>0.1063066306630663</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.005159395406375815</v>
+        <v>0.1565076507650765</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.009274533202981328</v>
+        <v>-0.04523252325232523</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.006386116245419144</v>
+        <v>-0.1113084175438094</v>
       </c>
       <c r="K26" t="n">
-        <v>0.006936192181447686</v>
+        <v>0.0563096309630963</v>
       </c>
       <c r="L26" t="n">
-        <v>0.006936192181447686</v>
+        <v>0.0563096309630963</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>0.006936192181447686</v>
-      </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+        <v>0.0563096309630963</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-0.09914191419141914</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.04067206720672066</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.04067206720672066</v>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
@@ -1947,6 +2217,11 @@
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1960,41 +2235,47 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.01564511668980467</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>-0.03406958037078321</v>
-      </c>
+        <v>-0.08061206120612061</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.13002100210021</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.03218577853543114</v>
+        <v>0.09776177617761775</v>
       </c>
       <c r="G27" t="n">
-        <v>0.005150940686037627</v>
+        <v>0.01461746174617462</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02209406565176262</v>
+        <v>-0.1101830183018302</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01994497692579908</v>
+        <v>0.1097389738973897</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.01677739223420718</v>
+        <v>-0.1383290480210102</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01195746691029867</v>
+        <v>-0.1614881488148814</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01195746691029867</v>
+        <v>-0.1614881488148814</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
-        <v>0.01195746691029867</v>
-      </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+        <v>-0.1614881488148814</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-0.01664566456645665</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-0.171065106510651</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-0.171065106510651</v>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
@@ -2003,6 +2284,11 @@
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2016,41 +2302,47 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.005019957800798312</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="n">
-        <v>0.01474815697392628</v>
-      </c>
+        <v>-0.2069246924692469</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.05557755775577557</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>-0.01150158689206347</v>
+        <v>-0.02083408340834083</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.006422412160896485</v>
+        <v>-0.05494149414941494</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.008269358058774321</v>
+        <v>-0.0116051605160516</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.008308641836345672</v>
+        <v>-0.067998799879988</v>
       </c>
       <c r="J28" t="n">
-        <v>0.03019984404841896</v>
+        <v>-0.09198308000598032</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.002804539696181588</v>
+        <v>0.05896189618961895</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.002804539696181588</v>
+        <v>0.05896189618961895</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>-0.002804539696181588</v>
-      </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+        <v>0.05896189618961895</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.05527752775277527</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.06947494749474946</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.06947494749474946</v>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
@@ -2059,6 +2351,11 @@
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2072,41 +2369,47 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.005036065353442613</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0.02517837671913507</v>
-      </c>
+        <v>-0.03987998799879987</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.1531833183318331</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>0.004233015529320621</v>
+        <v>-0.1975997599759976</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.006199261975970477</v>
+        <v>0.06657065706570657</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0174978076119123</v>
+        <v>0.2234863486348635</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01698371127134845</v>
+        <v>-0.1164116411641164</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.002422644045860455</v>
+        <v>0.00796561938923262</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.03489877781195111</v>
+        <v>0.2005520552055206</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.03489877781195111</v>
+        <v>0.2005520552055206</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>-0.03489877781195111</v>
-      </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+        <v>0.2005520552055206</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-0.06101410141014101</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.1828262826282628</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.1828262826282628</v>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
@@ -2115,6 +2418,11 @@
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2128,41 +2436,47 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.006001124016044959</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
-        <v>0.01916096860643874</v>
-      </c>
+        <v>0.1911071107110711</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.02935493549354935</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>-0.02404527091381083</v>
+        <v>0.0006960696069606959</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01148328621933145</v>
+        <v>-0.01075307530753075</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.01721377240055089</v>
+        <v>-0.01051305130513051</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.01571460946058437</v>
+        <v>0.01424542454245424</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.01480097060647023</v>
+        <v>0.07095168220680731</v>
       </c>
       <c r="K30" t="n">
-        <v>0.004367392398695696</v>
+        <v>0.01006900690069007</v>
       </c>
       <c r="L30" t="n">
-        <v>0.004367392398695696</v>
+        <v>0.01006900690069007</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>0.004367392398695696</v>
-      </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+        <v>0.01006900690069007</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.007944794479447945</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.021002100210021</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.021002100210021</v>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
@@ -2171,6 +2485,11 @@
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2184,41 +2503,47 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.01811191973247679</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="n">
-        <v>0.01821368616854744</v>
-      </c>
+        <v>0.000252025202520252</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.003516351635163516</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>-0.01915208044608321</v>
+        <v>0.1838343834383438</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.001365398646615946</v>
+        <v>-0.131989198919892</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.02044519886580795</v>
+        <v>-0.1285208520852085</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.02022070112882804</v>
+        <v>-0.03247524752475248</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.02824837374837219</v>
+        <v>0.01425521478932806</v>
       </c>
       <c r="K31" t="n">
-        <v>0.001009895944395838</v>
+        <v>-0.1711371137113711</v>
       </c>
       <c r="L31" t="n">
-        <v>0.001009895944395838</v>
+        <v>-0.1711371137113711</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>0.001009895944395838</v>
-      </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+        <v>-0.1711371137113711</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.1330573057305731</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.1423102310231023</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.1423102310231023</v>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
@@ -2227,6 +2552,11 @@
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2240,41 +2570,47 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.006262597882503915</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="n">
-        <v>-0.007618263184730526</v>
-      </c>
+        <v>0.0267026702670267</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.1543354335433543</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>1.300704052028162e-06</v>
+        <v>-0.231023102310231</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01171535125261405</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.007680788371231533</v>
+        <v>0.1866666666666666</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.01066486276259451</v>
+        <v>-0.1241884188418842</v>
       </c>
       <c r="J32" t="n">
-        <v>0.01240719362794885</v>
+        <v>0.1212744526620122</v>
       </c>
       <c r="K32" t="n">
-        <v>0.006123431476937258</v>
+        <v>0.2388718871887189</v>
       </c>
       <c r="L32" t="n">
-        <v>0.006123431476937258</v>
+        <v>0.2388718871887189</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="n">
-        <v>0.006123431476937258</v>
-      </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+        <v>0.2388718871887189</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-0.05668166816681668</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.234047404740474</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.234047404740474</v>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -2283,6 +2619,11 @@
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2296,41 +2637,47 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.0276473800818952</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="n">
-        <v>-0.02243202070528082</v>
-      </c>
+        <v>0.02399039903990399</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.03878787878787878</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>0.0240051525122061</v>
+        <v>-0.02564656465646564</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0289288526451541</v>
+        <v>0.01765376537653765</v>
       </c>
       <c r="H33" t="n">
-        <v>0.004996305607852224</v>
+        <v>0.09083708370837083</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.0002478960099158403</v>
+        <v>-0.03152715271527153</v>
       </c>
       <c r="J33" t="n">
-        <v>0.001334095568395402</v>
+        <v>0.08375914867576957</v>
       </c>
       <c r="K33" t="n">
-        <v>0.009755657958226317</v>
+        <v>0.05784578457845784</v>
       </c>
       <c r="L33" t="n">
-        <v>0.009755657958226317</v>
+        <v>0.05784578457845784</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="n">
-        <v>0.009755657958226317</v>
-      </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+        <v>0.05784578457845784</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-0.01443744374437443</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.04786078607860785</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.04786078607860785</v>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
@@ -2339,6 +2686,11 @@
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2352,41 +2704,47 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.01290248336409933</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="n">
-        <v>-2.007811280312451e-05</v>
-      </c>
+        <v>-0.1121272127212721</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.08427242724272427</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>0.0006147938165917525</v>
+        <v>0.06714671467146714</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.008099062211962486</v>
+        <v>-0.03829582958295828</v>
       </c>
       <c r="H34" t="n">
-        <v>0.009982854639314184</v>
+        <v>0.02714671467146714</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01112760610910424</v>
+        <v>-0.07822382238223821</v>
       </c>
       <c r="J34" t="n">
-        <v>0.008054961935905649</v>
+        <v>-0.1856481912555391</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.006914807988592318</v>
+        <v>0.01058505850585058</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.006914807988592318</v>
+        <v>0.01058505850585058</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>-0.006914807988592318</v>
-      </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+        <v>0.01058505850585058</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.05064506450645063</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.007464746474647464</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.007464746474647464</v>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2395,6 +2753,11 @@
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2408,41 +2771,47 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01653491586139663</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
-        <v>0.02592898126115925</v>
-      </c>
+        <v>-0.0524092409240924</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.01275727572757276</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>-0.008573669814946791</v>
+        <v>0.1058265826582658</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.02747115681084627</v>
+        <v>-0.104050405040504</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01641128408045136</v>
+        <v>-0.1509270927092709</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02121788081671523</v>
+        <v>-0.01656165616561656</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.01157585975517109</v>
+        <v>0.05204685247987287</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.03639752756790109</v>
+        <v>-0.057005700570057</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.03639752756790109</v>
+        <v>-0.057005700570057</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>-0.03639752756790109</v>
-      </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+        <v>-0.057005700570057</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.09783378337833783</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-0.02159015901590159</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-0.02159015901590159</v>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
@@ -2451,6 +2820,11 @@
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2464,41 +2838,47 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.02261141552845662</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>-0.002107388148295526</v>
-      </c>
+        <v>0.009216921692169215</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.07734773477347733</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>-0.002302037660081506</v>
+        <v>-0.08468046804680468</v>
       </c>
       <c r="G36" t="n">
-        <v>0.001205747472229899</v>
+        <v>-0.0787998799879988</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.001651786050071442</v>
+        <v>-0.01352535253525352</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.002243779097751163</v>
+        <v>-0.08973297329732971</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.0009240171717130185</v>
+        <v>-0.06305214261642957</v>
       </c>
       <c r="K36" t="n">
-        <v>0.00361794475271779</v>
+        <v>0.1317731773177318</v>
       </c>
       <c r="L36" t="n">
-        <v>0.00361794475271779</v>
+        <v>0.1317731773177318</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>0.00361794475271779</v>
-      </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+        <v>0.1317731773177318</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.07500750075007501</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.1341014101410141</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.1341014101410141</v>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
@@ -2507,6 +2887,11 @@
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2520,41 +2905,47 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01775419875816795</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="n">
-        <v>-0.008918682404747294</v>
-      </c>
+        <v>-0.09555355535553556</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.02844284428442844</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>-0.004996264807850591</v>
+        <v>0.09299729972997299</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01664829935393197</v>
+        <v>-0.07963996399639962</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.01259171282366851</v>
+        <v>-0.08163216321632162</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.01429813353192534</v>
+        <v>0.001272127212721272</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01339307336529383</v>
+        <v>-0.1044841764984336</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0194065050322602</v>
+        <v>-0.03786378637863786</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0194065050322602</v>
+        <v>-0.03786378637863786</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
-        <v>0.0194065050322602</v>
-      </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+        <v>-0.03786378637863786</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.08170417041704169</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-0.01718571857185718</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-0.01718571857185718</v>
+      </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
@@ -2563,11 +2954,18 @@
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="C1:J1"/>
-    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A16:A17"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.00048208600328344</v>
+        <v>0.0005490377499615099</v>
       </c>
       <c r="D4" t="n">
         <v>0.001852952042118082</v>
@@ -743,35 +743,37 @@
       <c r="F4" t="n">
         <v>0.01414777467791099</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0.1723324617869151</v>
+      </c>
       <c r="H4" t="n">
         <v>-0.01416035989441439</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0002168657366746295</v>
+        <v>-0.0001601380864055235</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01592108798976341</v>
+        <v>0.01396881377040935</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00724631203385248</v>
+        <v>-0.02000815875232635</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00724631203385248</v>
+        <v>-0.02000815875232635</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>0.00724631203385248</v>
+        <v>-0.02000815875232635</v>
       </c>
       <c r="P4" t="n">
-        <v>0.00724631203385248</v>
+        <v>-0.0200080201283208</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.00724631203385248</v>
+        <v>-0.02000812956832518</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00724631203385248</v>
+        <v>-0.02000812956832518</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -795,7 +797,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.006564532390581295</v>
+        <v>-0.006568123942724957</v>
       </c>
       <c r="D5" t="n">
         <v>-0.01802875377715015</v>
@@ -804,35 +806,37 @@
       <c r="F5" t="n">
         <v>-0.01678080134323205</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>-0.005485724199142705</v>
+      </c>
       <c r="H5" t="n">
         <v>0.01674125778965031</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01553196042927842</v>
+        <v>-0.0155212701568508</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01442324309578888</v>
+        <v>-0.01169165793331156</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01555594535823781</v>
+        <v>-0.01279277791971111</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.01555594535823781</v>
+        <v>-0.01279277791971111</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>-0.01555594535823781</v>
+        <v>-0.01279277791971111</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.01555594535823781</v>
+        <v>-0.01279810822392433</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.01555594535823781</v>
+        <v>-0.01279469475178779</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.01555594535823781</v>
+        <v>-0.01279469475178779</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -856,7 +860,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1731066082682643</v>
+        <v>0.1731025307641012</v>
       </c>
       <c r="D6" t="n">
         <v>0.9745858367114333</v>
@@ -865,35 +869,37 @@
       <c r="F6" t="n">
         <v>-0.01190033654001346</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0.01245345074180139</v>
+      </c>
       <c r="H6" t="n">
         <v>0.01410731720429269</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9999999958719997</v>
+        <v>0.999997630815905</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0002543893355872565</v>
+        <v>0.004338874818659215</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01342926053717042</v>
+        <v>-0.01318204651128186</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.01342926053717042</v>
+        <v>-0.01318204651128186</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>-0.01342926053717042</v>
+        <v>-0.01318204651128186</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01342926053717042</v>
+        <v>-0.01321424433656977</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.01342926053717042</v>
+        <v>-0.01318574635142985</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.01342926053717042</v>
+        <v>-0.01318574635142985</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -921,7 +927,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9639628104625123</v>
+        <v>0.9639626386225055</v>
       </c>
       <c r="D7" t="n">
         <v>0.02393805868552234</v>
@@ -930,35 +936,37 @@
       <c r="F7" t="n">
         <v>0.006647556649902265</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0.004169662978761648</v>
+      </c>
       <c r="H7" t="n">
         <v>-0.00661536477661459</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02276984836679393</v>
+        <v>0.02276107454244298</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.009001567571485621</v>
+        <v>-0.007485336698754165</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.001005679720227189</v>
+        <v>0.0007116180764647229</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.001005679720227189</v>
+        <v>0.0007116180764647229</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>-0.001005679720227189</v>
+        <v>0.0007116180764647229</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.001005679720227189</v>
+        <v>0.0007200428448017138</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.001005679720227189</v>
+        <v>0.000712020124480805</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.001005679720227189</v>
+        <v>0.000712020124480805</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -986,7 +994,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.02889608189184327</v>
+        <v>-0.028906025188241</v>
       </c>
       <c r="D8" t="n">
         <v>-0.01610414560416582</v>
@@ -995,35 +1003,37 @@
       <c r="F8" t="n">
         <v>-0.0233435725177429</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>-0.0209525683889148</v>
+      </c>
       <c r="H8" t="n">
         <v>0.02333347994133919</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01257291083891643</v>
+        <v>-0.01253378046935122</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.00272921009581338</v>
+        <v>-0.002512979418980495</v>
       </c>
       <c r="K8" t="n">
-        <v>0.007927918493116737</v>
+        <v>0.01132633197305328</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007927918493116737</v>
+        <v>0.01132633197305328</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>0.007927918493116737</v>
+        <v>0.01132633197305328</v>
       </c>
       <c r="P8" t="n">
-        <v>0.007927918493116737</v>
+        <v>0.01132871142914846</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.007927918493116737</v>
+        <v>0.01132491405299656</v>
       </c>
       <c r="R8" t="n">
-        <v>0.007927918493116737</v>
+        <v>0.01132491405299656</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1051,7 +1061,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.004383885295355411</v>
+        <v>-0.004389476047579041</v>
       </c>
       <c r="D9" t="n">
         <v>0.01773055731722229</v>
@@ -1060,35 +1070,37 @@
       <c r="F9" t="n">
         <v>-0.01403518424140737</v>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>0.007478138160984351</v>
+      </c>
       <c r="H9" t="n">
         <v>0.01407902360316094</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02048295192331807</v>
+        <v>0.02045288078611523</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0112910132865705</v>
+        <v>0.01134154438863928</v>
       </c>
       <c r="K9" t="n">
-        <v>0.007566856814674272</v>
+        <v>0.006049082353963293</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007566856814674272</v>
+        <v>0.006049082353963293</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>0.007566856814674272</v>
+        <v>0.006049082353963293</v>
       </c>
       <c r="P9" t="n">
-        <v>0.007566856814674272</v>
+        <v>0.006043576369743054</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.007566856814674272</v>
+        <v>0.0060497475379899</v>
       </c>
       <c r="R9" t="n">
-        <v>0.007566856814674272</v>
+        <v>0.0060497475379899</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1116,7 +1128,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.03478861348754454</v>
+        <v>0.0347961725278469</v>
       </c>
       <c r="D10" t="n">
         <v>-0.001247748721909949</v>
@@ -1125,35 +1137,37 @@
       <c r="F10" t="n">
         <v>-0.01138696067947842</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>0.01841776207785618</v>
+      </c>
       <c r="H10" t="n">
         <v>0.01141014813640592</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001682647363305894</v>
+        <v>0.00164121376164855</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006093003907308991</v>
+        <v>0.00434404839232288</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0157222825488913</v>
+        <v>-0.01939215024768601</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0157222825488913</v>
+        <v>-0.01939215024768601</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>-0.0157222825488913</v>
+        <v>-0.01939215024768601</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0157222825488913</v>
+        <v>-0.01939966483998659</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0157222825488913</v>
+        <v>-0.0193933426637337</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.0157222825488913</v>
+        <v>-0.0193933426637337</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1177,7 +1191,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.08052294638891784</v>
+        <v>0.08052745627709824</v>
       </c>
       <c r="D11" t="n">
         <v>0.204425199857008</v>
@@ -1186,35 +1200,37 @@
       <c r="F11" t="n">
         <v>0.9999969645758784</v>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0.01522939623123428</v>
+      </c>
       <c r="H11" t="n">
         <v>-0.9999999996159999</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.01410315838812633</v>
+        <v>-0.0141244675089787</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.01310088580880346</v>
+        <v>-0.01308733346872416</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.341696325347853</v>
+        <v>-0.338395951391838</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.341696325347853</v>
+        <v>-0.338395951391838</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>-0.341696325347853</v>
+        <v>-0.338395951391838</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.341696325347853</v>
+        <v>-0.3383511112300444</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.341696325347853</v>
+        <v>-0.3383913830396553</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.341696325347853</v>
+        <v>-0.3383913830396553</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1238,7 +1254,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1821351636374065</v>
+        <v>-0.1821366331094653</v>
       </c>
       <c r="D12" t="n">
         <v>-5.44318101772724e-05</v>
@@ -1247,35 +1263,37 @@
       <c r="F12" t="n">
         <v>0.0113231701169268</v>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>-0.01791790050225182</v>
+      </c>
       <c r="H12" t="n">
         <v>-0.0113262949170518</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.002222479960899198</v>
+        <v>-0.002170712726828509</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004285416574319378</v>
+        <v>0.00385600381301615</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0251769375830775</v>
+        <v>0.02850299989211999</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0251769375830775</v>
+        <v>0.02850299989211999</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>0.0251769375830775</v>
+        <v>0.02850299989211999</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0251769375830775</v>
+        <v>0.02851550331662013</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0251769375830775</v>
+        <v>0.02850422542816901</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0251769375830775</v>
+        <v>0.02850422542816901</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -1303,7 +1321,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.00608704853148194</v>
+        <v>-0.006075666195026648</v>
       </c>
       <c r="D13" t="n">
         <v>-0.01226342717853708</v>
@@ -1312,35 +1330,37 @@
       <c r="F13" t="n">
         <v>-0.0008882437795297511</v>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>0.03446967087839847</v>
+      </c>
       <c r="H13" t="n">
         <v>0.000879233603169344</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01320984552039382</v>
+        <v>-0.01328595230743809</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0008374703963824075</v>
+        <v>-0.002566190609396088</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.006328967197158687</v>
+        <v>-0.01066434196257368</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.006328967197158687</v>
+        <v>-0.01066434196257368</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>-0.006328967197158687</v>
+        <v>-0.01066434196257368</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.006328967197158687</v>
+        <v>-0.01066500081060003</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.006328967197158687</v>
+        <v>-0.01066508145060326</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006328967197158687</v>
+        <v>-0.01066508145060326</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1368,7 +1388,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01012472853298914</v>
+        <v>0.01012963643718546</v>
       </c>
       <c r="D14" t="n">
         <v>-0.001213954320558173</v>
@@ -1377,35 +1397,37 @@
       <c r="F14" t="n">
         <v>0.005412363096494523</v>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>0.0111200608694498</v>
+      </c>
       <c r="H14" t="n">
         <v>-0.005427399097095963</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.002982794135311765</v>
+        <v>-0.002997566423902657</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.01674803079147271</v>
+        <v>-0.01673818014287778</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0009124272364970893</v>
+        <v>-0.004195027655801106</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0009124272364970893</v>
+        <v>-0.004195027655801106</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>-0.0009124272364970893</v>
+        <v>-0.004195027655801106</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.0009124272364970893</v>
+        <v>-0.004186783079471322</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.0009124272364970893</v>
+        <v>-0.004192730375709214</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.0009124272364970893</v>
+        <v>-0.004192730375709214</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1433,7 +1455,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.01366610425864417</v>
+        <v>-0.0136689099547564</v>
       </c>
       <c r="D15" t="n">
         <v>-0.009827577321103093</v>
@@ -1442,35 +1464,37 @@
       <c r="F15" t="n">
         <v>-0.002109005364360214</v>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>-0.02159705013619393</v>
+      </c>
       <c r="H15" t="n">
         <v>0.002040708369628334</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.009771036582841461</v>
+        <v>-0.009729030245161209</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01555366432162807</v>
+        <v>0.01799112011354024</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01860157735206309</v>
+        <v>-0.01406483528259341</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.01860157735206309</v>
+        <v>-0.01406483528259341</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>-0.01860157735206309</v>
+        <v>-0.01406483528259341</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.01860157735206309</v>
+        <v>-0.014063950066558</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.01860157735206309</v>
+        <v>-0.0140644900665796</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.01860157735206309</v>
+        <v>-0.0140644900665796</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1498,7 +1522,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01075405550216222</v>
+        <v>0.01075729828629193</v>
       </c>
       <c r="D16" t="n">
         <v>0.0003126309245052369</v>
@@ -1507,35 +1531,37 @@
       <c r="F16" t="n">
         <v>0.01179920130396805</v>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>0.01307729363204273</v>
+      </c>
       <c r="H16" t="n">
         <v>-0.01178561951142478</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.002993346359733854</v>
+        <v>-0.003017124696684987</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.02061981893952328</v>
+        <v>-0.01453876988011651</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03741997445679898</v>
+        <v>0.03433117135724685</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03741997445679898</v>
+        <v>0.03433117135724685</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>0.03741997445679898</v>
+        <v>0.03433117135724685</v>
       </c>
       <c r="P16" t="n">
-        <v>0.03741997445679898</v>
+        <v>0.03432783612511343</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.03741997445679898</v>
+        <v>0.03433089938923597</v>
       </c>
       <c r="R16" t="n">
-        <v>0.03741997445679898</v>
+        <v>0.03433089938923597</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -1559,7 +1585,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01398200187128007</v>
+        <v>0.01398000391920015</v>
       </c>
       <c r="D17" t="n">
         <v>0.02873018217320728</v>
@@ -1568,35 +1594,37 @@
       <c r="F17" t="n">
         <v>0.005981925071277001</v>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>-0.003918442784618797</v>
+      </c>
       <c r="H17" t="n">
         <v>-0.005911380332455212</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02929354139574165</v>
+        <v>0.02930505170020206</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.01327516317465129</v>
+        <v>-0.01116499537690213</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.005378558423142336</v>
+        <v>-0.003000830424033216</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.005378558423142336</v>
+        <v>-0.003000830424033216</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>-0.005378558423142336</v>
+        <v>-0.003000830424033216</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.005378558423142336</v>
+        <v>-0.003001184280047371</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.005378558423142336</v>
+        <v>-0.003002111640084465</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.005378558423142336</v>
+        <v>-0.003002111640084465</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -1624,7 +1652,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0165318325332733</v>
+        <v>0.01652900053316002</v>
       </c>
       <c r="D18" t="n">
         <v>0.004774460542978422</v>
@@ -1633,35 +1661,37 @@
       <c r="F18" t="n">
         <v>0.002715848364633934</v>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>0.006024345950446289</v>
+      </c>
       <c r="H18" t="n">
         <v>-0.002708579916343196</v>
       </c>
       <c r="I18" t="n">
-        <v>0.004249531369981254</v>
+        <v>0.004233849865353994</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.02122400168013746</v>
+        <v>-0.01990193702504037</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.01655805848632234</v>
+        <v>-0.01787957130718285</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.01655805848632234</v>
+        <v>-0.01787957130718285</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>-0.01655805848632234</v>
+        <v>-0.01787957130718285</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.01655805848632234</v>
+        <v>-0.01788252157930086</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.01655805848632234</v>
+        <v>-0.01787891601115664</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.01655805848632234</v>
+        <v>-0.01787891601115664</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -1689,7 +1719,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.002954748022189921</v>
+        <v>-0.002945047605801904</v>
       </c>
       <c r="D19" t="n">
         <v>0.003085432347417293</v>
@@ -1698,35 +1728,37 @@
       <c r="F19" t="n">
         <v>0.009961971566478862</v>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0.01517551773485723</v>
+      </c>
       <c r="H19" t="n">
         <v>-0.009979181775167269</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002071322194852888</v>
+        <v>0.002038242225529689</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.009927727477871287</v>
+        <v>-0.009420295417137072</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.003839863641594545</v>
+        <v>-0.006874429810977191</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.003839863641594545</v>
+        <v>-0.006874429810977191</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>-0.003839863641594545</v>
+        <v>-0.006874429810977191</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.003839863641594545</v>
+        <v>-0.006882129011285159</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.003839863641594545</v>
+        <v>-0.006873350674934026</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.003839863641594545</v>
+        <v>-0.006873350674934026</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -1750,7 +1782,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01417384539895382</v>
+        <v>-0.0141754050150162</v>
       </c>
       <c r="D20" t="n">
         <v>0.0005019740360789613</v>
@@ -1759,35 +1791,37 @@
       <c r="F20" t="n">
         <v>0.002182366167294647</v>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>-0.00186224951279211</v>
+      </c>
       <c r="H20" t="n">
         <v>-0.00217547951101918</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001037567849502714</v>
+        <v>0.001036024553440982</v>
       </c>
       <c r="J20" t="n">
-        <v>0.004450799227297439</v>
+        <v>0.003085129570384976</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01639165073566603</v>
+        <v>0.01545686961027478</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01639165073566603</v>
+        <v>0.01545686961027478</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>0.01639165073566603</v>
+        <v>0.01545686961027478</v>
       </c>
       <c r="P20" t="n">
-        <v>0.01639165073566603</v>
+        <v>0.01545258282610331</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01639165073566603</v>
+        <v>0.01545623802624952</v>
       </c>
       <c r="R20" t="n">
-        <v>0.01639165073566603</v>
+        <v>0.01545623802624952</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -1811,7 +1845,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.02366908030676321</v>
+        <v>0.02366182539447301</v>
       </c>
       <c r="D21" t="n">
         <v>-0.002844156401766256</v>
@@ -1820,35 +1854,37 @@
       <c r="F21" t="n">
         <v>-0.00781790853671634</v>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>-0.01331993737312407</v>
+      </c>
       <c r="H21" t="n">
         <v>0.007782412343296493</v>
       </c>
       <c r="I21" t="n">
-        <v>6.886445075457803e-05</v>
+        <v>9.552249982089998e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.002818569010992524</v>
+        <v>-0.002017125467082913</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.01686429734657189</v>
+        <v>-0.01386388788255551</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.01686429734657189</v>
+        <v>-0.01386388788255551</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>-0.01686429734657189</v>
+        <v>-0.01386388788255551</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.01686429734657189</v>
+        <v>-0.01385716365828655</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.01686429734657189</v>
+        <v>-0.01386353661854146</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.01686429734657189</v>
+        <v>-0.01386353661854146</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -1872,7 +1908,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.03409716693188668</v>
+        <v>0.03409355896374235</v>
       </c>
       <c r="D22" t="n">
         <v>0.01360946550437862</v>
@@ -1881,35 +1917,37 @@
       <c r="F22" t="n">
         <v>-0.01723582446543298</v>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>-0.01283217023124631</v>
+      </c>
       <c r="H22" t="n">
         <v>0.0172887850755514</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01792453156498126</v>
+        <v>0.01795447579017903</v>
       </c>
       <c r="J22" t="n">
-        <v>0.002274080613815726</v>
+        <v>0.001374194117552867</v>
       </c>
       <c r="K22" t="n">
-        <v>0.005955724846228992</v>
+        <v>0.006492440131697604</v>
       </c>
       <c r="L22" t="n">
-        <v>0.005955724846228992</v>
+        <v>0.006492440131697604</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
-        <v>0.005955724846228992</v>
+        <v>0.006492440131697604</v>
       </c>
       <c r="P22" t="n">
-        <v>0.005955724846228992</v>
+        <v>0.006500370404014815</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.005955724846228992</v>
+        <v>0.00649455625978225</v>
       </c>
       <c r="R22" t="n">
-        <v>0.005955724846228992</v>
+        <v>0.00649455625978225</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -1937,7 +1975,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.0004409499056379962</v>
+        <v>-0.0004493382899735315</v>
       </c>
       <c r="D23" t="n">
         <v>-0.003054536282181451</v>
@@ -1946,35 +1984,37 @@
       <c r="F23" t="n">
         <v>-0.01822552997702119</v>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>-0.02062742631619378</v>
+      </c>
       <c r="H23" t="n">
         <v>0.01821622104864884</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.000429987377199495</v>
+        <v>-0.0003873350554934022</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.002213067391375968</v>
+        <v>-0.005943813750777254</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001706706116268245</v>
+        <v>0.003118949404757976</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001706706116268245</v>
+        <v>0.003118949404757976</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>0.001706706116268245</v>
+        <v>0.003118949404757976</v>
       </c>
       <c r="P23" t="n">
-        <v>0.001706706116268245</v>
+        <v>0.003107228476289138</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.001706706116268245</v>
+        <v>0.003116945788677831</v>
       </c>
       <c r="R23" t="n">
-        <v>0.001706706116268245</v>
+        <v>0.003116945788677831</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -1998,7 +2038,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.003523877612955104</v>
+        <v>0.003523488812939552</v>
       </c>
       <c r="D24" t="n">
         <v>-0.002413117152524686</v>
@@ -2007,35 +2047,37 @@
       <c r="F24" t="n">
         <v>0.01382188788087551</v>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>-0.01792190199288719</v>
+      </c>
       <c r="H24" t="n">
         <v>-0.01384410420176417</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.006487587811503511</v>
+        <v>-0.006447042977881717</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0008248143737297015</v>
+        <v>-0.0002639762639318813</v>
       </c>
       <c r="K24" t="n">
-        <v>0.006409586656383465</v>
+        <v>0.007966253214650125</v>
       </c>
       <c r="L24" t="n">
-        <v>0.006409586656383465</v>
+        <v>0.007966253214650125</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>0.006409586656383465</v>
+        <v>0.007966253214650125</v>
       </c>
       <c r="P24" t="n">
-        <v>0.006409586656383465</v>
+        <v>0.007962534558501381</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.006409586656383465</v>
+        <v>0.007965815838632633</v>
       </c>
       <c r="R24" t="n">
-        <v>0.006409586656383465</v>
+        <v>0.007965815838632633</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2063,7 +2105,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.02202483361699334</v>
+        <v>0.02202281176091247</v>
       </c>
       <c r="D25" t="n">
         <v>0.01544696836187873</v>
@@ -2072,35 +2114,37 @@
       <c r="F25" t="n">
         <v>-0.0001003973800158952</v>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>-0.007685922671437729</v>
+      </c>
       <c r="H25" t="n">
         <v>0.0001228353649134146</v>
       </c>
       <c r="I25" t="n">
-        <v>0.015508450028338</v>
+        <v>0.01552019457280778</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.01148018167573577</v>
+        <v>-0.009517524271934835</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01686780864271235</v>
+        <v>0.01588065989922639</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01686780864271235</v>
+        <v>0.01588065989922639</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
-        <v>0.01686780864271235</v>
+        <v>0.01588065989922639</v>
       </c>
       <c r="P25" t="n">
-        <v>0.01686780864271235</v>
+        <v>0.01588398044335921</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01686780864271235</v>
+        <v>0.01588130962725239</v>
       </c>
       <c r="R25" t="n">
-        <v>0.01686780864271235</v>
+        <v>0.01588130962725239</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2124,7 +2168,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.003214684736587389</v>
+        <v>0.003215428160617126</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01184227429769097</v>
@@ -2133,35 +2177,37 @@
       <c r="F26" t="n">
         <v>0.0364560526262421</v>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>-0.002682748942661645</v>
+      </c>
       <c r="H26" t="n">
         <v>-0.03650762958830518</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0198560050822402</v>
+        <v>-0.01984707343388293</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.01543440381974499</v>
+        <v>-0.01605154503690799</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001088339275533571</v>
+        <v>0.00176858301474332</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001088339275533571</v>
+        <v>0.00176858301474332</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>0.001088339275533571</v>
+        <v>0.00176858301474332</v>
       </c>
       <c r="P26" t="n">
-        <v>0.001088339275533571</v>
+        <v>0.001772937478917499</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.001088339275533571</v>
+        <v>0.001767468166698726</v>
       </c>
       <c r="R26" t="n">
-        <v>0.001088339275533571</v>
+        <v>0.001767468166698726</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2189,7 +2235,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.001546515037860601</v>
+        <v>-0.001545012637800505</v>
       </c>
       <c r="D27" t="n">
         <v>0.007680210739208429</v>
@@ -2198,35 +2244,37 @@
       <c r="F27" t="n">
         <v>-0.001224724080988963</v>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>0.003463491932336744</v>
+      </c>
       <c r="H27" t="n">
         <v>0.001241321617652864</v>
       </c>
       <c r="I27" t="n">
-        <v>0.008573812758952509</v>
+        <v>0.008571080982843237</v>
       </c>
       <c r="J27" t="n">
-        <v>0.006165225752215947</v>
+        <v>0.002774212446398408</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02521534440061377</v>
+        <v>0.02712797110111884</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02521534440061377</v>
+        <v>0.02712797110111884</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
-        <v>0.02521534440061377</v>
+        <v>0.02712797110111884</v>
       </c>
       <c r="P27" t="n">
-        <v>0.02521534440061377</v>
+        <v>0.02714764822190592</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02521534440061377</v>
+        <v>0.02712908038116321</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02521534440061377</v>
+        <v>0.02712908038116321</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -2254,7 +2302,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.007679476243179049</v>
+        <v>0.007674377490975098</v>
       </c>
       <c r="D28" t="n">
         <v>0.02252746592509864</v>
@@ -2263,35 +2311,37 @@
       <c r="F28" t="n">
         <v>-0.01371180736447229</v>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>-0.01039149434307089</v>
+      </c>
       <c r="H28" t="n">
         <v>0.01375725328629013</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02712407676496307</v>
+        <v>0.02714291666971666</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.02374199062139487</v>
+        <v>-0.02356659123012774</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.001891751691670067</v>
+        <v>0.001667368194694728</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.001891751691670067</v>
+        <v>0.001667368194694728</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>-0.001891751691670067</v>
+        <v>0.001667368194694728</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.001891751691670067</v>
+        <v>0.001655944194237767</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.001891751691670067</v>
+        <v>0.0016656950106278</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.001891751691670067</v>
+        <v>0.0016656950106278</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -2319,7 +2369,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.00588653101946124</v>
+        <v>-0.00589253274770131</v>
       </c>
       <c r="D29" t="n">
         <v>0.01502535189701407</v>
@@ -2328,35 +2378,37 @@
       <c r="F29" t="n">
         <v>-0.009579881375195253</v>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>0.002797867207601502</v>
+      </c>
       <c r="H29" t="n">
         <v>0.009623474880938994</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01756662934266517</v>
+        <v>0.01756315711852628</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01499205225380917</v>
+        <v>0.01279555301050782</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.01868272989930919</v>
+        <v>-0.0196568376182735</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.01868272989930919</v>
+        <v>-0.0196568376182735</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>-0.01868272989930919</v>
+        <v>-0.0196568376182735</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.01868272989930919</v>
+        <v>-0.01965423486616939</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.01868272989930919</v>
+        <v>-0.01965646600225864</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.01868272989930919</v>
+        <v>-0.01965646600225864</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -2384,7 +2436,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.01598172476726899</v>
+        <v>0.01598336934333477</v>
       </c>
       <c r="D30" t="n">
         <v>-0.03485036933001476</v>
@@ -2393,35 +2445,37 @@
       <c r="F30" t="n">
         <v>0.002960880118435204</v>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>5.391275428393133e-05</v>
+      </c>
       <c r="H30" t="n">
         <v>-0.003049456249978249</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.03700981021639241</v>
+        <v>-0.03701771648870866</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0006831943077571266</v>
+        <v>-0.002081952356001357</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.02886528125061125</v>
+        <v>-0.02816915459876618</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.02886528125061125</v>
+        <v>-0.02816915459876618</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>-0.02886528125061125</v>
+        <v>-0.02816915459876618</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.02886528125061125</v>
+        <v>-0.02817218368688734</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.02886528125061125</v>
+        <v>-0.02816784487071379</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.02886528125061125</v>
+        <v>-0.02816784487071379</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -2449,7 +2503,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.006957910646316424</v>
+        <v>-0.006952827350113093</v>
       </c>
       <c r="D31" t="n">
         <v>-0.02383454149738166</v>
@@ -2458,35 +2512,37 @@
       <c r="F31" t="n">
         <v>0.00230284674811387</v>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>0.01056412996254546</v>
+      </c>
       <c r="H31" t="n">
         <v>-0.00237980601519224</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.02427412090696483</v>
+        <v>-0.02430113876404555</v>
       </c>
       <c r="J31" t="n">
-        <v>0.01418349465709087</v>
+        <v>0.01802576952773132</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.001341177077647083</v>
+        <v>-0.000698452827938113</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.001341177077647083</v>
+        <v>-0.000698452827938113</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>-0.001341177077647083</v>
+        <v>-0.000698452827938113</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.001341177077647083</v>
+        <v>-0.0006978160599126422</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.001341177077647083</v>
+        <v>-0.0006983681559347261</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.001341177077647083</v>
+        <v>-0.0006983681559347261</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -2514,7 +2570,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.01636908987076359</v>
+        <v>0.01636200123048005</v>
       </c>
       <c r="D32" t="n">
         <v>-0.003733192661327706</v>
@@ -2523,35 +2579,37 @@
       <c r="F32" t="n">
         <v>0.01274513321380533</v>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>-0.03026843770658894</v>
+      </c>
       <c r="H32" t="n">
         <v>-0.01276819798272792</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.00698336802333472</v>
+        <v>-0.00692267653290706</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0005190864927033493</v>
+        <v>0.0003208240509650233</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.003365314502612579</v>
+        <v>0.0025189775087591</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.003365314502612579</v>
+        <v>0.0025189775087591</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="n">
-        <v>-0.003365314502612579</v>
+        <v>0.0025189775087591</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.003365314502612579</v>
+        <v>0.002518625092745004</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.003365314502612579</v>
+        <v>0.002518073668722946</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.003365314502612579</v>
+        <v>0.002518073668722946</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -2579,7 +2637,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.01714243422169737</v>
+        <v>0.01715851172634046</v>
       </c>
       <c r="D33" t="n">
         <v>0.01683506400140256</v>
@@ -2588,35 +2646,37 @@
       <c r="F33" t="n">
         <v>-0.01379905677596227</v>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>0.02662560730285095</v>
+      </c>
       <c r="H33" t="n">
         <v>0.01383685524147421</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01915323916612956</v>
+        <v>0.01909827954793118</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.01722719210178852</v>
+        <v>-0.02100386744002722</v>
       </c>
       <c r="K33" t="n">
-        <v>0.005384327639373105</v>
+        <v>0.001639364321574573</v>
       </c>
       <c r="L33" t="n">
-        <v>0.005384327639373105</v>
+        <v>0.001639364321574573</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="n">
-        <v>0.005384327639373105</v>
+        <v>0.001639364321574573</v>
       </c>
       <c r="P33" t="n">
-        <v>0.005384327639373105</v>
+        <v>0.001650623586024943</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.005384327639373105</v>
+        <v>0.001638915233556609</v>
       </c>
       <c r="R33" t="n">
-        <v>0.005384327639373105</v>
+        <v>0.001638915233556609</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -2644,7 +2704,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.00935212703008508</v>
+        <v>0.009351921206076847</v>
       </c>
       <c r="D34" t="n">
         <v>-0.01617811696712467</v>
@@ -2653,35 +2713,37 @@
       <c r="F34" t="n">
         <v>-0.004008662464346498</v>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>-0.001349632298006397</v>
+      </c>
       <c r="H34" t="n">
         <v>0.003972973022918921</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.01603610339344413</v>
+        <v>-0.0160358949774358</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.01606456772267639</v>
+        <v>-0.01728817658704401</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.009638295649531826</v>
+        <v>-0.009866475754659029</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.009638295649531826</v>
+        <v>-0.009866475754659029</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>-0.009638295649531826</v>
+        <v>-0.009866475754659029</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.009638295649531826</v>
+        <v>-0.009868109770724389</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.009638295649531826</v>
+        <v>-0.009866540362661614</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.009638295649531826</v>
+        <v>-0.009866540362661614</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -2709,7 +2771,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01299895856795834</v>
+        <v>0.01299776672791067</v>
       </c>
       <c r="D35" t="n">
         <v>0.01409742545989702</v>
@@ -2718,35 +2780,37 @@
       <c r="F35" t="n">
         <v>0.00260319725612789</v>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>0.00125619566736742</v>
+      </c>
       <c r="H35" t="n">
         <v>-0.002598699559947982</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01410030651601226</v>
+        <v>0.01409657566786303</v>
       </c>
       <c r="J35" t="n">
-        <v>0.004862266374880644</v>
+        <v>0.006656887628326019</v>
       </c>
       <c r="K35" t="n">
-        <v>0.01352840530913621</v>
+        <v>0.01288787187551487</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01352840530913621</v>
+        <v>0.01288787187551487</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>0.01352840530913621</v>
+        <v>0.01288787187551487</v>
       </c>
       <c r="P35" t="n">
-        <v>0.01352840530913621</v>
+        <v>0.01288782589151303</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01352840530913621</v>
+        <v>0.01288757677150307</v>
       </c>
       <c r="R35" t="n">
-        <v>0.01352840530913621</v>
+        <v>0.01288757677150307</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -2774,7 +2838,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.004608709432348377</v>
+        <v>0.004605885880235435</v>
       </c>
       <c r="D36" t="n">
         <v>-0.01006508315460332</v>
@@ -2783,35 +2847,37 @@
       <c r="F36" t="n">
         <v>0.01384931719397269</v>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>0.004636316666257512</v>
+      </c>
       <c r="H36" t="n">
         <v>-0.01387379325895173</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.01342120124084805</v>
+        <v>-0.01343607615344304</v>
       </c>
       <c r="J36" t="n">
-        <v>0.00676485223438375</v>
+        <v>0.009373038247763414</v>
       </c>
       <c r="K36" t="n">
-        <v>0.00682856628914265</v>
+        <v>0.01031599087663963</v>
       </c>
       <c r="L36" t="n">
-        <v>0.00682856628914265</v>
+        <v>0.01031599087663963</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>0.00682856628914265</v>
+        <v>0.01031599087663963</v>
       </c>
       <c r="P36" t="n">
-        <v>0.00682856628914265</v>
+        <v>0.01032898322915933</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.00682856628914265</v>
+        <v>0.01031668870066755</v>
       </c>
       <c r="R36" t="n">
-        <v>0.00682856628914265</v>
+        <v>0.01031668870066755</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -2839,7 +2905,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.01511947241277889</v>
+        <v>-0.01512009017280361</v>
       </c>
       <c r="D37" t="n">
         <v>0.01336814357472574</v>
@@ -2848,35 +2914,37 @@
       <c r="F37" t="n">
         <v>0.005984730383389214</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>0.003564365592484008</v>
+      </c>
       <c r="H37" t="n">
         <v>-0.005943335181733406</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01261250152850006</v>
+        <v>0.01261829551273182</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.01469904388758953</v>
+        <v>-0.01368536349532971</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.005386508759460349</v>
+        <v>-0.006018210576728423</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.005386508759460349</v>
+        <v>-0.006018210576728423</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
-        <v>-0.005386508759460349</v>
+        <v>-0.006018210576728423</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.005386508759460349</v>
+        <v>-0.006012491664499665</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.005386508759460349</v>
+        <v>-0.006017668944706758</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.005386508759460349</v>
+        <v>-0.006017668944706758</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -2904,7 +2972,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.009584389727375589</v>
+        <v>-0.009587140607485622</v>
       </c>
       <c r="D38" t="n">
         <v>-0.02239686339187453</v>
@@ -2913,35 +2981,37 @@
       <c r="F38" t="n">
         <v>-0.01842747049709882</v>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>-0.01116464990267091</v>
+      </c>
       <c r="H38" t="n">
         <v>0.01837995347119814</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.01924781520191261</v>
+        <v>-0.01922570716902828</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01635715349626132</v>
+        <v>0.01846806149612711</v>
       </c>
       <c r="K38" t="n">
-        <v>0.9432969066278761</v>
+        <v>0.9255233631009344</v>
       </c>
       <c r="L38" t="n">
-        <v>0.9432969066278761</v>
+        <v>0.9255233631009344</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="n">
-        <v>0.9432969066278761</v>
+        <v>0.9255233631009344</v>
       </c>
       <c r="P38" t="n">
-        <v>0.9432969066278761</v>
+        <v>0.9255003692760146</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.9432969066278761</v>
+        <v>0.9255231248289248</v>
       </c>
       <c r="R38" t="n">
-        <v>0.9432969066278761</v>
+        <v>0.9255231248289248</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE38"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,46 +734,46 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0005490377499615099</v>
+        <v>-0.00455869650234786</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001852952042118082</v>
+        <v>-0.009840309936359815</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.01414777467791099</v>
+        <v>0.009413981848559273</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1723324617869151</v>
+        <v>-0.008327610669104426</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01416035989441439</v>
+        <v>-0.009412234840489392</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0001601380864055235</v>
+        <v>0.006048632593945303</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01396881377040935</v>
+        <v>0.007275090044703107</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.02000815875232635</v>
+        <v>-0.02875127347005094</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.02000815875232635</v>
+        <v>-0.02875127347005094</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>-0.02000815875232635</v>
+        <v>-0.02875127347005094</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.0200080201283208</v>
+        <v>0.001529716285188651</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.02000812956832518</v>
+        <v>-0.02875942915037717</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.02000812956832518</v>
+        <v>-0.02875942915037717</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -797,46 +797,46 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.006568123942724957</v>
+        <v>0.01370670237226809</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01802875377715015</v>
+        <v>-0.01439167986056908</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>-0.01678080134323205</v>
+        <v>0.002469720962788838</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.005485724199142705</v>
+        <v>-0.00416600800664032</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01674125778965031</v>
+        <v>-0.002479475139179005</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0155212701568508</v>
+        <v>-0.01407402229096089</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01169165793331156</v>
+        <v>-0.006934324004485252</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01279277791971111</v>
+        <v>0.005419643832785753</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.01279277791971111</v>
+        <v>0.005419643832785753</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>-0.01279277791971111</v>
+        <v>0.005419643832785753</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.01279810822392433</v>
+        <v>0.006025004881000194</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.01279469475178779</v>
+        <v>0.002703707244148289</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.01279469475178779</v>
+        <v>0.002703707244148289</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -856,50 +856,50 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Capacity [ton/hr]</t>
+          <t>Cane operating days [day/yr]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1731025307641012</v>
+        <v>0.1487363414374536</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9745858367114333</v>
+        <v>0.001896094211320026</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>-0.01190033654001346</v>
+        <v>0.4836361949294477</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01245345074180139</v>
+        <v>-0.5876205544168221</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01410731720429269</v>
+        <v>-0.483831529113261</v>
       </c>
       <c r="I6" t="n">
-        <v>0.999997630815905</v>
+        <v>-0.9002151304406051</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004338874818659215</v>
+        <v>0.009869215150490713</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01318204651128186</v>
+        <v>-0.2046620610504824</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.01318204651128186</v>
+        <v>-0.2046620610504824</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>-0.01318204651128186</v>
+        <v>-0.2046620610504824</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01321424433656977</v>
+        <v>0.5810223699928947</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.01318574635142985</v>
+        <v>-0.06625559228222369</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.01318574635142985</v>
+        <v>-0.06625559228222369</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -916,57 +916,53 @@
       <c r="AE6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Stream-ethanol</t>
-        </is>
-      </c>
+      <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Price [USD/gal]</t>
+          <t>Sorghum operating days [day/yr]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9639626386225055</v>
+        <v>0.05633109642924385</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02393805868552234</v>
+        <v>-0.03095055295051334</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>0.006647556649902265</v>
+        <v>-0.8620742956029718</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004169662978761648</v>
+        <v>0.7914452433378097</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.00661536477661459</v>
+        <v>0.8619588656783546</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02276107454244298</v>
+        <v>-0.4311920254716809</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.007485336698754165</v>
+        <v>0.00642634253396447</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0007116180764647229</v>
+        <v>0.5206253923130157</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007116180764647229</v>
+        <v>0.5206253923130157</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>0.0007116180764647229</v>
+        <v>0.5206253923130157</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0007200428448017138</v>
+        <v>-0.7586230537049221</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.000712020124480805</v>
+        <v>0.3506384134175365</v>
       </c>
       <c r="R7" t="n">
-        <v>0.000712020124480805</v>
+        <v>0.3506384134175365</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -983,57 +979,53 @@
       <c r="AE7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Stream-biodiesel</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Price [USD/gal]</t>
+          <t>Annual crushing capacity [ton/yr]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.028906025188241</v>
+        <v>0.01875057444602297</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01610414560416582</v>
+        <v>-0.007345895825503695</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>-0.0233435725177429</v>
+        <v>0.009669890210795607</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0209525683889148</v>
+        <v>-0.0101147276365891</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02333347994133919</v>
+        <v>-0.009664427906577113</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01253378046935122</v>
+        <v>-0.006342542845701713</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.002512979418980495</v>
+        <v>0.007140040578890544</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01132633197305328</v>
+        <v>0.0007401537896061515</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01132633197305328</v>
+        <v>0.0007401537896061515</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>0.01132633197305328</v>
+        <v>0.0007401537896061515</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01132871142914846</v>
+        <v>0.01166771355470854</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01132491405299656</v>
+        <v>0.00535571800622872</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01132491405299656</v>
+        <v>0.00535571800622872</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1052,55 +1044,55 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Stream-natural gas</t>
+          <t>Stream-ethanol</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Price [USD/cf]</t>
+          <t>Price [USD/gal]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.004389476047579041</v>
+        <v>0.9617280940531236</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01773055731722229</v>
+        <v>-0.01038643634528957</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>-0.01403518424140737</v>
+        <v>0.01033909874956395</v>
       </c>
       <c r="G9" t="n">
-        <v>0.007478138160984351</v>
+        <v>-0.01122178240087129</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01407902360316094</v>
+        <v>-0.01033955647758226</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02045288078611523</v>
+        <v>-0.0126769676430787</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01134154438863928</v>
+        <v>0.01245303925586212</v>
       </c>
       <c r="K9" t="n">
-        <v>0.006049082353963293</v>
+        <v>-0.01112566393302656</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006049082353963293</v>
+        <v>-0.01112566393302656</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>0.006049082353963293</v>
+        <v>-0.01112566393302656</v>
       </c>
       <c r="P9" t="n">
-        <v>0.006043576369743054</v>
+        <v>0.0104412824976513</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0060497475379899</v>
+        <v>-0.008498942067957682</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0060497475379899</v>
+        <v>-0.008498942067957682</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1119,55 +1111,55 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>biorefinery</t>
+          <t>Stream-biodiesel</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Electricity price [USD/kWhr]</t>
+          <t>Price [USD/gal]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0347961725278469</v>
+        <v>0.006542922693716906</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.001247748721909949</v>
+        <v>0.01043655654900146</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-0.01138696067947842</v>
+        <v>-0.009091419435656776</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01841776207785618</v>
+        <v>0.004973323014932919</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01141014813640592</v>
+        <v>0.009089717163588687</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00164121376164855</v>
+        <v>-0.02645844182633766</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00434404839232288</v>
+        <v>-0.02674255784247139</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.01939215024768601</v>
+        <v>0.01829610562784422</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.01939215024768601</v>
+        <v>0.01829610562784422</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>-0.01939215024768601</v>
+        <v>0.01829610562784422</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.01939966483998659</v>
+        <v>-0.001436828697473148</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0193933426637337</v>
+        <v>0.01835046803001872</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.0193933426637337</v>
+        <v>0.01835046803001872</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1184,53 +1176,57 @@
       <c r="AE10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Stream-natural gas</t>
+        </is>
+      </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Operating days [day/yr]</t>
+          <t>Price [USD/cf]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.08052745627709824</v>
+        <v>0.01151115722844629</v>
       </c>
       <c r="D11" t="n">
-        <v>0.204425199857008</v>
+        <v>-0.001351720007036558</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>0.9999969645758784</v>
+        <v>-0.0100650026106001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01522939623123428</v>
+        <v>0.009808143464325738</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.9999999996159999</v>
+        <v>0.01006456629058265</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0141244675089787</v>
+        <v>-0.0005940261357610453</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.01308733346872416</v>
+        <v>-0.007650415421666323</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.338395951391838</v>
+        <v>0.01059451568778062</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.338395951391838</v>
+        <v>0.01059451568778062</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>-0.338395951391838</v>
+        <v>0.01059451568778062</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.3383511112300444</v>
+        <v>-0.009188049679521986</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.3383913830396553</v>
+        <v>0.008492279091691162</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.3383913830396553</v>
+        <v>0.008492279091691162</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1247,53 +1243,57 @@
       <c r="AE11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>biorefinery</t>
+        </is>
+      </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>IRR [%]</t>
+          <t>Electricity price [USD/kWhr]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1821366331094653</v>
+        <v>0.0221067150922686</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.44318101772724e-05</v>
+        <v>0.01828629226142375</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>0.0113231701169268</v>
+        <v>-0.009725549381021974</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.01791790050225182</v>
+        <v>0.01035269599810784</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0113262949170518</v>
+        <v>0.00972573629302945</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.002170712726828509</v>
+        <v>0.004327602989104119</v>
       </c>
       <c r="J12" t="n">
-        <v>0.00385600381301615</v>
+        <v>0.0005484330828580872</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02850299989211999</v>
+        <v>-0.008338437741537509</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02850299989211999</v>
+        <v>-0.008338437741537509</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>0.02850299989211999</v>
+        <v>-0.008338437741537509</v>
       </c>
       <c r="P12" t="n">
-        <v>0.02851550331662013</v>
+        <v>-0.01520483052819322</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02850422542816901</v>
+        <v>-0.01117051619082064</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02850422542816901</v>
+        <v>-0.01117051619082064</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -1310,57 +1310,53 @@
       <c r="AE12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Stream-crude glycerol</t>
-        </is>
-      </c>
+      <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Price [USD/kg]</t>
+          <t>IRR [%]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.006075666195026648</v>
+        <v>-0.2152872041954881</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01226342717853708</v>
+        <v>0.00595177030063534</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>-0.0008882437795297511</v>
+        <v>-0.009348266965930677</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03446967087839847</v>
+        <v>0.008497740243909608</v>
       </c>
       <c r="H13" t="n">
-        <v>0.000879233603169344</v>
+        <v>0.009347750965910038</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01328595230743809</v>
+        <v>-0.003146074109842964</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.002566190609396088</v>
+        <v>0.01737694391762558</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01066434196257368</v>
+        <v>0.00526598401863936</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.01066434196257368</v>
+        <v>0.00526598401863936</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>-0.01066434196257368</v>
+        <v>0.00526598401863936</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01066500081060003</v>
+        <v>-0.008783040447321616</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.01066508145060326</v>
+        <v>0.003822065144882605</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.01066508145060326</v>
+        <v>0.003822065144882605</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1379,7 +1375,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Stream-pure glycerine</t>
+          <t>Stream-crude glycerol</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -1388,46 +1384,46 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01012963643718546</v>
+        <v>-0.002826110609044424</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.001213954320558173</v>
+        <v>-0.01097739310774959</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.005412363096494523</v>
+        <v>-0.01731821464472858</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0111200608694498</v>
+        <v>0.01429632911585316</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.005427399097095963</v>
+        <v>0.01730673035626921</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.002997566423902657</v>
+        <v>-0.009978956559158262</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.01673818014287778</v>
+        <v>0.00452972219709479</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.004195027655801106</v>
+        <v>0.008552436534097461</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.004195027655801106</v>
+        <v>0.008552436534097461</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>-0.004195027655801106</v>
+        <v>0.008552436534097461</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.004186783079471322</v>
+        <v>-0.01440945168037806</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.004192730375709214</v>
+        <v>0.00484571952182878</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.004192730375709214</v>
+        <v>0.00484571952182878</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1446,55 +1442,55 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Saccharification</t>
+          <t>Stream-pure glycerine</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Reaction time [hr]</t>
+          <t>Price [USD/kg]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.0136689099547564</v>
+        <v>0.006492430147697206</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.009827577321103093</v>
+        <v>-0.01788848444901816</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>-0.002109005364360214</v>
+        <v>-0.01972850219714008</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02159705013619393</v>
+        <v>0.02023023623320945</v>
       </c>
       <c r="H15" t="n">
-        <v>0.002040708369628334</v>
+        <v>0.0197220076048803</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.009729030245161209</v>
+        <v>0.007472948170917926</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01799112011354024</v>
+        <v>0.009916780938667017</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01406483528259341</v>
+        <v>0.01729012600360504</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.01406483528259341</v>
+        <v>0.01729012600360504</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>-0.01406483528259341</v>
+        <v>0.01729012600360504</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.014063950066558</v>
+        <v>-0.01811839330073573</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.0140644900665796</v>
+        <v>0.01412893198915728</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0140644900665796</v>
+        <v>0.01412893198915728</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1513,55 +1509,55 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>cellulase</t>
+          <t>Saccharification</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Price [USD/kg]</t>
+          <t>Reaction time [hr]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01075729828629193</v>
+        <v>-0.008099008547960342</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0003126309245052369</v>
+        <v>0.002415336478141057</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>0.01179920130396805</v>
+        <v>0.01957329572693183</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01307729363204273</v>
+        <v>-0.02184455780178231</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.01178561951142478</v>
+        <v>-0.01958368158334726</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.003017124696684987</v>
+        <v>-0.02214510722180429</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.01453876988011651</v>
+        <v>0.004372053360750998</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03433117135724685</v>
+        <v>-0.000701991676079667</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03433117135724685</v>
+        <v>-0.000701991676079667</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>0.03433117135724685</v>
+        <v>-0.000701991676079667</v>
       </c>
       <c r="P16" t="n">
-        <v>0.03432783612511343</v>
+        <v>0.02353601604544063</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.03433089938923597</v>
+        <v>0.005367258646690345</v>
       </c>
       <c r="R16" t="n">
-        <v>0.03433089938923597</v>
+        <v>0.005367258646690345</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -1578,53 +1574,57 @@
       <c r="AE16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>cellulase</t>
+        </is>
+      </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Cellulase loading [wt. % cellulose]</t>
+          <t>Price [USD/kg]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01398000391920015</v>
+        <v>-0.01781802599272104</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02873018217320728</v>
+        <v>-0.003348582427386845</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>0.005981925071277001</v>
+        <v>0.01845409293016371</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.003918442784618797</v>
+        <v>-0.01955801291032052</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.005911380332455212</v>
+        <v>-0.018462599970504</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02930505170020206</v>
+        <v>-0.009725403173016126</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.01116499537690213</v>
+        <v>-0.03125532985970246</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.003000830424033216</v>
+        <v>-0.01047462886698515</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.003000830424033216</v>
+        <v>-0.01047462886698515</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>-0.003000830424033216</v>
+        <v>-0.01047462886698515</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.003001184280047371</v>
+        <v>0.01910616642824665</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.003002111640084465</v>
+        <v>-0.008751883934075357</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.003002111640084465</v>
+        <v>-0.008751883934075357</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -1641,57 +1641,53 @@
       <c r="AE17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Pretreatment reactor system</t>
-        </is>
-      </c>
+      <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Base cost [million USD]</t>
+          <t>Cellulase loading [wt. % cellulose]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01652900053316002</v>
+        <v>-0.01277508828700353</v>
       </c>
       <c r="D18" t="n">
-        <v>0.004774460542978422</v>
+        <v>-0.00614266729381155</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0.002715848364633934</v>
+        <v>-0.005444772505790899</v>
       </c>
       <c r="G18" t="n">
-        <v>0.006024345950446289</v>
+        <v>0.00404654924986197</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.002708579916343196</v>
+        <v>0.005446114681844586</v>
       </c>
       <c r="I18" t="n">
-        <v>0.004233849865353994</v>
+        <v>-0.0133872625514905</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.01990193702504037</v>
+        <v>-0.005808870118045192</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.01787957130718285</v>
+        <v>-0.01015456226218249</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.01787957130718285</v>
+        <v>-0.01015456226218249</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>-0.01787957130718285</v>
+        <v>-0.01015456226218249</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.01788252157930086</v>
+        <v>-0.008749585021983398</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.01787891601115664</v>
+        <v>-0.0134289324091573</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.01787891601115664</v>
+        <v>-0.0134289324091573</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -1710,55 +1706,55 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment and saccharification</t>
+          <t>Pretreatment reactor system</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Cane glucose yield [%]</t>
+          <t>Base cost [million USD]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.002945047605801904</v>
+        <v>0.0183533775981351</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003085432347417293</v>
+        <v>0.007079992588991581</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>0.009961971566478862</v>
+        <v>-0.01176593115863724</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01517551773485723</v>
+        <v>0.01178265848730634</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.009979181775167269</v>
+        <v>0.01176748463069938</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002038242225529689</v>
+        <v>0.01066521047460842</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.009420295417137072</v>
+        <v>-0.01133087866962412</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.006874429810977191</v>
+        <v>0.01257796437511858</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.006874429810977191</v>
+        <v>0.01257796437511858</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>-0.006874429810977191</v>
+        <v>0.01257796437511858</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.006882129011285159</v>
+        <v>-0.01084693089787723</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.006873350674934026</v>
+        <v>0.01063561664942466</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.006873350674934026</v>
+        <v>0.01063561664942466</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -1775,53 +1771,57 @@
       <c r="AE19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Pretreatment and saccharification</t>
+        </is>
+      </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Sorghum glucose yield [%]</t>
+          <t>Cane glucose yield [%]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.0141754050150162</v>
+        <v>-0.01489232075569283</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0005019740360789613</v>
+        <v>0.00308163169529067</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>0.002182366167294647</v>
+        <v>0.003766104726644189</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.00186224951279211</v>
+        <v>-0.003449738345989533</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.00217547951101918</v>
+        <v>-0.003765302934612117</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001036024553440982</v>
+        <v>0.00278225051129002</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003085129570384976</v>
+        <v>0.001360579729624661</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01545686961027478</v>
+        <v>-0.01775735130229405</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01545686961027478</v>
+        <v>-0.01775735130229405</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>0.01545686961027478</v>
+        <v>-0.01775735130229405</v>
       </c>
       <c r="P20" t="n">
-        <v>0.01545258282610331</v>
+        <v>-0.0007044067481762698</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01545623802624952</v>
+        <v>-0.01890912949236518</v>
       </c>
       <c r="R20" t="n">
-        <v>0.01545623802624952</v>
+        <v>-0.01890912949236518</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -1841,50 +1841,50 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Cane xylose yield [%]</t>
+          <t>Sorghum glucose yield [%]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.02366182539447301</v>
+        <v>-0.02353653703746147</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.002844156401766256</v>
+        <v>0.0006758371410119014</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>-0.00781790853671634</v>
+        <v>-0.001553023646120946</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01331993737312407</v>
+        <v>0.005450464346018573</v>
       </c>
       <c r="H21" t="n">
-        <v>0.007782412343296493</v>
+        <v>0.001562608382504335</v>
       </c>
       <c r="I21" t="n">
-        <v>9.552249982089998e-05</v>
+        <v>0.02578633101545324</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.002017125467082913</v>
+        <v>0.01997234596248121</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.01386388788255551</v>
+        <v>0.01292826886913075</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.01386388788255551</v>
+        <v>0.01292826886913075</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>-0.01386388788255551</v>
+        <v>0.01292826886913075</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.01385716365828655</v>
+        <v>-0.001763074534522981</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.01386353661854146</v>
+        <v>0.01149919409196776</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.01386353661854146</v>
+        <v>0.01149919409196776</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -1904,50 +1904,50 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Sorghum xylose yield [%]</t>
+          <t>Cane xylose yield [%]</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.03409355896374235</v>
+        <v>-0.0296745400669816</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01360946550437862</v>
+        <v>-0.0201197627441507</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>-0.01723582446543298</v>
+        <v>0.01297586307903452</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.01283217023124631</v>
+        <v>-0.01198163116726524</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0172887850755514</v>
+        <v>-0.01297788618311545</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01795447579017903</v>
+        <v>0.005958629230345169</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001374194117552867</v>
+        <v>-0.004085681476499933</v>
       </c>
       <c r="K22" t="n">
-        <v>0.006492440131697604</v>
+        <v>-0.0075199775167991</v>
       </c>
       <c r="L22" t="n">
-        <v>0.006492440131697604</v>
+        <v>-0.0075199775167991</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
-        <v>0.006492440131697604</v>
+        <v>-0.0075199775167991</v>
       </c>
       <c r="P22" t="n">
-        <v>0.006500370404014815</v>
+        <v>0.01332033845281354</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.00649455625978225</v>
+        <v>-0.004950854214034167</v>
       </c>
       <c r="R22" t="n">
-        <v>0.00649455625978225</v>
+        <v>-0.004950854214034167</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -1964,57 +1964,53 @@
       <c r="AE22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Cofermenation</t>
-        </is>
-      </c>
+      <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Glucose to ethanol yield [%]</t>
+          <t>Sorghum xylose yield [%]</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.0004493382899735315</v>
+        <v>0.001604314816172592</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.003054536282181451</v>
+        <v>0.01280708805401581</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>-0.01822552997702119</v>
+        <v>-0.004911696676467866</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.02062742631619378</v>
+        <v>0.005705197956207918</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01821622104864884</v>
+        <v>0.0049136325165453</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.0003873350554934022</v>
+        <v>0.003610946928437877</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.005943813750777254</v>
+        <v>0.02394588396820552</v>
       </c>
       <c r="K23" t="n">
-        <v>0.003118949404757976</v>
+        <v>0.00792803426912137</v>
       </c>
       <c r="L23" t="n">
-        <v>0.003118949404757976</v>
+        <v>0.00792803426912137</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>0.003118949404757976</v>
+        <v>0.00792803426912137</v>
       </c>
       <c r="P23" t="n">
-        <v>0.003107228476289138</v>
+        <v>-0.003612495216499808</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.003116945788677831</v>
+        <v>0.008088705155548204</v>
       </c>
       <c r="R23" t="n">
-        <v>0.003116945788677831</v>
+        <v>0.008088705155548204</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -2031,53 +2027,57 @@
       <c r="AE23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Cofermenation</t>
+        </is>
+      </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Xylose to ethanol yield [%]</t>
+          <t>Glucose to ethanol yield [%]</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.003523488812939552</v>
+        <v>-0.02897193888687755</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.002413117152524686</v>
+        <v>-0.0008482170651183393</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>0.01382188788087551</v>
+        <v>0.01366381936255277</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.01792190199288719</v>
+        <v>-0.01378691872747675</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.01384410420176417</v>
+        <v>-0.01366489821059593</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.006447042977881717</v>
+        <v>-0.0007342261733690468</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0002639762639318813</v>
+        <v>0.003112857780832596</v>
       </c>
       <c r="K24" t="n">
-        <v>0.007966253214650125</v>
+        <v>-0.01130872778034911</v>
       </c>
       <c r="L24" t="n">
-        <v>0.007966253214650125</v>
+        <v>-0.01130872778034911</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>0.007966253214650125</v>
+        <v>-0.01130872778034911</v>
       </c>
       <c r="P24" t="n">
-        <v>0.007962534558501381</v>
+        <v>0.01371009222840369</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.007965815838632633</v>
+        <v>-0.009185872687434905</v>
       </c>
       <c r="R24" t="n">
-        <v>0.007965815838632633</v>
+        <v>-0.009185872687434905</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2094,57 +2094,53 @@
       <c r="AE24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Cofermentation</t>
-        </is>
-      </c>
+      <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Titer [g/L]</t>
+          <t>Xylose to ethanol yield [%]</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.02202281176091247</v>
+        <v>-0.006790942159637685</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01544696836187873</v>
+        <v>-0.002505789013506176</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>-0.0001003973800158952</v>
+        <v>-0.02496018570240743</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.007685922671437729</v>
+        <v>0.02459509067980363</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0001228353649134146</v>
+        <v>0.02496722567068902</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01552019457280778</v>
+        <v>0.002810209552408382</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.009517524271934835</v>
+        <v>0.06390813543826766</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01588065989922639</v>
+        <v>0.0134202176248087</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01588065989922639</v>
+        <v>0.0134202176248087</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
-        <v>0.01588065989922639</v>
+        <v>0.0134202176248087</v>
       </c>
       <c r="P25" t="n">
-        <v>0.01588398044335921</v>
+        <v>-0.02565245277009811</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01588130962725239</v>
+        <v>0.007760446678417867</v>
       </c>
       <c r="R25" t="n">
-        <v>0.01588130962725239</v>
+        <v>0.007760446678417867</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2161,53 +2157,57 @@
       <c r="AE25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Cofermentation</t>
+        </is>
+      </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Productivity [g/L]</t>
+          <t>Titer [g/L]</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.003215428160617126</v>
+        <v>0.01885254920210197</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.01184227429769097</v>
+        <v>0.004145935653040697</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>0.0364560526262421</v>
+        <v>-0.007888697883547914</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.002682748942661645</v>
+        <v>0.007122574172902966</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.03650762958830518</v>
+        <v>0.007884208923368356</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.01984707343388293</v>
+        <v>-0.0043847225113889</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.01605154503690799</v>
+        <v>-0.01215343826749772</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00176858301474332</v>
+        <v>0.02239291039971641</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00176858301474332</v>
+        <v>0.02239291039971641</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>0.00176858301474332</v>
+        <v>0.02239291039971641</v>
       </c>
       <c r="P26" t="n">
-        <v>0.001772937478917499</v>
+        <v>-0.001388845111553804</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.001767468166698726</v>
+        <v>0.02268567028342681</v>
       </c>
       <c r="R26" t="n">
-        <v>0.001767468166698726</v>
+        <v>0.02268567028342681</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2224,57 +2224,53 @@
       <c r="AE26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>oilcane</t>
-        </is>
-      </c>
+      <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Cane PL content [% oil]</t>
+          <t>Productivity [g/L]</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.001545012637800505</v>
+        <v>0.001844944777797791</v>
       </c>
       <c r="D27" t="n">
-        <v>0.007680210739208429</v>
+        <v>0.003027128739034569</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>-0.001224724080988963</v>
+        <v>0.0145073525802941</v>
       </c>
       <c r="G27" t="n">
-        <v>0.003463491932336744</v>
+        <v>-0.01278909123156365</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001241321617652864</v>
+        <v>-0.01450057843602314</v>
       </c>
       <c r="I27" t="n">
-        <v>0.008571080982843237</v>
+        <v>0.01041399958455998</v>
       </c>
       <c r="J27" t="n">
-        <v>0.002774212446398408</v>
+        <v>-0.02636432352454191</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02712797110111884</v>
+        <v>-0.02384044069761763</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02712797110111884</v>
+        <v>-0.02384044069761763</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
-        <v>0.02712797110111884</v>
+        <v>-0.02384044069761763</v>
       </c>
       <c r="P27" t="n">
-        <v>0.02714764822190592</v>
+        <v>0.008520043636801743</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02712908038116321</v>
+        <v>-0.02396593660663746</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02712908038116321</v>
+        <v>-0.02396593660663746</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -2293,55 +2289,55 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>oilsorghum</t>
+          <t>oilcane</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Sorghum PL content [% oil]</t>
+          <t>Cane PL content [% oil]</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.007674377490975098</v>
+        <v>0.01300324487212979</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02252746592509864</v>
+        <v>-0.005960020694319057</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>-0.01371180736447229</v>
+        <v>-0.03357031660681266</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.01039149434307089</v>
+        <v>0.03576272696650907</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01375725328629013</v>
+        <v>0.03358085241523409</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02714291666971666</v>
+        <v>0.01763134688125387</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.02356659123012774</v>
+        <v>0.01842028809577707</v>
       </c>
       <c r="K28" t="n">
-        <v>0.001667368194694728</v>
+        <v>0.02237651945506078</v>
       </c>
       <c r="L28" t="n">
-        <v>0.001667368194694728</v>
+        <v>0.02237651945506078</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>0.001667368194694728</v>
+        <v>0.02237651945506078</v>
       </c>
       <c r="P28" t="n">
-        <v>0.001655944194237767</v>
+        <v>-0.0324448575857943</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.0016656950106278</v>
+        <v>0.0143158475486339</v>
       </c>
       <c r="R28" t="n">
-        <v>0.0016656950106278</v>
+        <v>0.0143158475486339</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -2360,55 +2356,55 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>oilcane</t>
+          <t>oilsorghum</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Cane FFA content [% oil]</t>
+          <t>Sorghum PL content [% oil]</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.00589253274770131</v>
+        <v>0.008402475120099003</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01502535189701407</v>
+        <v>-0.007245346321022329</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>-0.009579881375195253</v>
+        <v>-0.002854940370197614</v>
       </c>
       <c r="G29" t="n">
-        <v>0.002797867207601502</v>
+        <v>0.00053036450121458</v>
       </c>
       <c r="H29" t="n">
-        <v>0.009623474880938994</v>
+        <v>0.002849489393979575</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01756315711852628</v>
+        <v>-0.02208299617931984</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01279555301050782</v>
+        <v>0.003740770715296278</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0196568376182735</v>
+        <v>0.01204617398584696</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0196568376182735</v>
+        <v>0.01204617398584696</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>-0.0196568376182735</v>
+        <v>0.01204617398584696</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.01965423486616939</v>
+        <v>0.002176907799076311</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.01965646600225864</v>
+        <v>0.01568267880330715</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.01965646600225864</v>
+        <v>0.01568267880330715</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -2427,55 +2423,55 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>oilsorghum</t>
+          <t>oilcane</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Sorghum FFA content [% oil]</t>
+          <t>Cane FFA content [% oil]</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.01598336934333477</v>
+        <v>-0.01866795962671838</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.03485036933001476</v>
+        <v>0.02100854837003552</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>0.002960880118435204</v>
+        <v>-0.005211400144456006</v>
       </c>
       <c r="G30" t="n">
-        <v>5.391275428393133e-05</v>
+        <v>0.004784161823366472</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.003049456249978249</v>
+        <v>0.005218081744723269</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.03701771648870866</v>
+        <v>-0.001207541520301661</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.002081952356001357</v>
+        <v>0.004283777191330419</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.02816915459876618</v>
+        <v>0.02748280746731229</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.02816915459876618</v>
+        <v>0.02748280746731229</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>-0.02816915459876618</v>
+        <v>0.02748280746731229</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.02817218368688734</v>
+        <v>0.003914810076592403</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.02816784487071379</v>
+        <v>0.02649483091579323</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.02816784487071379</v>
+        <v>0.02649483091579323</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -2494,55 +2490,55 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>oilcane</t>
+          <t>oilsorghum</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Cane oil content [dry wt. %]</t>
+          <t>Sorghum FFA content [% oil]</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.006952827350113093</v>
+        <v>-0.001811846664473866</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.02383454149738166</v>
+        <v>0.0259894500499991</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>0.00230284674811387</v>
+        <v>0.001101836300073452</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01056412996254546</v>
+        <v>0.001607432608297304</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.00237980601519224</v>
+        <v>-0.001105536140221445</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.02430113876404555</v>
+        <v>0.03045858381034335</v>
       </c>
       <c r="J31" t="n">
-        <v>0.01802576952773132</v>
+        <v>-0.02298753961276626</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.000698452827938113</v>
+        <v>-0.008239114121564564</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.000698452827938113</v>
+        <v>-0.008239114121564564</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>-0.000698452827938113</v>
+        <v>-0.008239114121564564</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.0006978160599126422</v>
+        <v>-0.003376226055049042</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.0006983681559347261</v>
+        <v>-0.01088948846757954</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.0006983681559347261</v>
+        <v>-0.01088948846757954</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -2561,55 +2557,55 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>oilsorghum</t>
+          <t>oilcane</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Relative sorghum oil content [dry wt. %]</t>
+          <t>Cane oil content [dry wt. %]</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.01636200123048005</v>
+        <v>-0.0005236421009456839</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.003733192661327706</v>
+        <v>0.02878749662620189</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>0.01274513321380533</v>
+        <v>-0.009143139725725587</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.03026843770658894</v>
+        <v>0.009361754006470159</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.01276819798272792</v>
+        <v>0.009137253101490123</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.00692267653290706</v>
+        <v>0.001272022898880916</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0003208240509650233</v>
+        <v>0.003779822968011761</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0025189775087591</v>
+        <v>0.005422170072886802</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0025189775087591</v>
+        <v>0.005422170072886802</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="n">
-        <v>0.0025189775087591</v>
+        <v>0.005422170072886802</v>
       </c>
       <c r="P32" t="n">
-        <v>0.002518625092745004</v>
+        <v>-0.00938102379924095</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.002518073668722946</v>
+        <v>0.003861208762448349</v>
       </c>
       <c r="R32" t="n">
-        <v>0.002518073668722946</v>
+        <v>0.003861208762448349</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -2628,55 +2624,55 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>biorefinery</t>
+          <t>oilsorghum</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>TAG to FFA conversion [% oil]</t>
+          <t>Relative sorghum oil content [dry wt. %]</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.01715851172634046</v>
+        <v>-0.004858627874345114</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01683506400140256</v>
+        <v>0.01020689864380091</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>-0.01379905677596227</v>
+        <v>0.007127646141105845</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02662560730285095</v>
+        <v>-0.005360244694409787</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01383685524147421</v>
+        <v>-0.007127873373114934</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01909827954793118</v>
+        <v>0.01733944427757777</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.02100386744002722</v>
+        <v>0.008600679060017002</v>
       </c>
       <c r="K33" t="n">
-        <v>0.001639364321574573</v>
+        <v>-0.01065416538616661</v>
       </c>
       <c r="L33" t="n">
-        <v>0.001639364321574573</v>
+        <v>-0.01065416538616661</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="n">
-        <v>0.001639364321574573</v>
+        <v>-0.01065416538616661</v>
       </c>
       <c r="P33" t="n">
-        <v>0.001650623586024943</v>
+        <v>0.004064209218568368</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.001638915233556609</v>
+        <v>-0.01123124339324973</v>
       </c>
       <c r="R33" t="n">
-        <v>0.001638915233556609</v>
+        <v>-0.01123124339324973</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -2695,55 +2691,55 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Stream-sugarcane</t>
+          <t>biorefinery</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>GWP [kg*CO2-eq/kg]</t>
+          <t>TAG to FFA conversion [% oil]</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.009351921206076847</v>
+        <v>0.006894877139795085</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.01617811696712467</v>
+        <v>0.01805328243078374</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>-0.004008662464346498</v>
+        <v>-0.01992752422110097</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.001349632298006397</v>
+        <v>0.02181354663254186</v>
       </c>
       <c r="H34" t="n">
-        <v>0.003972973022918921</v>
+        <v>0.01993699980547999</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.0160358949774358</v>
+        <v>0.01219888013595521</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.01728817658704401</v>
+        <v>0.02470494038918798</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.009866475754659029</v>
+        <v>0.02506715409068616</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.009866475754659029</v>
+        <v>0.02506715409068616</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>-0.009866475754659029</v>
+        <v>0.02506715409068616</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.009868109770724389</v>
+        <v>-0.0167404224936169</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.009866540362661614</v>
+        <v>0.02234376742175069</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.009866540362661614</v>
+        <v>0.02234376742175069</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -2762,7 +2758,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Stream-methanol</t>
+          <t>Stream-sugarcane</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
@@ -2771,46 +2767,46 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01299776672791067</v>
+        <v>-0.01956440324657613</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01409742545989702</v>
+        <v>-0.0006415427267919262</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>0.00260319725612789</v>
+        <v>0.01186163097046524</v>
       </c>
       <c r="G35" t="n">
-        <v>0.00125619566736742</v>
+        <v>-0.01154737543789502</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.002598699559947982</v>
+        <v>-0.01186521551460862</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01409657566786303</v>
+        <v>0.0001738106949524278</v>
       </c>
       <c r="J35" t="n">
-        <v>0.006656887628326019</v>
+        <v>0.004605570495081135</v>
       </c>
       <c r="K35" t="n">
-        <v>0.01288787187551487</v>
+        <v>-0.01641455096058203</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01288787187551487</v>
+        <v>-0.01641455096058203</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>0.01288787187551487</v>
+        <v>-0.01641455096058203</v>
       </c>
       <c r="P35" t="n">
-        <v>0.01288782589151303</v>
+        <v>0.008582352823294111</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01288757677150307</v>
+        <v>-0.01514148386965935</v>
       </c>
       <c r="R35" t="n">
-        <v>0.01288757677150307</v>
+        <v>-0.01514148386965935</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -2829,7 +2825,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Stream-pure glycerine</t>
+          <t>Stream-methanol</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -2838,46 +2834,46 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.004605885880235435</v>
+        <v>-0.02404577846583113</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.01006508315460332</v>
+        <v>0.02261849519974121</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>0.01384931719397269</v>
+        <v>0.00520999451239978</v>
       </c>
       <c r="G36" t="n">
-        <v>0.004636316666257512</v>
+        <v>-0.004194287399771496</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.01387379325895173</v>
+        <v>-0.005203919248156769</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.01343607615344304</v>
+        <v>0.009270731218829247</v>
       </c>
       <c r="J36" t="n">
-        <v>0.009373038247763414</v>
+        <v>-0.009338916878873357</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01031599087663963</v>
+        <v>-0.003475524235020969</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01031599087663963</v>
+        <v>-0.003475524235020969</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>0.01031599087663963</v>
+        <v>-0.003475524235020969</v>
       </c>
       <c r="P36" t="n">
-        <v>0.01032898322915933</v>
+        <v>0.004232596393303855</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.01031668870066755</v>
+        <v>-0.001805258280210331</v>
       </c>
       <c r="R36" t="n">
-        <v>0.01031668870066755</v>
+        <v>-0.001805258280210331</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -2896,7 +2892,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Stream-cellulase</t>
+          <t>Stream-pure glycerine</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -2905,46 +2901,46 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.01512009017280361</v>
+        <v>0.004770174334806972</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01336814357472574</v>
+        <v>0.002393374522867996</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>0.005984730383389214</v>
+        <v>0.001813612104544484</v>
       </c>
       <c r="G37" t="n">
-        <v>0.003564365592484008</v>
+        <v>-0.0003211260608450424</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.005943335181733406</v>
+        <v>-0.001816732104669284</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01261829551273182</v>
+        <v>0.008874775074991001</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.01368536349532971</v>
+        <v>0.003388931354173546</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.006018210576728423</v>
+        <v>-0.02090643328425733</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.006018210576728423</v>
+        <v>-0.02090643328425733</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
-        <v>-0.006018210576728423</v>
+        <v>-0.02090643328425733</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.006012491664499665</v>
+        <v>-0.006476295811051831</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.006017668944706758</v>
+        <v>-0.02316646038265841</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.006017668944706758</v>
+        <v>-0.02316646038265841</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -2963,7 +2959,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Stream-natural gas</t>
+          <t>Stream-cellulase</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -2972,46 +2968,46 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.009587140607485622</v>
+        <v>0.006674090762963629</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.02239686339187453</v>
+        <v>0.02914507534073856</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>-0.01842747049709882</v>
+        <v>-0.006361503326460132</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.01116464990267091</v>
+        <v>0.002268626682745067</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01837995347119814</v>
+        <v>0.006363554942542197</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.01922570716902828</v>
+        <v>-0.03258740549549621</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01846806149612711</v>
+        <v>0.00795265971424412</v>
       </c>
       <c r="K38" t="n">
-        <v>0.9255233631009344</v>
+        <v>0.02318603574344143</v>
       </c>
       <c r="L38" t="n">
-        <v>0.9255233631009344</v>
+        <v>0.02318603574344143</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="n">
-        <v>0.9255233631009344</v>
+        <v>0.02318603574344143</v>
       </c>
       <c r="P38" t="n">
-        <v>0.9255003692760146</v>
+        <v>0.001713053732522149</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.9255231248289248</v>
+        <v>0.02459288143171526</v>
       </c>
       <c r="R38" t="n">
-        <v>0.9255231248289248</v>
+        <v>0.02459288143171526</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -3027,18 +3023,85 @@
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
     </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Stream-natural gas</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>GWP [kg*CO2-eq/kg]</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.002381922527276901</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.003368634356218488</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>0.01920957580838303</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.01998973951958958</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-0.0192121776964871</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-0.01102375983295039</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.002855401304805835</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8050415877536634</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.8050415877536634</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="n">
+        <v>0.8050415877536634</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.2560314341452574</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.9238341845693672</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.9238341845693672</v>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
@@ -734,46 +734,46 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.00455869650234786</v>
+        <v>-0.002867345682693827</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.009840309936359815</v>
+        <v>0.003529454733178189</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.009413981848559273</v>
+        <v>0.009394675575787022</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.008327610669104426</v>
+        <v>-0.008143510309740412</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.009412234840489392</v>
+        <v>-0.009412166680486665</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006048632593945303</v>
+        <v>0.001701209156048366</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007275090044703107</v>
+        <v>-0.004769384828785477</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.02875127347005094</v>
+        <v>-0.0292900627396025</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.02875127347005094</v>
+        <v>-0.0292900627396025</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>-0.02875127347005094</v>
+        <v>-0.0292900627396025</v>
       </c>
       <c r="P4" t="n">
-        <v>0.001529716285188651</v>
+        <v>0.002240958521638341</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.02875942915037717</v>
+        <v>-0.02915872715034908</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.02875942915037717</v>
+        <v>-0.02915872715034908</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -797,46 +797,46 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01370670237226809</v>
+        <v>0.01690838189233528</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01439167986056908</v>
+        <v>0.007570266830810672</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.002469720962788838</v>
+        <v>0.002476769955070798</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.00416600800664032</v>
+        <v>-0.003406964776278591</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.002479475139179005</v>
+        <v>-0.002480065059202602</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01407402229096089</v>
+        <v>-0.0009025110121004404</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.006934324004485252</v>
+        <v>-0.0007143106211812342</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005419643832785753</v>
+        <v>0.005041458729658349</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005419643832785753</v>
+        <v>0.005041458729658349</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>0.005419643832785753</v>
+        <v>0.005041458729658349</v>
       </c>
       <c r="P5" t="n">
-        <v>0.006025004881000194</v>
+        <v>0.005185218735408749</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002703707244148289</v>
+        <v>0.002011566896462675</v>
       </c>
       <c r="R5" t="n">
-        <v>0.002703707244148289</v>
+        <v>0.002011566896462675</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -860,46 +860,46 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1487363414374536</v>
+        <v>0.1565746731109869</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001896094211320026</v>
+        <v>0.0108233524329341</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0.4836361949294477</v>
+        <v>0.4835460584138423</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5876205544168221</v>
+        <v>-0.5923729455189177</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.483831529113261</v>
+        <v>-0.4838320297532812</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.9002151304406051</v>
+        <v>-0.480065953346638</v>
       </c>
       <c r="J6" t="n">
-        <v>0.009869215150490713</v>
+        <v>-0.002296651551137881</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.2046620610504824</v>
+        <v>-0.193387351735494</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.2046620610504824</v>
+        <v>-0.193387351735494</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>-0.2046620610504824</v>
+        <v>-0.193387351735494</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5810223699928947</v>
+        <v>0.5856935328037413</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.06625559228222369</v>
+        <v>-0.05112476210899048</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.06625559228222369</v>
+        <v>-0.05112476210899048</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -923,46 +923,46 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.05633109642924385</v>
+        <v>0.05915428095817123</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.03095055295051334</v>
+        <v>-0.004311911308476452</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>-0.8620742956029718</v>
+        <v>-0.8621271914130876</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7914452433378097</v>
+        <v>0.7625842073993682</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8619588656783546</v>
+        <v>0.86195850327834</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4311920254716809</v>
+        <v>-0.2453906818796272</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00642634253396447</v>
+        <v>0.001386857600423184</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5206253923130157</v>
+        <v>0.5231759410550376</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5206253923130157</v>
+        <v>0.5231759410550376</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>0.5206253923130157</v>
+        <v>0.5231759410550376</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.7586230537049221</v>
+        <v>-0.7280561251542449</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3506384134175365</v>
+        <v>0.3527136216925448</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3506384134175365</v>
+        <v>0.3527136216925448</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -986,46 +986,46 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01875057444602297</v>
+        <v>0.2069770640870825</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.007345895825503695</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>0.009669890210795607</v>
+        <v>0.01013843608553744</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0101147276365891</v>
+        <v>0.1804449849777994</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.009664427906577113</v>
+        <v>-0.009663112514524499</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.006342542845701713</v>
+        <v>0.8269250488850018</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007140040578890544</v>
+        <v>-0.005824766393088891</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0007401537896061515</v>
+        <v>-0.1278699480267979</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007401537896061515</v>
+        <v>-0.1278699480267979</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>0.0007401537896061515</v>
+        <v>-0.1278699480267979</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01166771355470854</v>
+        <v>-0.1908974290118971</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.00535571800622872</v>
+        <v>-0.1819350547014022</v>
       </c>
       <c r="R8" t="n">
-        <v>0.00535571800622872</v>
+        <v>-0.1819350547014022</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1053,46 +1053,46 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9617280940531236</v>
+        <v>0.9350294234491768</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01038643634528957</v>
+        <v>0.01752971628518865</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>0.01033909874956395</v>
+        <v>0.01034026639761066</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01122178240087129</v>
+        <v>-0.007206507744260309</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.01033955647758226</v>
+        <v>-0.01034012662160506</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0126769676430787</v>
+        <v>0.0106659776106391</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01245303925586212</v>
+        <v>-0.01868878520298905</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01112566393302656</v>
+        <v>-0.01296045152641806</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01112566393302656</v>
+        <v>-0.01296045152641806</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>-0.01112566393302656</v>
+        <v>-0.01296045152641806</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0104412824976513</v>
+        <v>0.005843890121755604</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.008498942067957682</v>
+        <v>-0.01126336307453452</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.008498942067957682</v>
+        <v>-0.01126336307453452</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1120,46 +1120,46 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.006542922693716906</v>
+        <v>0.008514177076567082</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01043655654900146</v>
+        <v>0.003197859583914383</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-0.009091419435656776</v>
+        <v>-0.009100080172003207</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004973323014932919</v>
+        <v>0.004607541784301671</v>
       </c>
       <c r="H10" t="n">
-        <v>0.009089717163588687</v>
+        <v>0.009089622603584903</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.02645844182633766</v>
+        <v>-0.0131429300617172</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.02674255784247139</v>
+        <v>0.01518555225705633</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01829610562784422</v>
+        <v>0.01846837437073497</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01829610562784422</v>
+        <v>0.01846837437073497</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>0.01829610562784422</v>
+        <v>0.01846837437073497</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.001436828697473148</v>
+        <v>-0.001251681842067273</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01835046803001872</v>
+        <v>0.01820652831226113</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01835046803001872</v>
+        <v>0.01820652831226113</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1187,46 +1187,46 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01151115722844629</v>
+        <v>0.01314784391791375</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.001351720007036558</v>
+        <v>0.007627171025086841</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>-0.0100650026106001</v>
+        <v>-0.01005934062637362</v>
       </c>
       <c r="G11" t="n">
-        <v>0.009808143464325738</v>
+        <v>0.01041223731248949</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01006456629058265</v>
+        <v>0.01006528101061124</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0005940261357610453</v>
+        <v>0.008499888051995521</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.007650415421666323</v>
+        <v>0.00191761221569066</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01059451568778062</v>
+        <v>0.009814895144595803</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01059451568778062</v>
+        <v>0.009814895144595803</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>0.01059451568778062</v>
+        <v>0.009814895144595803</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.009188049679521986</v>
+        <v>-0.009373033526921339</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.008492279091691162</v>
+        <v>0.007734296661371865</v>
       </c>
       <c r="R11" t="n">
-        <v>0.008492279091691162</v>
+        <v>0.007734296661371865</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1254,46 +1254,46 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0221067150922686</v>
+        <v>0.02066681036267241</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01828629226142375</v>
+        <v>-0.004942293317691732</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>-0.009725549381021974</v>
+        <v>-0.009725749925029996</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01035269599810784</v>
+        <v>0.008853708162148324</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00972573629302945</v>
+        <v>0.009725656901026275</v>
       </c>
       <c r="I12" t="n">
-        <v>0.004327602989104119</v>
+        <v>-0.00234686850987474</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0005484330828580872</v>
+        <v>0.008284717122887969</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.008338437741537509</v>
+        <v>-0.008314682444587296</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.008338437741537509</v>
+        <v>-0.008314682444587296</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>-0.008338437741537509</v>
+        <v>-0.008314682444587296</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01520483052819322</v>
+        <v>-0.01337889807115592</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.01117051619082064</v>
+        <v>-0.01066610529064421</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.01117051619082064</v>
+        <v>-0.01066610529064421</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -1317,46 +1317,46 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.2152872041954881</v>
+        <v>-0.2325251803090072</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00595177030063534</v>
+        <v>-0.002908193588327743</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>-0.009348266965930677</v>
+        <v>-0.009365962166638486</v>
       </c>
       <c r="G13" t="n">
-        <v>0.008497740243909608</v>
+        <v>0.007233574561342982</v>
       </c>
       <c r="H13" t="n">
-        <v>0.009347750965910038</v>
+        <v>0.009348519445940775</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.003146074109842964</v>
+        <v>-0.003529236621169464</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01737694391762558</v>
+        <v>-0.006930229769130327</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00526598401863936</v>
+        <v>0.0062260800570432</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00526598401863936</v>
+        <v>0.0062260800570432</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>0.00526598401863936</v>
+        <v>0.0062260800570432</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.008783040447321616</v>
+        <v>-0.007252537154101486</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.003822065144882605</v>
+        <v>0.005121948300877931</v>
       </c>
       <c r="R13" t="n">
-        <v>0.003822065144882605</v>
+        <v>0.005121948300877931</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1384,46 +1384,46 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.002826110609044424</v>
+        <v>-0.009356062550242501</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01097739310774959</v>
+        <v>-0.03053229702929188</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>-0.01731821464472858</v>
+        <v>-0.01733349160533966</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01429632911585316</v>
+        <v>0.008532502037300081</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01730673035626921</v>
+        <v>0.01730623768424951</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.009978956559158262</v>
+        <v>-0.0310919424916777</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00452972219709479</v>
+        <v>0.01105134180987457</v>
       </c>
       <c r="K14" t="n">
-        <v>0.008552436534097461</v>
+        <v>0.01294242166969687</v>
       </c>
       <c r="L14" t="n">
-        <v>0.008552436534097461</v>
+        <v>0.01294242166969687</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>0.008552436534097461</v>
+        <v>0.01294242166969687</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.01440945168037806</v>
+        <v>-0.008414263056570521</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.00484571952182878</v>
+        <v>0.01112507343700294</v>
       </c>
       <c r="R14" t="n">
-        <v>0.00484571952182878</v>
+        <v>0.01112507343700294</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1451,46 +1451,46 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.006492430147697206</v>
+        <v>0.004184629511385179</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.01788848444901816</v>
+        <v>0.002746113805844552</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>-0.01972850219714008</v>
+        <v>-0.01972374136494965</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02023023623320945</v>
+        <v>0.02106773729070949</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0197220076048803</v>
+        <v>0.01972250805290032</v>
       </c>
       <c r="I15" t="n">
-        <v>0.007472948170917926</v>
+        <v>0.005792163687686547</v>
       </c>
       <c r="J15" t="n">
-        <v>0.009916780938667017</v>
+        <v>-0.01742032193834672</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01729012600360504</v>
+        <v>0.0167957775358311</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01729012600360504</v>
+        <v>0.0167957775358311</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>0.01729012600360504</v>
+        <v>0.0167957775358311</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.01811839330073573</v>
+        <v>-0.01948162186726487</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01412893198915728</v>
+        <v>0.01309418548376742</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01412893198915728</v>
+        <v>0.01309418548376742</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1518,46 +1518,46 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.008099008547960342</v>
+        <v>-0.00937193029487721</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002415336478141057</v>
+        <v>-0.004229653321186132</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>0.01957329572693183</v>
+        <v>0.01957980030319201</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02184455780178231</v>
+        <v>-0.02089527625981105</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.01958368158334726</v>
+        <v>-0.01958457159938286</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.02214510722180429</v>
+        <v>-0.0137103599724144</v>
       </c>
       <c r="J16" t="n">
-        <v>0.004372053360750998</v>
+        <v>0.009870982344883769</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.000701991676079667</v>
+        <v>-8.053795522151819e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.000701991676079667</v>
+        <v>-8.053795522151819e-05</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>-0.000701991676079667</v>
+        <v>-8.053795522151819e-05</v>
       </c>
       <c r="P16" t="n">
-        <v>0.02353601604544063</v>
+        <v>0.02283567115342684</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.005367258646690345</v>
+        <v>0.006763503822540152</v>
       </c>
       <c r="R16" t="n">
-        <v>0.005367258646690345</v>
+        <v>0.006763503822540152</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -1585,46 +1585,46 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.01781802599272104</v>
+        <v>-0.015851600026064</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.003348582427386845</v>
+        <v>0.001087392523495701</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>0.01845409293016371</v>
+        <v>0.01845313849812554</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01955801291032052</v>
+        <v>-0.01877110894284436</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.018462599970504</v>
+        <v>-0.01846325181053007</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.009725403173016126</v>
+        <v>-0.005642227617689104</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.03125532985970246</v>
+        <v>0.004131524280470719</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.01047462886698515</v>
+        <v>-0.009634415905376635</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.01047462886698515</v>
+        <v>-0.009634415905376635</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>-0.01047462886698515</v>
+        <v>-0.009634415905376635</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01910616642824665</v>
+        <v>0.01793736801349472</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.008751883934075357</v>
+        <v>-0.007978117087124682</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.008751883934075357</v>
+        <v>-0.007978117087124682</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -1648,46 +1648,46 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01277508828700353</v>
+        <v>-0.01172589723703589</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.00614266729381155</v>
+        <v>1.123824044952962e-05</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>-0.005444772505790899</v>
+        <v>-0.00544066476162659</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00404654924986197</v>
+        <v>0.00432858401314336</v>
       </c>
       <c r="H18" t="n">
-        <v>0.005446114681844586</v>
+        <v>0.00544636975385479</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0133872625514905</v>
+        <v>-0.008399940527997621</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.005808870118045192</v>
+        <v>0.01437066096572323</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.01015456226218249</v>
+        <v>-0.01031400156456006</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.01015456226218249</v>
+        <v>-0.01031400156456006</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>-0.01015456226218249</v>
+        <v>-0.01031400156456006</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.008749585021983398</v>
+        <v>-0.008569851894794075</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.0134289324091573</v>
+        <v>-0.013108525100341</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.0134289324091573</v>
+        <v>-0.013108525100341</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -1715,46 +1715,46 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0183533775981351</v>
+        <v>0.01700937994437519</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007079992588991581</v>
+        <v>0.005544996989799878</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>-0.01176593115863724</v>
+        <v>-0.01176593634263745</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01178265848730634</v>
+        <v>0.01123963148958526</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01176748463069938</v>
+        <v>0.01176786834271473</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01066521047460842</v>
+        <v>0.01164675166587007</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.01133087866962412</v>
+        <v>-0.003496438216328637</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01257796437511858</v>
+        <v>0.01158095211123808</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01257796437511858</v>
+        <v>0.01158095211123808</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>0.01257796437511858</v>
+        <v>0.01158095211123808</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.01084693089787723</v>
+        <v>-0.01031552105262084</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01063561664942466</v>
+        <v>0.009431937977277517</v>
       </c>
       <c r="R19" t="n">
-        <v>0.01063561664942466</v>
+        <v>0.009431937977277517</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -1782,46 +1782,46 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01489232075569283</v>
+        <v>-0.01340258904810356</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00308163169529067</v>
+        <v>-0.0007818678072747121</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>0.003766104726644189</v>
+        <v>0.003770449398817976</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.003449738345989533</v>
+        <v>-0.00393004450920178</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.003765302934612117</v>
+        <v>-0.003765238038609521</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00278225051129002</v>
+        <v>0.001506590172263607</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001360579729624661</v>
+        <v>-0.0001169863470151167</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01775735130229405</v>
+        <v>-0.01712878628515145</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01775735130229405</v>
+        <v>-0.01712878628515145</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>-0.01775735130229405</v>
+        <v>-0.01712878628515145</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.0007044067481762698</v>
+        <v>4.579737783189511e-05</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.01890912949236518</v>
+        <v>-0.01823207660128306</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.01890912949236518</v>
+        <v>-0.01823207660128306</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -1845,46 +1845,46 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.02353653703746147</v>
+        <v>-0.0241619101504764</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0006758371410119014</v>
+        <v>0.002703635724145429</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>-0.001553023646120946</v>
+        <v>-0.001543582237743289</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005450464346018573</v>
+        <v>0.009353220950128837</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001562608382504335</v>
+        <v>0.001562890718515629</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02578633101545324</v>
+        <v>0.01560570667222826</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01997234596248121</v>
+        <v>-0.01012885636618207</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01292826886913075</v>
+        <v>0.01154722654188906</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01292826886913075</v>
+        <v>0.01154722654188906</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>0.01292826886913075</v>
+        <v>0.01154722654188906</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.001763074534522981</v>
+        <v>-0.005515991932639677</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01149919409196776</v>
+        <v>0.01045650406626016</v>
       </c>
       <c r="R21" t="n">
-        <v>0.01149919409196776</v>
+        <v>0.01045650406626016</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -1908,46 +1908,46 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.0296745400669816</v>
+        <v>-0.03082314286492571</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0201197627441507</v>
+        <v>-0.007685123731404949</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.01297586307903452</v>
+        <v>0.0129747449669898</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.01198163116726524</v>
+        <v>-0.01461007901640316</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.01297788618311545</v>
+        <v>-0.01297836416713456</v>
       </c>
       <c r="I22" t="n">
-        <v>0.005958629230345169</v>
+        <v>-0.004771746526869861</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.004085681476499933</v>
+        <v>-0.002300422932465865</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0075199775167991</v>
+        <v>-0.007497385931895436</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0075199775167991</v>
+        <v>-0.007497385931895436</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
-        <v>-0.0075199775167991</v>
+        <v>-0.007497385931895436</v>
       </c>
       <c r="P22" t="n">
-        <v>0.01332033845281354</v>
+        <v>0.01661877234475089</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.004950854214034167</v>
+        <v>-0.004887147555485901</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.004950854214034167</v>
+        <v>-0.004887147555485901</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -1971,46 +1971,46 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.001604314816172592</v>
+        <v>0.001134016269360651</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01280708805401581</v>
+        <v>-0.001372140150885606</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>-0.004911696676467866</v>
+        <v>-0.004930477061219082</v>
       </c>
       <c r="G23" t="n">
-        <v>0.005705197956207918</v>
+        <v>0.006344651581786063</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0049136325165453</v>
+        <v>0.004912693348507733</v>
       </c>
       <c r="I23" t="n">
-        <v>0.003610946928437877</v>
+        <v>0.001827767881110715</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02394588396820552</v>
+        <v>-0.007562917958960601</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00792803426912137</v>
+        <v>0.007921252156850085</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00792803426912137</v>
+        <v>0.007921252156850085</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>0.00792803426912137</v>
+        <v>0.007921252156850085</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.003612495216499808</v>
+        <v>-0.003772162806886512</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.008088705155548204</v>
+        <v>0.008001772064070881</v>
       </c>
       <c r="R23" t="n">
-        <v>0.008088705155548204</v>
+        <v>0.008001772064070881</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -2038,46 +2038,46 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.02897193888687755</v>
+        <v>-0.02522653732906149</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0008482170651183393</v>
+        <v>0.01651558885262355</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>0.01366381936255277</v>
+        <v>0.0136662874266515</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.01378691872747675</v>
+        <v>-0.008668567066742683</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.01366489821059593</v>
+        <v>-0.0136652375706095</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.0007342261733690468</v>
+        <v>0.01587212127488485</v>
       </c>
       <c r="J24" t="n">
-        <v>0.003112857780832596</v>
+        <v>0.01232673638642706</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.01130872778034911</v>
+        <v>-0.01251660318866413</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.01130872778034911</v>
+        <v>-0.01251660318866413</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>-0.01130872778034911</v>
+        <v>-0.01251660318866413</v>
       </c>
       <c r="P24" t="n">
-        <v>0.01371009222840369</v>
+        <v>0.007723754420950175</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.009185872687434905</v>
+        <v>-0.01134002694960108</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.009185872687434905</v>
+        <v>-0.01134002694960108</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2101,46 +2101,46 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.006790942159637685</v>
+        <v>-0.008408747088349882</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.002505789013506176</v>
+        <v>-0.02022354388094175</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>-0.02496018570240743</v>
+        <v>-0.02497905287116211</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02459509067980363</v>
+        <v>0.02108599111543964</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02496722567068902</v>
+        <v>0.02496693479067739</v>
       </c>
       <c r="I25" t="n">
-        <v>0.002810209552408382</v>
+        <v>-0.01676595215863808</v>
       </c>
       <c r="J25" t="n">
-        <v>0.06390813543826766</v>
+        <v>0.01606106726660021</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0134202176248087</v>
+        <v>0.01588348796333952</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0134202176248087</v>
+        <v>0.01588348796333952</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
-        <v>0.0134202176248087</v>
+        <v>0.01588348796333952</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.02565245277009811</v>
+        <v>-0.02213447272537891</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.007760446678417867</v>
+        <v>0.01121737600069504</v>
       </c>
       <c r="R25" t="n">
-        <v>0.007760446678417867</v>
+        <v>0.01121737600069504</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2168,46 +2168,46 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01885254920210197</v>
+        <v>0.01531081942843277</v>
       </c>
       <c r="D26" t="n">
-        <v>0.004145935653040697</v>
+        <v>-0.01490230658009226</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>-0.007888697883547914</v>
+        <v>-0.00789269724370789</v>
       </c>
       <c r="G26" t="n">
-        <v>0.007122574172902966</v>
+        <v>0.00226317225052689</v>
       </c>
       <c r="H26" t="n">
-        <v>0.007884208923368356</v>
+        <v>0.007883724123348965</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0043847225113889</v>
+        <v>-0.01460019370400775</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.01215343826749772</v>
+        <v>0.0140515198870537</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02239291039971641</v>
+        <v>0.02491814720472588</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02239291039971641</v>
+        <v>0.02491814720472588</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>0.02239291039971641</v>
+        <v>0.02491814720472588</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.001388845111553804</v>
+        <v>0.003978916191156647</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.02268567028342681</v>
+        <v>0.02610133064405322</v>
       </c>
       <c r="R26" t="n">
-        <v>0.02268567028342681</v>
+        <v>0.02610133064405322</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2231,46 +2231,46 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.001844944777797791</v>
+        <v>0.006857997490319899</v>
       </c>
       <c r="D27" t="n">
-        <v>0.003027128739034569</v>
+        <v>0.01960177316807092</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.0145073525802941</v>
+        <v>0.01453170211726808</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.01278909123156365</v>
+        <v>-0.008338497357539892</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.01450057843602314</v>
+        <v>-0.01450023619600944</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01041399958455998</v>
+        <v>0.02050996546039862</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.02636432352454191</v>
+        <v>0.001561328529771026</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.02384044069761763</v>
+        <v>-0.02642127724885109</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.02384044069761763</v>
+        <v>-0.02642127724885109</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
-        <v>-0.02384044069761763</v>
+        <v>-0.02642127724885109</v>
       </c>
       <c r="P27" t="n">
-        <v>0.008520043636801743</v>
+        <v>0.003740011925600477</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.02396593660663746</v>
+        <v>-0.02823094989723799</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.02396593660663746</v>
+        <v>-0.02823094989723799</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -2298,46 +2298,46 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.01300324487212979</v>
+        <v>0.01612685363707414</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.005960020694319057</v>
+        <v>0.01176916271076651</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>-0.03357031660681266</v>
+        <v>-0.03355387343815493</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03576272696650907</v>
+        <v>0.03912192914887716</v>
       </c>
       <c r="H28" t="n">
-        <v>0.03358085241523409</v>
+        <v>0.03358046428721857</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01763134688125387</v>
+        <v>0.01764129027365161</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01842028809577707</v>
+        <v>-0.01521600362797577</v>
       </c>
       <c r="K28" t="n">
-        <v>0.02237651945506078</v>
+        <v>0.01853392125335685</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02237651945506078</v>
+        <v>0.01853392125335685</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>0.02237651945506078</v>
+        <v>0.01853392125335685</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.0324448575857943</v>
+        <v>-0.03517737068709482</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.0143158475486339</v>
+        <v>0.009358415990336639</v>
       </c>
       <c r="R28" t="n">
-        <v>0.0143158475486339</v>
+        <v>0.009358415990336639</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -2365,46 +2365,46 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.008402475120099003</v>
+        <v>0.005298207859928314</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.007245346321022329</v>
+        <v>-0.01346903641076145</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>-0.002854940370197614</v>
+        <v>-0.002872936530917461</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00053036450121458</v>
+        <v>-0.002464645442585817</v>
       </c>
       <c r="H29" t="n">
-        <v>0.002849489393979575</v>
+        <v>0.002848607537944301</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.02208299617931984</v>
+        <v>-0.02300200978408038</v>
       </c>
       <c r="J29" t="n">
-        <v>0.003740770715296278</v>
+        <v>0.01028288105877834</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01204617398584696</v>
+        <v>0.01332700066108002</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01204617398584696</v>
+        <v>0.01332700066108002</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>0.01204617398584696</v>
+        <v>0.01332700066108002</v>
       </c>
       <c r="P29" t="n">
-        <v>0.002176907799076311</v>
+        <v>0.005316299828651992</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01568267880330715</v>
+        <v>0.01795107143804285</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01568267880330715</v>
+        <v>0.01795107143804285</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -2432,46 +2432,46 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.01866795962671838</v>
+        <v>-0.02280259128010365</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02100854837003552</v>
+        <v>-0.02053317413332696</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>-0.005211400144456006</v>
+        <v>-0.005234897297395891</v>
       </c>
       <c r="G30" t="n">
-        <v>0.004784161823366472</v>
+        <v>0.0008986148519445939</v>
       </c>
       <c r="H30" t="n">
-        <v>0.005218081744723269</v>
+        <v>0.005217202384688095</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.001207541520301661</v>
+        <v>-0.02174549146181966</v>
       </c>
       <c r="J30" t="n">
-        <v>0.004283777191330419</v>
+        <v>0.01616232133938776</v>
       </c>
       <c r="K30" t="n">
-        <v>0.02748280746731229</v>
+        <v>0.0288450776658031</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02748280746731229</v>
+        <v>0.0288450776658031</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>0.02748280746731229</v>
+        <v>0.0288450776658031</v>
       </c>
       <c r="P30" t="n">
-        <v>0.003914810076592403</v>
+        <v>0.007623348400933935</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.02649483091579323</v>
+        <v>0.02932034162081366</v>
       </c>
       <c r="R30" t="n">
-        <v>0.02649483091579323</v>
+        <v>0.02932034162081366</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -2499,46 +2499,46 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.001811846664473866</v>
+        <v>-0.001354009494160379</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0259894500499991</v>
+        <v>-0.002391382367655294</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>0.001101836300073452</v>
+        <v>0.001126966317078652</v>
       </c>
       <c r="G31" t="n">
-        <v>0.001607432608297304</v>
+        <v>0.00284266100970644</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.001105536140221445</v>
+        <v>-0.001104223532168941</v>
       </c>
       <c r="I31" t="n">
-        <v>0.03045858381034335</v>
+        <v>0.01269170345166814</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.02298753961276626</v>
+        <v>-0.002133103460348543</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.008239114121564564</v>
+        <v>-0.009220200752808029</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.008239114121564564</v>
+        <v>-0.009220200752808029</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>-0.008239114121564564</v>
+        <v>-0.009220200752808029</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.003376226055049042</v>
+        <v>-0.004364741838589673</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.01088948846757954</v>
+        <v>-0.01102454885698195</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.01088948846757954</v>
+        <v>-0.01102454885698195</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -2566,46 +2566,46 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.0005236421009456839</v>
+        <v>-0.001238033905521356</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02878749662620189</v>
+        <v>-0.001273986386959456</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>-0.009143139725725587</v>
+        <v>-0.009126427277057089</v>
       </c>
       <c r="G32" t="n">
-        <v>0.009361754006470159</v>
+        <v>0.01083113179324527</v>
       </c>
       <c r="H32" t="n">
-        <v>0.009137253101490123</v>
+        <v>0.009135838157433525</v>
       </c>
       <c r="I32" t="n">
-        <v>0.001272022898880916</v>
+        <v>-0.001392518839700754</v>
       </c>
       <c r="J32" t="n">
-        <v>0.003779822968011761</v>
+        <v>-0.02558898549837255</v>
       </c>
       <c r="K32" t="n">
-        <v>0.005422170072886802</v>
+        <v>0.005239015313560611</v>
       </c>
       <c r="L32" t="n">
-        <v>0.005422170072886802</v>
+        <v>0.005239015313560611</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="n">
-        <v>0.005422170072886802</v>
+        <v>0.005239015313560611</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.00938102379924095</v>
+        <v>-0.01050140422805617</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.003861208762448349</v>
+        <v>0.003799587703983507</v>
       </c>
       <c r="R32" t="n">
-        <v>0.003861208762448349</v>
+        <v>0.003799587703983507</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -2633,46 +2633,46 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.004858627874345114</v>
+        <v>-0.005188372431534896</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01020689864380091</v>
+        <v>-0.003106481884259275</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>0.007127646141105845</v>
+        <v>0.007139083965563358</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.005360244694409787</v>
+        <v>-0.005752181510087259</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.007127873373114934</v>
+        <v>-0.007126597917063916</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01733944427757777</v>
+        <v>0.004847356705894268</v>
       </c>
       <c r="J33" t="n">
-        <v>0.008600679060017002</v>
+        <v>0.0174565297924303</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.01065416538616661</v>
+        <v>-0.01093060421322417</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.01065416538616661</v>
+        <v>-0.01093060421322417</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="n">
-        <v>-0.01065416538616661</v>
+        <v>-0.01093060421322417</v>
       </c>
       <c r="P33" t="n">
-        <v>0.004064209218568368</v>
+        <v>0.004415007824600313</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.01123124339324973</v>
+        <v>-0.0121573699262948</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.01123124339324973</v>
+        <v>-0.0121573699262948</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -2700,46 +2700,46 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.006894877139795085</v>
+        <v>0.006758926926357075</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01805328243078374</v>
+        <v>0.002479635075185403</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>-0.01992752422110097</v>
+        <v>-0.01993250527730021</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02181354663254186</v>
+        <v>0.02244774464190978</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01993699980547999</v>
+        <v>0.01993597337343893</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01219888013595521</v>
+        <v>0.007655511858220473</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02470494038918798</v>
+        <v>0.003696056090129116</v>
       </c>
       <c r="K34" t="n">
-        <v>0.02506715409068616</v>
+        <v>0.02487073299482932</v>
       </c>
       <c r="L34" t="n">
-        <v>0.02506715409068616</v>
+        <v>0.02487073299482932</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>0.02506715409068616</v>
+        <v>0.02487073299482932</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.0167404224936169</v>
+        <v>-0.01785471105018844</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.02234376742175069</v>
+        <v>0.02163725635349025</v>
       </c>
       <c r="R34" t="n">
-        <v>0.02234376742175069</v>
+        <v>0.02163725635349025</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -2767,46 +2767,46 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.01956440324657613</v>
+        <v>-0.01746142745045709</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.0006415427267919262</v>
+        <v>0.007347835109913403</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>0.01186163097046524</v>
+        <v>0.01185133391405335</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.01154737543789502</v>
+        <v>-0.009061288586451541</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.01186521551460862</v>
+        <v>-0.01186498165859927</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0001738106949524278</v>
+        <v>0.003418615816744633</v>
       </c>
       <c r="J35" t="n">
-        <v>0.004605570495081135</v>
+        <v>0.007198912282126802</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.01641455096058203</v>
+        <v>-0.01845291894611675</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.01641455096058203</v>
+        <v>-0.01845291894611675</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>-0.01641455096058203</v>
+        <v>-0.01845291894611675</v>
       </c>
       <c r="P35" t="n">
-        <v>0.008582352823294111</v>
+        <v>0.007087704763508189</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.01514148386965935</v>
+        <v>-0.01680684288027371</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.01514148386965935</v>
+        <v>-0.01680684288027371</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -2834,46 +2834,46 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.02404577846583113</v>
+        <v>-0.02440326078413043</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02261849519974121</v>
+        <v>-0.005466936218677448</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>0.00520999451239978</v>
+        <v>0.005212835248513409</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.004194287399771496</v>
+        <v>-0.004727403069096122</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.005203919248156769</v>
+        <v>-0.005204220496168819</v>
       </c>
       <c r="I36" t="n">
-        <v>0.009270731218829247</v>
+        <v>0.0004619648824785952</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.009338916878873357</v>
+        <v>-0.001827149729899537</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.003475524235020969</v>
+        <v>-0.003128680061147202</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.003475524235020969</v>
+        <v>-0.003128680061147202</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>-0.003475524235020969</v>
+        <v>-0.003128680061147202</v>
       </c>
       <c r="P36" t="n">
-        <v>0.004232596393303855</v>
+        <v>0.004964069670562786</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.001805258280210331</v>
+        <v>-0.001371898134875925</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.001805258280210331</v>
+        <v>-0.001371898134875925</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -2901,46 +2901,46 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.004770174334806972</v>
+        <v>0.006999065943962636</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002393374522867996</v>
+        <v>0.01341683295267332</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>0.001813612104544484</v>
+        <v>0.001827806665112267</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.0003211260608450424</v>
+        <v>0.003745582709823308</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.001816732104669284</v>
+        <v>-0.001817758536710341</v>
       </c>
       <c r="I37" t="n">
-        <v>0.008874775074991001</v>
+        <v>0.0177556198462248</v>
       </c>
       <c r="J37" t="n">
-        <v>0.003388931354173546</v>
+        <v>-0.0006203797420259405</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.02090643328425733</v>
+        <v>-0.02284737412989496</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.02090643328425733</v>
+        <v>-0.02284737412989496</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
-        <v>-0.02090643328425733</v>
+        <v>-0.02284737412989496</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.006476295811051831</v>
+        <v>-0.01042377737695109</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.02316646038265841</v>
+        <v>-0.02509057981962319</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.02316646038265841</v>
+        <v>-0.02509057981962319</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -2968,46 +2968,46 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.006674090762963629</v>
+        <v>0.01241208932848357</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02914507534073856</v>
+        <v>0.02909218925968757</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>-0.006361503326460132</v>
+        <v>-0.006368287166731486</v>
       </c>
       <c r="G38" t="n">
-        <v>0.002268626682745067</v>
+        <v>0.007197494015899759</v>
       </c>
       <c r="H38" t="n">
-        <v>0.006363554942542197</v>
+        <v>0.006362576414503056</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.03258740549549621</v>
+        <v>0.006062481458499257</v>
       </c>
       <c r="J38" t="n">
-        <v>0.00795265971424412</v>
+        <v>0.01644490129412719</v>
       </c>
       <c r="K38" t="n">
-        <v>0.02318603574344143</v>
+        <v>0.01872502279700091</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02318603574344143</v>
+        <v>0.01872502279700091</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="n">
-        <v>0.02318603574344143</v>
+        <v>0.01872502279700091</v>
       </c>
       <c r="P38" t="n">
-        <v>0.001713053732522149</v>
+        <v>-0.002969824534792981</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.02459288143171526</v>
+        <v>0.01842601955304078</v>
       </c>
       <c r="R38" t="n">
-        <v>0.02459288143171526</v>
+        <v>0.01842601955304078</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -3035,46 +3035,46 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.002381922527276901</v>
+        <v>-0.000960699302427972</v>
       </c>
       <c r="D39" t="n">
-        <v>0.003368634356218488</v>
+        <v>0.009771227334849092</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>0.01920957580838303</v>
+        <v>0.01922583523303341</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.01998973951958958</v>
+        <v>-0.01780957175238287</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.0192121776964871</v>
+        <v>-0.01921239926449597</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.01102375983295039</v>
+        <v>0.002714229612569184</v>
       </c>
       <c r="J39" t="n">
-        <v>0.002855401304805835</v>
+        <v>0.00329696873891557</v>
       </c>
       <c r="K39" t="n">
-        <v>0.8050415877536634</v>
+        <v>0.7953089917803595</v>
       </c>
       <c r="L39" t="n">
-        <v>0.8050415877536634</v>
+        <v>0.7953089917803595</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
-        <v>0.8050415877536634</v>
+        <v>0.7953089917803595</v>
       </c>
       <c r="P39" t="n">
-        <v>0.2560314341452574</v>
+        <v>0.2478472157058886</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.9238341845693672</v>
+        <v>0.9033587473343497</v>
       </c>
       <c r="R39" t="n">
-        <v>0.9238341845693672</v>
+        <v>0.9033587473343497</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
@@ -730,11 +730,11 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Oil retention [%]</t>
+          <t>Oil recovery [%]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.002867345682693827</v>
+        <v>-0.002577200359088014</v>
       </c>
       <c r="D4" t="n">
         <v>0.003529454733178189</v>
@@ -744,36 +744,34 @@
         <v>0.009394675575787022</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.008143510309740412</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-0.009412166680486665</v>
-      </c>
+        <v>-0.008135648869425955</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.001701209156048366</v>
+        <v>0.001701504068060162</v>
       </c>
       <c r="J4" t="n">
         <v>-0.004769384828785477</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0292900627396025</v>
+        <v>-0.01054090688563627</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0292900627396025</v>
+        <v>-0.01054090688563627</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>-0.0292900627396025</v>
+        <v>-0.01054090688563627</v>
       </c>
       <c r="P4" t="n">
-        <v>0.002240958521638341</v>
+        <v>0.008347442445897697</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.02915872715034908</v>
+        <v>0.001151584846063394</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.02915872715034908</v>
+        <v>0.001151584846063394</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -793,11 +791,11 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Bagasse oil extraction efficiency [%]</t>
+          <t>Saccharification oil recovery [%]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01690838189233528</v>
+        <v>0.01700362196014487</v>
       </c>
       <c r="D5" t="n">
         <v>0.007570266830810672</v>
@@ -807,36 +805,34 @@
         <v>0.002476769955070798</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.003406964776278591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-0.002480065059202602</v>
-      </c>
+        <v>-0.003407998792319952</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-0.0009025110121004404</v>
+        <v>-0.0009027206761088268</v>
       </c>
       <c r="J5" t="n">
         <v>-0.0007143106211812342</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005041458729658349</v>
+        <v>-0.0008403490896139635</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005041458729658349</v>
+        <v>-0.0008403490896139635</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>0.005041458729658349</v>
+        <v>-0.0008403490896139635</v>
       </c>
       <c r="P5" t="n">
-        <v>0.005185218735408749</v>
+        <v>0.003297932867917314</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002011566896462675</v>
+        <v>0.00292480926899237</v>
       </c>
       <c r="R5" t="n">
-        <v>0.002011566896462675</v>
+        <v>0.00292480926899237</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -860,7 +856,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1565746731109869</v>
+        <v>0.1557920626476825</v>
       </c>
       <c r="D6" t="n">
         <v>0.0108233524329341</v>
@@ -870,36 +866,34 @@
         <v>0.4835460584138423</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5923729455189177</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.4838320297532812</v>
-      </c>
+        <v>-0.5924074105762963</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.480065953346638</v>
+        <v>-0.4800657659546305</v>
       </c>
       <c r="J6" t="n">
         <v>-0.002296651551137881</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.193387351735494</v>
+        <v>-0.08734788752591549</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.193387351735494</v>
+        <v>-0.08734788752591549</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>-0.193387351735494</v>
+        <v>-0.08734788752591549</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5856935328037413</v>
+        <v>0.5802721152748845</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.05112476210899048</v>
+        <v>0.5813563547742542</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.05112476210899048</v>
+        <v>0.5813563547742542</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -923,7 +917,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.05915428095817123</v>
+        <v>0.05864492212179688</v>
       </c>
       <c r="D7" t="n">
         <v>-0.004311911308476452</v>
@@ -933,36 +927,34 @@
         <v>-0.8621271914130876</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7625842073993682</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.86195850327834</v>
-      </c>
+        <v>0.7625394331895773</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.2453906818796272</v>
+        <v>-0.2453910704876428</v>
       </c>
       <c r="J7" t="n">
         <v>0.001386857600423184</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5231759410550376</v>
+        <v>0.8499952875038113</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5231759410550376</v>
+        <v>0.8499952875038113</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>0.5231759410550376</v>
+        <v>0.8499952875038113</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.7280561251542449</v>
+        <v>-0.7779704550868181</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3527136216925448</v>
+        <v>0.04983022365720894</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3527136216925448</v>
+        <v>0.04983022365720894</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -986,7 +978,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2069770640870825</v>
+        <v>0.2060451631538065</v>
       </c>
       <c r="D8" t="n">
         <v>0.9999999999999999</v>
@@ -996,36 +988,34 @@
         <v>0.01013843608553744</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1804449849777994</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.009663112514524499</v>
-      </c>
+        <v>0.1805076101963044</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.8269250488850018</v>
+        <v>0.8269250438930016</v>
       </c>
       <c r="J8" t="n">
         <v>-0.005824766393088891</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1278699480267979</v>
+        <v>-0.5014179180407167</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.1278699480267979</v>
+        <v>-0.5014179180407167</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>-0.1278699480267979</v>
+        <v>-0.5014179180407167</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.1908974290118971</v>
+        <v>-0.1569309723252389</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.1819350547014022</v>
+        <v>-0.7921254634610184</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.1819350547014022</v>
+        <v>-0.7921254634610184</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1053,7 +1043,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9350294234491768</v>
+        <v>0.9354817072112681</v>
       </c>
       <c r="D9" t="n">
         <v>0.01752971628518865</v>
@@ -1063,36 +1053,34 @@
         <v>0.01034026639761066</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.007206507744260309</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-0.01034012662160506</v>
-      </c>
+        <v>-0.007210713600428543</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>0.0106659776106391</v>
+        <v>0.01066596647463866</v>
       </c>
       <c r="J9" t="n">
         <v>-0.01868878520298905</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01296045152641806</v>
+        <v>-0.01418433695137348</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01296045152641806</v>
+        <v>-0.01418433695137348</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>-0.01296045152641806</v>
+        <v>-0.01418433695137348</v>
       </c>
       <c r="P9" t="n">
-        <v>0.005843890121755604</v>
+        <v>0.00745443927417757</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01126336307453452</v>
+        <v>-0.008316289388651575</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01126336307453452</v>
+        <v>-0.008316289388651575</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1120,7 +1108,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.008514177076567082</v>
+        <v>0.008950945510037819</v>
       </c>
       <c r="D10" t="n">
         <v>0.003197859583914383</v>
@@ -1130,36 +1118,34 @@
         <v>-0.009100080172003207</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004607541784301671</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.009089622603584903</v>
-      </c>
+        <v>0.004611197080447882</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.0131429300617172</v>
+        <v>-0.01314290884571635</v>
       </c>
       <c r="J10" t="n">
         <v>0.01518555225705633</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01846837437073497</v>
+        <v>0.01591682377267295</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01846837437073497</v>
+        <v>0.01591682377267295</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>0.01846837437073497</v>
+        <v>0.01591682377267295</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.001251681842067273</v>
+        <v>-0.005248994609959784</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01820652831226113</v>
+        <v>0.01177204549488182</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01820652831226113</v>
+        <v>0.01177204549488182</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1187,7 +1173,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01314784391791375</v>
+        <v>-0.006924800436992017</v>
       </c>
       <c r="D11" t="n">
         <v>0.007627171025086841</v>
@@ -1197,36 +1183,34 @@
         <v>-0.01005934062637362</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01041223731248949</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.01006528101061124</v>
-      </c>
+        <v>0.01041439520057581</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.008499888051995521</v>
+        <v>0.008499551379982052</v>
       </c>
       <c r="J11" t="n">
         <v>0.00191761221569066</v>
       </c>
       <c r="K11" t="n">
-        <v>0.009814895144595803</v>
+        <v>0.00426702401068096</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009814895144595803</v>
+        <v>0.00426702401068096</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>0.009814895144595803</v>
+        <v>0.00426702401068096</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.009373033526921339</v>
+        <v>-0.01036536857461474</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.007734296661371865</v>
+        <v>-0.01009801787592071</v>
       </c>
       <c r="R11" t="n">
-        <v>0.007734296661371865</v>
+        <v>-0.01009801787592071</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1254,7 +1238,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.02066681036267241</v>
+        <v>0.02083455414538216</v>
       </c>
       <c r="D12" t="n">
         <v>-0.004942293317691732</v>
@@ -1264,36 +1248,34 @@
         <v>-0.009725749925029996</v>
       </c>
       <c r="G12" t="n">
-        <v>0.008853708162148324</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.009725656901026275</v>
-      </c>
+        <v>0.008861962722478507</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.00234686850987474</v>
+        <v>-0.002347283325891333</v>
       </c>
       <c r="J12" t="n">
         <v>0.008284717122887969</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.008314682444587296</v>
+        <v>0.00781215477648619</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.008314682444587296</v>
+        <v>0.00781215477648619</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>-0.008314682444587296</v>
+        <v>0.00781215477648619</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01337889807115592</v>
+        <v>-0.008898579523943179</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.01066610529064421</v>
+        <v>-0.0002546618021864721</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.01066610529064421</v>
+        <v>-0.0002546618021864721</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -1317,7 +1299,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.2325251803090072</v>
+        <v>-0.2313120491884819</v>
       </c>
       <c r="D13" t="n">
         <v>-0.002908193588327743</v>
@@ -1327,36 +1309,34 @@
         <v>-0.009365962166638486</v>
       </c>
       <c r="G13" t="n">
-        <v>0.007233574561342982</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.009348519445940775</v>
-      </c>
+        <v>0.007231675297267011</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>-0.003529236621169464</v>
+        <v>-0.00352908225316329</v>
       </c>
       <c r="J13" t="n">
         <v>-0.006930229769130327</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0062260800570432</v>
+        <v>0.009576746879069873</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0062260800570432</v>
+        <v>0.009576746879069873</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>0.0062260800570432</v>
+        <v>0.009576746879069873</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.007252537154101486</v>
+        <v>-0.007591658127666325</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.005121948300877931</v>
+        <v>0.001089301387572055</v>
       </c>
       <c r="R13" t="n">
-        <v>0.005121948300877931</v>
+        <v>0.001089301387572055</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1384,7 +1364,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.009356062550242501</v>
+        <v>-0.009476276347051053</v>
       </c>
       <c r="D14" t="n">
         <v>-0.03053229702929188</v>
@@ -1394,36 +1374,34 @@
         <v>-0.01733349160533966</v>
       </c>
       <c r="G14" t="n">
-        <v>0.008532502037300081</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.01730623768424951</v>
-      </c>
+        <v>0.008527971413118856</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.0310919424916777</v>
+        <v>-0.03109180338767213</v>
       </c>
       <c r="J14" t="n">
         <v>0.01105134180987457</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01294242166969687</v>
+        <v>0.03678345775933831</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01294242166969687</v>
+        <v>0.03678345775933831</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>0.01294242166969687</v>
+        <v>0.03678345775933831</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.008414263056570521</v>
+        <v>-0.009559113310364532</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01112507343700294</v>
+        <v>0.02504606528984261</v>
       </c>
       <c r="R14" t="n">
-        <v>0.01112507343700294</v>
+        <v>0.02504606528984261</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1451,7 +1429,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.004184629511385179</v>
+        <v>0.004346319341852773</v>
       </c>
       <c r="D15" t="n">
         <v>0.002746113805844552</v>
@@ -1461,36 +1439,34 @@
         <v>-0.01972374136494965</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02106773729070949</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.01972250805290032</v>
-      </c>
+        <v>0.02106678871467155</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.005792163687686547</v>
+        <v>0.005792259687690387</v>
       </c>
       <c r="J15" t="n">
         <v>-0.01742032193834672</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0167957775358311</v>
+        <v>0.01076791233471649</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0167957775358311</v>
+        <v>0.01076791233471649</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>0.0167957775358311</v>
+        <v>0.01076791233471649</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.01948162186726487</v>
+        <v>-0.02085346729813869</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01309418548376742</v>
+        <v>-0.01106195391447816</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01309418548376742</v>
+        <v>-0.01106195391447816</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1518,7 +1494,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.00937193029487721</v>
+        <v>-0.00906759972270399</v>
       </c>
       <c r="D16" t="n">
         <v>-0.004229653321186132</v>
@@ -1528,36 +1504,34 @@
         <v>0.01957980030319201</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02089527625981105</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.01958457159938286</v>
-      </c>
+        <v>-0.02090169299606772</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-0.0137103599724144</v>
+        <v>-0.0137107575084303</v>
       </c>
       <c r="J16" t="n">
         <v>0.009870982344883769</v>
       </c>
       <c r="K16" t="n">
-        <v>-8.053795522151819e-05</v>
+        <v>-0.007516073388642935</v>
       </c>
       <c r="L16" t="n">
-        <v>-8.053795522151819e-05</v>
+        <v>-0.007516073388642935</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>-8.053795522151819e-05</v>
+        <v>-0.007516073388642935</v>
       </c>
       <c r="P16" t="n">
-        <v>0.02283567115342684</v>
+        <v>0.02085792064231682</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.006763503822540152</v>
+        <v>0.01674855945394238</v>
       </c>
       <c r="R16" t="n">
-        <v>0.006763503822540152</v>
+        <v>0.01674855945394238</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -1585,7 +1559,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.015851600026064</v>
+        <v>-0.01588527298741092</v>
       </c>
       <c r="D17" t="n">
         <v>0.001087392523495701</v>
@@ -1595,36 +1569,34 @@
         <v>0.01845313849812554</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01877110894284436</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-0.01846325181053007</v>
-      </c>
+        <v>-0.01877696436707857</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.005642227617689104</v>
+        <v>-0.005641707105668284</v>
       </c>
       <c r="J17" t="n">
         <v>0.004131524280470719</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.009634415905376635</v>
+        <v>-0.0106619874664795</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.009634415905376635</v>
+        <v>-0.0106619874664795</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>-0.009634415905376635</v>
+        <v>-0.0106619874664795</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01793736801349472</v>
+        <v>0.01871548279661931</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.007978117087124682</v>
+        <v>0.008144192869767714</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.007978117087124682</v>
+        <v>0.008144192869767714</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -1648,7 +1620,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01172589723703589</v>
+        <v>-0.01138954346358174</v>
       </c>
       <c r="D18" t="n">
         <v>1.123824044952962e-05</v>
@@ -1658,36 +1630,34 @@
         <v>-0.00544066476162659</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00432858401314336</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.00544636975385479</v>
-      </c>
+        <v>0.004332204653288185</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-0.008399940527997621</v>
+        <v>-0.008399966639998663</v>
       </c>
       <c r="J18" t="n">
         <v>0.01437066096572323</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.01031400156456006</v>
+        <v>0.008552390838095633</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.01031400156456006</v>
+        <v>0.008552390838095633</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>-0.01031400156456006</v>
+        <v>0.008552390838095633</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.008569851894794075</v>
+        <v>-0.004430214801208592</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.013108525100341</v>
+        <v>0.007436008809440352</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.013108525100341</v>
+        <v>0.007436008809440352</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -1715,7 +1685,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01700937994437519</v>
+        <v>0.01672473878098955</v>
       </c>
       <c r="D19" t="n">
         <v>0.005544996989799878</v>
@@ -1725,36 +1695,34 @@
         <v>-0.01176593634263745</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01123963148958526</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.01176786834271473</v>
-      </c>
+        <v>0.01123944323357773</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.01164675166587007</v>
+        <v>0.01164692907387716</v>
       </c>
       <c r="J19" t="n">
         <v>-0.003496438216328637</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01158095211123808</v>
+        <v>0.008166723302668932</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01158095211123808</v>
+        <v>0.008166723302668932</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>0.01158095211123808</v>
+        <v>0.008166723302668932</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.01031552105262084</v>
+        <v>-0.01128874595554984</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.009431937977277517</v>
+        <v>-0.01445069424202777</v>
       </c>
       <c r="R19" t="n">
-        <v>0.009431937977277517</v>
+        <v>-0.01445069424202777</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -1782,7 +1750,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01340258904810356</v>
+        <v>-0.01331110238844409</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0007818678072747121</v>
@@ -1792,36 +1760,34 @@
         <v>0.003770449398817976</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.00393004450920178</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-0.003765238038609521</v>
-      </c>
+        <v>-0.003938762557550502</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>0.001506590172263607</v>
+        <v>0.001506330204253208</v>
       </c>
       <c r="J20" t="n">
         <v>-0.0001169863470151167</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01712878628515145</v>
+        <v>-0.002894457715778308</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01712878628515145</v>
+        <v>-0.002894457715778308</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>-0.01712878628515145</v>
+        <v>-0.002894457715778308</v>
       </c>
       <c r="P20" t="n">
-        <v>4.579737783189511e-05</v>
+        <v>0.00383333602533344</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.01823207660128306</v>
+        <v>-0.0005541703901668156</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.01823207660128306</v>
+        <v>-0.0005541703901668156</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -1845,7 +1811,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.0241619101504764</v>
+        <v>-0.02369149659565986</v>
       </c>
       <c r="D21" t="n">
         <v>0.002703635724145429</v>
@@ -1855,36 +1821,34 @@
         <v>-0.001543582237743289</v>
       </c>
       <c r="G21" t="n">
-        <v>0.009353220950128837</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.001562890718515629</v>
-      </c>
+        <v>0.009360217046408681</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>0.01560570667222826</v>
+        <v>0.01560594446423778</v>
       </c>
       <c r="J21" t="n">
         <v>-0.01012885636618207</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01154722654188906</v>
+        <v>-0.01172189192487568</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01154722654188906</v>
+        <v>-0.01172189192487568</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>0.01154722654188906</v>
+        <v>-0.01172189192487568</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.005515991932639677</v>
+        <v>-0.008352310510092418</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01045650406626016</v>
+        <v>-0.01780269460010778</v>
       </c>
       <c r="R21" t="n">
-        <v>0.01045650406626016</v>
+        <v>-0.01780269460010778</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -1908,7 +1872,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.03082314286492571</v>
+        <v>-0.03042573212902928</v>
       </c>
       <c r="D22" t="n">
         <v>-0.007685123731404949</v>
@@ -1918,36 +1882,34 @@
         <v>0.0129747449669898</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.01461007901640316</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.01297836416713456</v>
-      </c>
+        <v>-0.01460631946425278</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-0.004771746526869861</v>
+        <v>-0.0047713849908554</v>
       </c>
       <c r="J22" t="n">
         <v>-0.002300422932465865</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.007497385931895436</v>
+        <v>-0.008805005056200202</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.007497385931895436</v>
+        <v>-0.008805005056200202</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
-        <v>-0.007497385931895436</v>
+        <v>-0.008805005056200202</v>
       </c>
       <c r="P22" t="n">
-        <v>0.01661877234475089</v>
+        <v>0.01450531133221245</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.004887147555485901</v>
+        <v>0.008876610595064423</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.004887147555485901</v>
+        <v>0.008876610595064423</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -1971,7 +1933,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.001134016269360651</v>
+        <v>0.001448514969940598</v>
       </c>
       <c r="D23" t="n">
         <v>-0.001372140150885606</v>
@@ -1981,36 +1943,34 @@
         <v>-0.004930477061219082</v>
       </c>
       <c r="G23" t="n">
-        <v>0.006344651581786063</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.004912693348507733</v>
-      </c>
+        <v>0.006342294589691782</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>0.001827767881110715</v>
+        <v>0.001826951113078044</v>
       </c>
       <c r="J23" t="n">
         <v>-0.007562917958960601</v>
       </c>
       <c r="K23" t="n">
-        <v>0.007921252156850085</v>
+        <v>0.001769062534762501</v>
       </c>
       <c r="L23" t="n">
-        <v>0.007921252156850085</v>
+        <v>0.001769062534762501</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>0.007921252156850085</v>
+        <v>0.001769062534762501</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.003772162806886512</v>
+        <v>-0.00621876428075057</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.008001772064070881</v>
+        <v>-0.004027462241098489</v>
       </c>
       <c r="R23" t="n">
-        <v>0.008001772064070881</v>
+        <v>-0.004027462241098489</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -2038,7 +1998,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.02522653732906149</v>
+        <v>-0.02492625968505038</v>
       </c>
       <c r="D24" t="n">
         <v>0.01651558885262355</v>
@@ -2048,36 +2008,34 @@
         <v>0.0136662874266515</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.008668567066742683</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-0.0136652375706095</v>
-      </c>
+        <v>-0.008670126202805046</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>0.01587212127488485</v>
+        <v>0.01587180111487204</v>
       </c>
       <c r="J24" t="n">
         <v>0.01232673638642706</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.01251660318866413</v>
+        <v>-0.02010807622832305</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.01251660318866413</v>
+        <v>-0.02010807622832305</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>-0.01251660318866413</v>
+        <v>-0.02010807622832305</v>
       </c>
       <c r="P24" t="n">
-        <v>0.007723754420950175</v>
+        <v>0.009444096377763854</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.01134002694960108</v>
+        <v>-0.01391873182074927</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.01134002694960108</v>
+        <v>-0.01391873182074927</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2101,7 +2059,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.008408747088349882</v>
+        <v>-0.008686003931440157</v>
       </c>
       <c r="D25" t="n">
         <v>-0.02022354388094175</v>
@@ -2111,36 +2069,34 @@
         <v>-0.02497905287116211</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02108599111543964</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.02496693479067739</v>
-      </c>
+        <v>0.02108247185129887</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>-0.01676595215863808</v>
+        <v>-0.01676580633463225</v>
       </c>
       <c r="J25" t="n">
         <v>0.01606106726660021</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01588348796333952</v>
+        <v>0.03172410693296427</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01588348796333952</v>
+        <v>0.03172410693296427</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
-        <v>0.01588348796333952</v>
+        <v>0.03172410693296427</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.02213447272537891</v>
+        <v>-0.02154070732562829</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01121737600069504</v>
+        <v>0.007497807563912301</v>
       </c>
       <c r="R25" t="n">
-        <v>0.01121737600069504</v>
+        <v>0.007497807563912301</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2168,7 +2124,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01531081942843277</v>
+        <v>0.01530560605222424</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01490230658009226</v>
@@ -2178,36 +2134,34 @@
         <v>-0.00789269724370789</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00226317225052689</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.007883724123348965</v>
-      </c>
+        <v>0.002265510426620417</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>-0.01460019370400775</v>
+        <v>-0.01460006228000249</v>
       </c>
       <c r="J26" t="n">
         <v>0.0140515198870537</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02491814720472588</v>
+        <v>0.01794328622173144</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02491814720472588</v>
+        <v>0.01794328622173144</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>0.02491814720472588</v>
+        <v>0.01794328622173144</v>
       </c>
       <c r="P26" t="n">
-        <v>0.003978916191156647</v>
+        <v>-0.002914150196566008</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.02610133064405322</v>
+        <v>0.01285341373013655</v>
       </c>
       <c r="R26" t="n">
-        <v>0.02610133064405322</v>
+        <v>0.01285341373013655</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2231,7 +2185,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.006857997490319899</v>
+        <v>0.007490934155637365</v>
       </c>
       <c r="D27" t="n">
         <v>0.01960177316807092</v>
@@ -2241,36 +2195,34 @@
         <v>0.01453170211726808</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.008338497357539892</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-0.01450023619600944</v>
-      </c>
+        <v>-0.008338651917546075</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>0.02050996546039862</v>
+        <v>0.02050975397239016</v>
       </c>
       <c r="J27" t="n">
         <v>0.001561328529771026</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.02642127724885109</v>
+        <v>-0.02443116625724665</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.02642127724885109</v>
+        <v>-0.02443116625724665</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
-        <v>-0.02642127724885109</v>
+        <v>-0.02443116625724665</v>
       </c>
       <c r="P27" t="n">
-        <v>0.003740011925600477</v>
+        <v>0.009167552334702093</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.02823094989723799</v>
+        <v>-0.01646844661073786</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.02823094989723799</v>
+        <v>-0.01646844661073786</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -2298,7 +2250,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.01612685363707414</v>
+        <v>0.01569165537966621</v>
       </c>
       <c r="D28" t="n">
         <v>0.01176916271076651</v>
@@ -2308,36 +2260,34 @@
         <v>-0.03355387343815493</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03912192914887716</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.03358046428721857</v>
-      </c>
+        <v>0.03912240175689607</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>0.01764129027365161</v>
+        <v>0.01764069776162791</v>
       </c>
       <c r="J28" t="n">
         <v>-0.01521600362797577</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01853392125335685</v>
+        <v>0.0120192450247698</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01853392125335685</v>
+        <v>0.0120192450247698</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>0.01853392125335685</v>
+        <v>0.0120192450247698</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.03517737068709482</v>
+        <v>-0.03849111705964468</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.009358415990336639</v>
+        <v>-0.02471452073258083</v>
       </c>
       <c r="R28" t="n">
-        <v>0.009358415990336639</v>
+        <v>-0.02471452073258083</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -2365,7 +2315,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.005298207859928314</v>
+        <v>0.005562064638482585</v>
       </c>
       <c r="D29" t="n">
         <v>-0.01346903641076145</v>
@@ -2375,36 +2325,34 @@
         <v>-0.002872936530917461</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.002464645442585817</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.002848607537944301</v>
-      </c>
+        <v>-0.002463307682532307</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>-0.02300200978408038</v>
+        <v>-0.02300150559206022</v>
       </c>
       <c r="J29" t="n">
         <v>0.01028288105877834</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01332700066108002</v>
+        <v>0.01397741777509671</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01332700066108002</v>
+        <v>0.01397741777509671</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>0.01332700066108002</v>
+        <v>0.01397741777509671</v>
       </c>
       <c r="P29" t="n">
-        <v>0.005316299828651992</v>
+        <v>0.001821014184840567</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01795107143804285</v>
+        <v>0.02211915160476606</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01795107143804285</v>
+        <v>0.02211915160476606</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -2432,7 +2380,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.02280259128010365</v>
+        <v>-0.02298087941523518</v>
       </c>
       <c r="D30" t="n">
         <v>-0.02053317413332696</v>
@@ -2442,36 +2390,34 @@
         <v>-0.005234897297395891</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0008986148519445939</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.005217202384688095</v>
-      </c>
+        <v>0.0008983869479354779</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>-0.02174549146181966</v>
+        <v>-0.02174589984583599</v>
       </c>
       <c r="J30" t="n">
         <v>0.01616232133938776</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0288450776658031</v>
+        <v>0.01211234813249392</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0288450776658031</v>
+        <v>0.01211234813249392</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>0.0288450776658031</v>
+        <v>0.01211234813249392</v>
       </c>
       <c r="P30" t="n">
-        <v>0.007623348400933935</v>
+        <v>-0.001445281881811275</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.02932034162081366</v>
+        <v>0.02008362137934485</v>
       </c>
       <c r="R30" t="n">
-        <v>0.02932034162081366</v>
+        <v>0.02008362137934485</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -2499,7 +2445,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.001354009494160379</v>
+        <v>-0.001360591062423642</v>
       </c>
       <c r="D31" t="n">
         <v>-0.002391382367655294</v>
@@ -2509,36 +2455,34 @@
         <v>0.001126966317078652</v>
       </c>
       <c r="G31" t="n">
-        <v>0.00284266100970644</v>
-      </c>
-      <c r="H31" t="n">
-        <v>-0.001104223532168941</v>
-      </c>
+        <v>0.00284685976187439</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>0.01269170345166814</v>
+        <v>0.01269166572366663</v>
       </c>
       <c r="J31" t="n">
         <v>-0.002133103460348543</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.009220200752808029</v>
+        <v>-0.009194990863799633</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.009220200752808029</v>
+        <v>-0.009194990863799633</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>-0.009220200752808029</v>
+        <v>-0.009194990863799633</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.004364741838589673</v>
+        <v>-0.0024604274904171</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.01102454885698195</v>
+        <v>-0.0127128399645136</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.01102454885698195</v>
+        <v>-0.0127128399645136</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -2566,7 +2510,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.001238033905521356</v>
+        <v>-0.00128029099521164</v>
       </c>
       <c r="D32" t="n">
         <v>-0.001273986386959456</v>
@@ -2576,36 +2520,34 @@
         <v>-0.009126427277057089</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01083113179324527</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.009135838157433525</v>
-      </c>
+        <v>0.01083228340929134</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>-0.001392518839700754</v>
+        <v>-0.001392656695706268</v>
       </c>
       <c r="J32" t="n">
         <v>-0.02558898549837255</v>
       </c>
       <c r="K32" t="n">
-        <v>0.005239015313560611</v>
+        <v>0.006215111576604463</v>
       </c>
       <c r="L32" t="n">
-        <v>0.005239015313560611</v>
+        <v>0.006215111576604463</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="n">
-        <v>0.005239015313560611</v>
+        <v>0.006215111576604463</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.01050140422805617</v>
+        <v>-0.01068483613939344</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.003799587703983507</v>
+        <v>-0.001333968437358737</v>
       </c>
       <c r="R32" t="n">
-        <v>0.003799587703983507</v>
+        <v>-0.001333968437358737</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -2633,7 +2575,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.005188372431534896</v>
+        <v>-0.004805071584202862</v>
       </c>
       <c r="D33" t="n">
         <v>-0.003106481884259275</v>
@@ -2643,36 +2585,34 @@
         <v>0.007139083965563358</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.005752181510087259</v>
-      </c>
-      <c r="H33" t="n">
-        <v>-0.007126597917063916</v>
-      </c>
+        <v>-0.005746188421847536</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>0.004847356705894268</v>
+        <v>0.004847002081880083</v>
       </c>
       <c r="J33" t="n">
         <v>0.0174565297924303</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.01093060421322417</v>
+        <v>-0.009727966565118661</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.01093060421322417</v>
+        <v>-0.009727966565118661</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="n">
-        <v>-0.01093060421322417</v>
+        <v>-0.009727966565118661</v>
       </c>
       <c r="P33" t="n">
-        <v>0.004415007824600313</v>
+        <v>0.005920339436813576</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.0121573699262948</v>
+        <v>-0.002387745311509812</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.0121573699262948</v>
+        <v>-0.002387745311509812</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -2700,7 +2640,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.006758926926357075</v>
+        <v>0.006566925094677003</v>
       </c>
       <c r="D34" t="n">
         <v>0.002479635075185403</v>
@@ -2710,36 +2650,34 @@
         <v>-0.01993250527730021</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02244774464190978</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.01993597337343893</v>
-      </c>
+        <v>0.02245023190600927</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>0.007655511858220473</v>
+        <v>0.007654975890199035</v>
       </c>
       <c r="J34" t="n">
         <v>0.003696056090129116</v>
       </c>
       <c r="K34" t="n">
-        <v>0.02487073299482932</v>
+        <v>0.01086892161875686</v>
       </c>
       <c r="L34" t="n">
-        <v>0.02487073299482932</v>
+        <v>0.01086892161875686</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>0.02487073299482932</v>
+        <v>0.01086892161875686</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.01785471105018844</v>
+        <v>-0.02224344876173795</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.02163725635349025</v>
+        <v>-0.01118401724736069</v>
       </c>
       <c r="R34" t="n">
-        <v>0.02163725635349025</v>
+        <v>-0.01118401724736069</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -2767,7 +2705,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.01746142745045709</v>
+        <v>-0.01734768126990725</v>
       </c>
       <c r="D35" t="n">
         <v>0.007347835109913403</v>
@@ -2777,36 +2715,34 @@
         <v>0.01185133391405335</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.009061288586451541</v>
-      </c>
-      <c r="H35" t="n">
-        <v>-0.01186498165859927</v>
-      </c>
+        <v>-0.009055911434236456</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>0.003418615816744633</v>
+        <v>0.003418774120750965</v>
       </c>
       <c r="J35" t="n">
         <v>0.007198912282126802</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.01845291894611675</v>
+        <v>-0.01202963193718528</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.01845291894611675</v>
+        <v>-0.01202963193718528</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>-0.01845291894611675</v>
+        <v>-0.01202963193718528</v>
       </c>
       <c r="P35" t="n">
-        <v>0.007087704763508189</v>
+        <v>0.009503989916159595</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.01680684288027371</v>
+        <v>-0.0007209408288376331</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.01680684288027371</v>
+        <v>-0.0007209408288376331</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -2834,7 +2770,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.02440326078413043</v>
+        <v>-0.02424517325780692</v>
       </c>
       <c r="D36" t="n">
         <v>-0.005466936218677448</v>
@@ -2844,36 +2780,34 @@
         <v>0.005212835248513409</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.004727403069096122</v>
-      </c>
-      <c r="H36" t="n">
-        <v>-0.005204220496168819</v>
-      </c>
+        <v>-0.004731693213267728</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>0.0004619648824785952</v>
+        <v>0.0004621005304840212</v>
       </c>
       <c r="J36" t="n">
         <v>-0.001827149729899537</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.003128680061147202</v>
+        <v>-0.002105688084227523</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.003128680061147202</v>
+        <v>-0.002105688084227523</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>-0.003128680061147202</v>
+        <v>-0.002105688084227523</v>
       </c>
       <c r="P36" t="n">
-        <v>0.004964069670562786</v>
+        <v>0.004950831942033276</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.001371898134875925</v>
+        <v>-0.001504809852192394</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.001371898134875925</v>
+        <v>-0.001504809852192394</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -2901,7 +2835,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.006999065943962636</v>
+        <v>0.006495726787829071</v>
       </c>
       <c r="D37" t="n">
         <v>0.01341683295267332</v>
@@ -2911,36 +2845,34 @@
         <v>0.001827806665112267</v>
       </c>
       <c r="G37" t="n">
-        <v>0.003745582709823308</v>
-      </c>
-      <c r="H37" t="n">
-        <v>-0.001817758536710341</v>
-      </c>
+        <v>0.003751876854075074</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>0.0177556198462248</v>
+        <v>0.01775555063022203</v>
       </c>
       <c r="J37" t="n">
         <v>-0.0006203797420259405</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.02284737412989496</v>
+        <v>-0.0138676601067064</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.02284737412989496</v>
+        <v>-0.0138676601067064</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
-        <v>-0.02284737412989496</v>
+        <v>-0.0138676601067064</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.01042377737695109</v>
+        <v>-0.003201537728061509</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.02509057981962319</v>
+        <v>-0.01710713204428528</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.02509057981962319</v>
+        <v>-0.01710713204428528</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -2968,7 +2900,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.01241208932848357</v>
+        <v>0.01227892119515685</v>
       </c>
       <c r="D38" t="n">
         <v>0.02909218925968757</v>
@@ -2978,36 +2910,34 @@
         <v>-0.006368287166731486</v>
       </c>
       <c r="G38" t="n">
-        <v>0.007197494015899759</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.006362576414503056</v>
-      </c>
+        <v>0.007193890175755605</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>0.006062481458499257</v>
+        <v>0.006062106962484278</v>
       </c>
       <c r="J38" t="n">
         <v>0.01644490129412719</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01872502279700091</v>
+        <v>-0.0009956905358276212</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01872502279700091</v>
+        <v>-0.0009956905358276212</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="n">
-        <v>0.01872502279700091</v>
+        <v>-0.0009956905358276212</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.002969824534792981</v>
+        <v>-0.007219313952772558</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01842601955304078</v>
+        <v>-0.007773936694957467</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01842601955304078</v>
+        <v>-0.007773936694957467</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -3035,7 +2965,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.000960699302427972</v>
+        <v>-0.001155433486217339</v>
       </c>
       <c r="D39" t="n">
         <v>0.009771227334849092</v>
@@ -3045,36 +2975,34 @@
         <v>0.01922583523303341</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.01780957175238287</v>
-      </c>
-      <c r="H39" t="n">
-        <v>-0.01921239926449597</v>
-      </c>
+        <v>-0.0178121424404857</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>0.002714229612569184</v>
+        <v>0.002714277036571081</v>
       </c>
       <c r="J39" t="n">
         <v>0.00329696873891557</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7953089917803595</v>
+        <v>-0.01754420182176807</v>
       </c>
       <c r="L39" t="n">
-        <v>0.7953089917803595</v>
+        <v>-0.01754420182176807</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
-        <v>0.7953089917803595</v>
+        <v>-0.01754420182176807</v>
       </c>
       <c r="P39" t="n">
-        <v>0.2478472157058886</v>
+        <v>0.01806184142647366</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.9033587473343497</v>
+        <v>0.002276292955051718</v>
       </c>
       <c r="R39" t="n">
-        <v>0.9033587473343497</v>
+        <v>0.002276292955051718</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.002577200359088014</v>
+        <v>-0.002611897448475898</v>
       </c>
       <c r="D4" t="n">
         <v>0.003529454733178189</v>
@@ -744,34 +744,34 @@
         <v>0.009394675575787022</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.008135648869425955</v>
+        <v>-0.008041567809662711</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.001701504068060162</v>
+        <v>0.001805174184206967</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.004769384828785477</v>
+        <v>-0.002500450956194656</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.01054090688563627</v>
+        <v>-0.01083234638529385</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.01054090688563627</v>
+        <v>-0.01083234638529385</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>-0.01054090688563627</v>
+        <v>-0.01083234638529385</v>
       </c>
       <c r="P4" t="n">
-        <v>0.008347442445897697</v>
+        <v>0.008264669802586791</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001151584846063394</v>
+        <v>0.0007954962558198501</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001151584846063394</v>
+        <v>0.0007954962558198501</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01700362196014487</v>
+        <v>0.01700788388031535</v>
       </c>
       <c r="D5" t="n">
         <v>0.007570266830810672</v>
@@ -805,34 +805,34 @@
         <v>0.002476769955070798</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.003407998792319952</v>
+        <v>-0.003413760232550409</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-0.0009027206761088268</v>
+        <v>-0.0009038635561545421</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.0007143106211812342</v>
+        <v>-0.0004375655196230563</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0008403490896139635</v>
+        <v>-0.0008085393923415755</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0008403490896139635</v>
+        <v>-0.0008085393923415755</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>-0.0008403490896139635</v>
+        <v>-0.0008085393923415755</v>
       </c>
       <c r="P5" t="n">
-        <v>0.003297932867917314</v>
+        <v>0.003304805604192224</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.00292480926899237</v>
+        <v>0.00291831976473279</v>
       </c>
       <c r="R5" t="n">
-        <v>0.00292480926899237</v>
+        <v>0.00291831976473279</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1557920626476825</v>
+        <v>0.1557876887915075</v>
       </c>
       <c r="D6" t="n">
         <v>0.0108233524329341</v>
@@ -866,34 +866,34 @@
         <v>0.4835460584138423</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5924074105762963</v>
+        <v>-0.5924081316323252</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.4800657659546305</v>
+        <v>-0.4800619933464796</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.002296651551137881</v>
+        <v>-0.002056373181322217</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.08734788752591549</v>
+        <v>-0.08736961789478472</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.08734788752591549</v>
+        <v>-0.08736961789478472</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>-0.08734788752591549</v>
+        <v>-0.08736961789478472</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5802721152748845</v>
+        <v>0.5802693596907743</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5813563547742542</v>
+        <v>0.5813554335582173</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5813563547742542</v>
+        <v>0.5813554335582173</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.05864492212179688</v>
+        <v>0.05864291149771646</v>
       </c>
       <c r="D7" t="n">
         <v>-0.004311911308476452</v>
@@ -927,34 +927,34 @@
         <v>-0.8621271914130876</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7625394331895773</v>
+        <v>0.76254375002175</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.2453910704876428</v>
+        <v>-0.2454096931443877</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001386857600423184</v>
+        <v>0.0003643474311681824</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8499952875038113</v>
+        <v>0.8500344605933783</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8499952875038113</v>
+        <v>0.8500344605933783</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>0.8499952875038113</v>
+        <v>0.8500344605933783</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.7779704550868181</v>
+        <v>-0.7779757498710299</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04983022365720894</v>
+        <v>0.04986483117859324</v>
       </c>
       <c r="R7" t="n">
-        <v>0.04983022365720894</v>
+        <v>0.04986483117859324</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2060451631538065</v>
+        <v>0.2060526210101048</v>
       </c>
       <c r="D8" t="n">
         <v>0.9999999999999999</v>
@@ -988,34 +988,34 @@
         <v>0.01013843608553744</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1805076101963044</v>
+        <v>0.1804826468353058</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.8269250438930016</v>
+        <v>0.8269215624528624</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.005824766393088891</v>
+        <v>-0.00635686379702911</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.5014179180407167</v>
+        <v>-0.5013577653023106</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.5014179180407167</v>
+        <v>-0.5013577653023106</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>-0.5014179180407167</v>
+        <v>-0.5013577653023106</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.1569309723252389</v>
+        <v>-0.1569115311724612</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.7921254634610184</v>
+        <v>-0.7921125620205024</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.7921254634610184</v>
+        <v>-0.7921125620205024</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9354817072112681</v>
+        <v>0.9354810124592404</v>
       </c>
       <c r="D9" t="n">
         <v>0.01752971628518865</v>
@@ -1053,34 +1053,34 @@
         <v>0.01034026639761066</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.007210713600428543</v>
+        <v>-0.007216715712668628</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>0.01066596647463866</v>
+        <v>0.01065225412209016</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.01868878520298905</v>
+        <v>-0.01666502816530797</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01418433695137348</v>
+        <v>-0.01417988907919556</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01418433695137348</v>
+        <v>-0.01417988907919556</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>-0.01418433695137348</v>
+        <v>-0.01417988907919556</v>
       </c>
       <c r="P9" t="n">
-        <v>0.00745443927417757</v>
+        <v>0.007465625674625025</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.008316289388651575</v>
+        <v>-0.008285084107403364</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.008316289388651575</v>
+        <v>-0.008285084107403364</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.008950945510037819</v>
+        <v>0.008941035237641408</v>
       </c>
       <c r="D10" t="n">
         <v>0.003197859583914383</v>
@@ -1118,34 +1118,34 @@
         <v>-0.009100080172003207</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004611197080447882</v>
+        <v>0.004623403480936139</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.01314290884571635</v>
+        <v>-0.01312389662095586</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01518555225705633</v>
+        <v>0.0144858048775974</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01591682377267295</v>
+        <v>0.01587882495515299</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01591682377267295</v>
+        <v>0.01587882495515299</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>0.01591682377267295</v>
+        <v>0.01587882495515299</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.005248994609959784</v>
+        <v>-0.005267083314683332</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01177204549488182</v>
+        <v>0.01171429813257192</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01177204549488182</v>
+        <v>0.01171429813257192</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1173,7 +1173,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.006924800436992017</v>
+        <v>-0.006920074740802988</v>
       </c>
       <c r="D11" t="n">
         <v>0.007627171025086841</v>
@@ -1183,34 +1183,34 @@
         <v>-0.01005934062637362</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01041439520057581</v>
+        <v>0.0104028626241145</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.008499551379982052</v>
+        <v>0.008480549331221972</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00191761221569066</v>
+        <v>0.001472862826240545</v>
       </c>
       <c r="K11" t="n">
-        <v>0.00426702401068096</v>
+        <v>0.004320158092806324</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00426702401068096</v>
+        <v>0.004320158092806324</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>0.00426702401068096</v>
+        <v>0.004320158092806324</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.01036536857461474</v>
+        <v>-0.01034803884592155</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.01009801787592071</v>
+        <v>-0.01002395608095824</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.01009801787592071</v>
+        <v>-0.01002395608095824</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.02083455414538216</v>
+        <v>0.02083299020931961</v>
       </c>
       <c r="D12" t="n">
         <v>-0.004942293317691732</v>
@@ -1248,34 +1248,34 @@
         <v>-0.009725749925029996</v>
       </c>
       <c r="G12" t="n">
-        <v>0.008861962722478507</v>
+        <v>0.008866905474676218</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.002347283325891333</v>
+        <v>-0.002345252061810082</v>
       </c>
       <c r="J12" t="n">
-        <v>0.008284717122887969</v>
+        <v>0.007476074260992659</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00781215477648619</v>
+        <v>0.007789496663579865</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00781215477648619</v>
+        <v>0.007789496663579865</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>0.00781215477648619</v>
+        <v>0.007789496663579865</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.008898579523943179</v>
+        <v>-0.008900286692011466</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.0002546618021864721</v>
+        <v>-0.0002468989538759582</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.0002546618021864721</v>
+        <v>-0.0002468989538759582</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -1299,7 +1299,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.2313120491884819</v>
+        <v>-0.2313124473004979</v>
       </c>
       <c r="D13" t="n">
         <v>-0.002908193588327743</v>
@@ -1309,34 +1309,34 @@
         <v>-0.009365962166638486</v>
       </c>
       <c r="G13" t="n">
-        <v>0.007231675297267011</v>
+        <v>0.007224964896998595</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>-0.00352908225316329</v>
+        <v>-0.003534297741371909</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.006930229769130327</v>
+        <v>-0.006539799857857584</v>
       </c>
       <c r="K13" t="n">
-        <v>0.009576746879069873</v>
+        <v>0.009598767359950694</v>
       </c>
       <c r="L13" t="n">
-        <v>0.009576746879069873</v>
+        <v>0.009598767359950694</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>0.009576746879069873</v>
+        <v>0.009598767359950694</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.007591658127666325</v>
+        <v>-0.007588043631521745</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.001089301387572055</v>
+        <v>0.001082213131288525</v>
       </c>
       <c r="R13" t="n">
-        <v>0.001089301387572055</v>
+        <v>0.001082213131288525</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.009476276347051053</v>
+        <v>-0.009476083867043354</v>
       </c>
       <c r="D14" t="n">
         <v>-0.03053229702929188</v>
@@ -1374,34 +1374,34 @@
         <v>-0.01733349160533966</v>
       </c>
       <c r="G14" t="n">
-        <v>0.008527971413118856</v>
+        <v>0.008511870484474817</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.03109180338767213</v>
+        <v>-0.03110916690836667</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01105134180987457</v>
+        <v>0.009717522718625632</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03678345775933831</v>
+        <v>0.03682783145711326</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03678345775933831</v>
+        <v>0.03682783145711326</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>0.03678345775933831</v>
+        <v>0.03682783145711326</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.009559113310364532</v>
+        <v>-0.009549316701972668</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02504606528984261</v>
+        <v>0.02509815210792608</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02504606528984261</v>
+        <v>0.02509815210792608</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.004346319341852773</v>
+        <v>0.00434080375763215</v>
       </c>
       <c r="D15" t="n">
         <v>0.002746113805844552</v>
@@ -1439,34 +1439,34 @@
         <v>-0.01972374136494965</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02106678871467155</v>
+        <v>0.02107974535518981</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.005792259687690387</v>
+        <v>0.005803958920158356</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01742032193834672</v>
+        <v>-0.01679826977599825</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01076791233471649</v>
+        <v>0.01072267444490698</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01076791233471649</v>
+        <v>0.01072267444490698</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>0.01076791233471649</v>
+        <v>0.01072267444490698</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.02085346729813869</v>
+        <v>-0.02087182989087319</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.01106195391447816</v>
+        <v>-0.01113119948524798</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.01106195391447816</v>
+        <v>-0.01113119948524798</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.00906759972270399</v>
+        <v>-0.009057035498281418</v>
       </c>
       <c r="D16" t="n">
         <v>-0.004229653321186132</v>
@@ -1504,34 +1504,34 @@
         <v>0.01957980030319201</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02090169299606772</v>
+        <v>-0.02092243235689729</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-0.0137107575084303</v>
+        <v>-0.01372901555716062</v>
       </c>
       <c r="J16" t="n">
-        <v>0.009870982344883769</v>
+        <v>0.01029594067086753</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.007516073388642935</v>
+        <v>-0.007478657387146294</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.007516073388642935</v>
+        <v>-0.007478657387146294</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>-0.007516073388642935</v>
+        <v>-0.007478657387146294</v>
       </c>
       <c r="P16" t="n">
-        <v>0.02085792064231682</v>
+        <v>0.02086979094679163</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01674855945394238</v>
+        <v>0.01680562070422482</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01674855945394238</v>
+        <v>0.01680562070422482</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -1559,7 +1559,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.01588527298741092</v>
+        <v>-0.01588731029949241</v>
       </c>
       <c r="D17" t="n">
         <v>0.001087392523495701</v>
@@ -1569,34 +1569,34 @@
         <v>0.01845313849812554</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01877696436707857</v>
+        <v>-0.01877724123108965</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.005641707105668284</v>
+        <v>-0.005643393729735748</v>
       </c>
       <c r="J17" t="n">
-        <v>0.004131524280470719</v>
+        <v>0.00415994040298366</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0106619874664795</v>
+        <v>-0.0106555325222213</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0106619874664795</v>
+        <v>-0.0106555325222213</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>-0.0106619874664795</v>
+        <v>-0.0106555325222213</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01871548279661931</v>
+        <v>0.01872227287689091</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.008144192869767714</v>
+        <v>0.008151553286062131</v>
       </c>
       <c r="R17" t="n">
-        <v>0.008144192869767714</v>
+        <v>0.008151553286062131</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01138954346358174</v>
+        <v>-0.01139444330377773</v>
       </c>
       <c r="D18" t="n">
         <v>1.123824044952962e-05</v>
@@ -1630,34 +1630,34 @@
         <v>-0.00544066476162659</v>
       </c>
       <c r="G18" t="n">
-        <v>0.004332204653288185</v>
+        <v>0.004350758382030335</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-0.008399966639998663</v>
+        <v>-0.008389021295560852</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01437066096572323</v>
+        <v>0.0140037934392125</v>
       </c>
       <c r="K18" t="n">
-        <v>0.008552390838095633</v>
+        <v>0.008546185589847422</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008552390838095633</v>
+        <v>0.008546185589847422</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>0.008552390838095633</v>
+        <v>0.008546185589847422</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.004430214801208592</v>
+        <v>-0.004447129041885161</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.007436008809440352</v>
+        <v>0.007390253575610142</v>
       </c>
       <c r="R18" t="n">
-        <v>0.007436008809440352</v>
+        <v>0.007390253575610142</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01672473878098955</v>
+        <v>0.01672548738901949</v>
       </c>
       <c r="D19" t="n">
         <v>0.005544996989799878</v>
@@ -1695,34 +1695,34 @@
         <v>-0.01176593634263745</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01123944323357773</v>
+        <v>0.01122904048116162</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.01164692907387716</v>
+        <v>0.01165551099422044</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.003496438216328637</v>
+        <v>-0.00391624037397182</v>
       </c>
       <c r="K19" t="n">
-        <v>0.008166723302668932</v>
+        <v>0.008163913958556557</v>
       </c>
       <c r="L19" t="n">
-        <v>0.008166723302668932</v>
+        <v>0.008163913958556557</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>0.008166723302668932</v>
+        <v>0.008163913958556557</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.01128874595554984</v>
+        <v>-0.01128740339549614</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.01445069424202777</v>
+        <v>-0.01444831152193246</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.01445069424202777</v>
+        <v>-0.01444831152193246</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01331110238844409</v>
+        <v>-0.01331629877265195</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0007818678072747121</v>
@@ -1760,34 +1760,34 @@
         <v>0.003770449398817976</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.003938762557550502</v>
+        <v>-0.003927596605103863</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>0.001506330204253208</v>
+        <v>0.001514597820583913</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.0001169863470151167</v>
+        <v>-0.0006407593901394031</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.002894457715778308</v>
+        <v>-0.002931454197258167</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.002894457715778308</v>
+        <v>-0.002931454197258167</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>-0.002894457715778308</v>
+        <v>-0.002931454197258167</v>
       </c>
       <c r="P20" t="n">
-        <v>0.00383333602533344</v>
+        <v>0.003823124120924964</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.0005541703901668156</v>
+        <v>-0.0005912629676505186</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.0005541703901668156</v>
+        <v>-0.0005912629676505186</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.02369149659565986</v>
+        <v>-0.02369475569979023</v>
       </c>
       <c r="D21" t="n">
         <v>0.002703635724145429</v>
@@ -1821,34 +1821,34 @@
         <v>-0.001543582237743289</v>
       </c>
       <c r="G21" t="n">
-        <v>0.009360217046408681</v>
+        <v>0.009371982230879289</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>0.01560594446423778</v>
+        <v>0.01561262136050485</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.01012885636618207</v>
+        <v>-0.01094344931851038</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.01172189192487568</v>
+        <v>-0.01173678334947133</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.01172189192487568</v>
+        <v>-0.01173678334947133</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>-0.01172189192487568</v>
+        <v>-0.01173678334947133</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.008352310510092418</v>
+        <v>-0.00836175124647005</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.01780269460010778</v>
+        <v>-0.01782146836085874</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.01780269460010778</v>
+        <v>-0.01782146836085874</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.03042573212902928</v>
+        <v>-0.03042816563312662</v>
       </c>
       <c r="D22" t="n">
         <v>-0.007685123731404949</v>
@@ -1882,34 +1882,34 @@
         <v>0.0129747449669898</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.01460631946425278</v>
+        <v>-0.01459507824780313</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-0.0047713849908554</v>
+        <v>-0.004762267678490706</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.002300422932465865</v>
+        <v>-0.002344231028483519</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.008805005056200202</v>
+        <v>-0.008812077664483107</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.008805005056200202</v>
+        <v>-0.008812077664483107</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
-        <v>-0.008805005056200202</v>
+        <v>-0.008812077664483107</v>
       </c>
       <c r="P22" t="n">
-        <v>0.01450531133221245</v>
+        <v>0.01450045046801802</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.008876610595064423</v>
+        <v>0.008826761345070452</v>
       </c>
       <c r="R22" t="n">
-        <v>0.008876610595064423</v>
+        <v>0.008826761345070452</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -1933,7 +1933,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.001448514969940598</v>
+        <v>0.001454105818164233</v>
       </c>
       <c r="D23" t="n">
         <v>-0.001372140150885606</v>
@@ -1943,34 +1943,34 @@
         <v>-0.004930477061219082</v>
       </c>
       <c r="G23" t="n">
-        <v>0.006342294589691782</v>
+        <v>0.006341383549655342</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>0.001826951113078044</v>
+        <v>0.001829742793189711</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.007562917958960601</v>
+        <v>-0.008976192634599305</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001769062534762501</v>
+        <v>0.001792484807699392</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001769062534762501</v>
+        <v>0.001792484807699392</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>0.001769062534762501</v>
+        <v>0.001792484807699392</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.00621876428075057</v>
+        <v>-0.006219818744792749</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.004027462241098489</v>
+        <v>-0.004056461154258445</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.004027462241098489</v>
+        <v>-0.004056461154258445</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -1998,7 +1998,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.02492625968505038</v>
+        <v>-0.02492413069296523</v>
       </c>
       <c r="D24" t="n">
         <v>0.01651558885262355</v>
@@ -2008,34 +2008,34 @@
         <v>0.0136662874266515</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.008670126202805046</v>
+        <v>-0.008680236347209451</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>0.01587180111487204</v>
+        <v>0.01585411685816467</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01232673638642706</v>
+        <v>0.01234753990161881</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.02010807622832305</v>
+        <v>-0.02009877891595116</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.02010807622832305</v>
+        <v>-0.02009877891595116</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>-0.02010807622832305</v>
+        <v>-0.02009877891595116</v>
       </c>
       <c r="P24" t="n">
-        <v>0.009444096377763854</v>
+        <v>0.009456198906247954</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.01391873182074927</v>
+        <v>-0.01384570125782805</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.01391873182074927</v>
+        <v>-0.01384570125782805</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2059,7 +2059,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.008686003931440157</v>
+        <v>-0.008686621691464867</v>
       </c>
       <c r="D25" t="n">
         <v>-0.02022354388094175</v>
@@ -2069,34 +2069,34 @@
         <v>-0.02497905287116211</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02108247185129887</v>
+        <v>0.02108295991531839</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>-0.01676580633463225</v>
+        <v>-0.01677849532713981</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01606106726660021</v>
+        <v>0.01533765278658932</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03172410693296427</v>
+        <v>0.03171972482078899</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03172410693296427</v>
+        <v>0.03171972482078899</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
-        <v>0.03172410693296427</v>
+        <v>0.03171972482078899</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.02154070732562829</v>
+        <v>-0.02154423858976954</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.007497807563912301</v>
+        <v>0.007523302476932098</v>
       </c>
       <c r="R25" t="n">
-        <v>0.007497807563912301</v>
+        <v>0.007523302476932098</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01530560605222424</v>
+        <v>0.01531144842045793</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01490230658009226</v>
@@ -2134,34 +2134,34 @@
         <v>-0.00789269724370789</v>
       </c>
       <c r="G26" t="n">
-        <v>0.002265510426620417</v>
+        <v>0.00224777173791087</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>-0.01460006228000249</v>
+        <v>-0.01462709088908363</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0140515198870537</v>
+        <v>0.01326406310839491</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01794328622173144</v>
+        <v>0.01800264792010592</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01794328622173144</v>
+        <v>0.01800264792010592</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>0.01794328622173144</v>
+        <v>0.01800264792010592</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.002914150196566008</v>
+        <v>-0.002900174900006996</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01285341373013655</v>
+        <v>0.01293024118920965</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01285341373013655</v>
+        <v>0.01293024118920965</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.007490934155637365</v>
+        <v>0.007493459243738369</v>
       </c>
       <c r="D27" t="n">
         <v>0.01960177316807092</v>
@@ -2195,34 +2195,34 @@
         <v>0.01453170211726808</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.008338651917546075</v>
+        <v>-0.008342801133712044</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>0.02050975397239016</v>
+        <v>0.02050778434031137</v>
       </c>
       <c r="J27" t="n">
-        <v>0.001561328529771026</v>
+        <v>0.001347867789421945</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.02443116625724665</v>
+        <v>-0.02441222430448897</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.02443116625724665</v>
+        <v>-0.02441222430448897</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
-        <v>-0.02443116625724665</v>
+        <v>-0.02441222430448897</v>
       </c>
       <c r="P27" t="n">
-        <v>0.009167552334702093</v>
+        <v>0.00917469329498773</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.01646844661073786</v>
+        <v>-0.01645040283401611</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.01646844661073786</v>
+        <v>-0.01645040283401611</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.01569165537966621</v>
+        <v>0.01568964878758595</v>
       </c>
       <c r="D28" t="n">
         <v>0.01176916271076651</v>
@@ -2260,34 +2260,34 @@
         <v>-0.03355387343815493</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03912240175689607</v>
+        <v>0.03913539026941561</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>0.01764069776162791</v>
+        <v>0.01763364550534582</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.01521600362797577</v>
+        <v>-0.0161671855526488</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0120192450247698</v>
+        <v>0.01203343699333748</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0120192450247698</v>
+        <v>0.01203343699333748</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>0.0120192450247698</v>
+        <v>0.01203343699333748</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.03849111705964468</v>
+        <v>-0.03849883987595359</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.02471452073258083</v>
+        <v>-0.02468967631558705</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.02471452073258083</v>
+        <v>-0.02468967631558705</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.005562064638482585</v>
+        <v>0.005561612286464491</v>
       </c>
       <c r="D29" t="n">
         <v>-0.01346903641076145</v>
@@ -2325,34 +2325,34 @@
         <v>-0.002872936530917461</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.002463307682532307</v>
+        <v>-0.002455876610235064</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>-0.02300150559206022</v>
+        <v>-0.02299130482365219</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01028288105877834</v>
+        <v>0.0113310145182169</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01397741777509671</v>
+        <v>0.01394662654186506</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01397741777509671</v>
+        <v>0.01394662654186506</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>0.01397741777509671</v>
+        <v>0.01394662654186506</v>
       </c>
       <c r="P29" t="n">
-        <v>0.001821014184840567</v>
+        <v>0.001817577576703103</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.02211915160476606</v>
+        <v>0.02208126529925061</v>
       </c>
       <c r="R29" t="n">
-        <v>0.02211915160476606</v>
+        <v>0.02208126529925061</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.02298087941523518</v>
+        <v>-0.0229806974952279</v>
       </c>
       <c r="D30" t="n">
         <v>-0.02053317413332696</v>
@@ -2390,34 +2390,34 @@
         <v>-0.005234897297395891</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0008983869479354779</v>
+        <v>0.0009123742444949697</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>-0.02174589984583599</v>
+        <v>-0.02173033056521322</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01616232133938776</v>
+        <v>0.01761168024161039</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01211234813249392</v>
+        <v>0.0120845726433829</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01211234813249392</v>
+        <v>0.0120845726433829</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>0.01211234813249392</v>
+        <v>0.0120845726433829</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.001445281881811275</v>
+        <v>-0.00145429925817197</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.02008362137934485</v>
+        <v>0.02004694083387763</v>
       </c>
       <c r="R30" t="n">
-        <v>0.02008362137934485</v>
+        <v>0.02004694083387763</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.001360591062423642</v>
+        <v>-0.001362936534517461</v>
       </c>
       <c r="D31" t="n">
         <v>-0.002391382367655294</v>
@@ -2455,34 +2455,34 @@
         <v>0.001126966317078652</v>
       </c>
       <c r="G31" t="n">
-        <v>0.00284685976187439</v>
+        <v>0.002855652786226111</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>0.01269166572366663</v>
+        <v>0.01269683311587332</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.002133103460348543</v>
+        <v>-0.001478122595413736</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.009194990863799633</v>
+        <v>-0.009228449649137984</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.009194990863799633</v>
+        <v>-0.009228449649137984</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>-0.009194990863799633</v>
+        <v>-0.009228449649137984</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.0024604274904171</v>
+        <v>-0.002473734818949393</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.0127128399645136</v>
+        <v>-0.01274597167783886</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.0127128399645136</v>
+        <v>-0.01274597167783886</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -2510,7 +2510,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.00128029099521164</v>
+        <v>-0.001276931379077255</v>
       </c>
       <c r="D32" t="n">
         <v>-0.001273986386959456</v>
@@ -2520,34 +2520,34 @@
         <v>-0.009126427277057089</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01083228340929134</v>
+        <v>0.01083529924941197</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>-0.001392656695706268</v>
+        <v>-0.001395661687826467</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.02558898549837255</v>
+        <v>-0.02558646569130417</v>
       </c>
       <c r="K32" t="n">
-        <v>0.006215111576604463</v>
+        <v>0.006211108664444346</v>
       </c>
       <c r="L32" t="n">
-        <v>0.006215111576604463</v>
+        <v>0.006211108664444346</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="n">
-        <v>0.006215111576604463</v>
+        <v>0.006211108664444346</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.01068483613939344</v>
+        <v>-0.01069082922763317</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.001333968437358737</v>
+        <v>-0.001342465973698639</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.001333968437358737</v>
+        <v>-0.001342465973698639</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.004805071584202862</v>
+        <v>-0.004807830816313231</v>
       </c>
       <c r="D33" t="n">
         <v>-0.003106481884259275</v>
@@ -2585,34 +2585,34 @@
         <v>0.007139083965563358</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.005746188421847536</v>
+        <v>-0.005749777861991114</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>0.004847002081880083</v>
+        <v>0.004846610209864408</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0174565297924303</v>
+        <v>0.01785453580301626</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.009727966565118661</v>
+        <v>-0.009709108708364346</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.009727966565118661</v>
+        <v>-0.009709108708364346</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="n">
-        <v>-0.009727966565118661</v>
+        <v>-0.009709108708364346</v>
       </c>
       <c r="P33" t="n">
-        <v>0.005920339436813576</v>
+        <v>0.005924392652975705</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.002387745311509812</v>
+        <v>-0.002398273535930941</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.002387745311509812</v>
+        <v>-0.002398273535930941</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.006566925094677003</v>
+        <v>0.006567070726682829</v>
       </c>
       <c r="D34" t="n">
         <v>0.002479635075185403</v>
@@ -2650,34 +2650,34 @@
         <v>-0.01993250527730021</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02245023190600927</v>
+        <v>0.02244936454597458</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>0.007654975890199035</v>
+        <v>0.00765204779408191</v>
       </c>
       <c r="J34" t="n">
-        <v>0.003696056090129116</v>
+        <v>0.004694004547978055</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01086892161875686</v>
+        <v>0.01086057921842317</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01086892161875686</v>
+        <v>0.01086057921842317</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>0.01086892161875686</v>
+        <v>0.01086057921842317</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.02224344876173795</v>
+        <v>-0.022243349977734</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.01118401724736069</v>
+        <v>-0.01118487721539508</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.01118401724736069</v>
+        <v>-0.01118487721539508</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.01734768126990725</v>
+        <v>-0.01735557871022315</v>
       </c>
       <c r="D35" t="n">
         <v>0.007347835109913403</v>
@@ -2715,34 +2715,34 @@
         <v>0.01185133391405335</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.009055911434236456</v>
+        <v>-0.009047523433900934</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>0.003418774120750965</v>
+        <v>0.003447103817884152</v>
       </c>
       <c r="J35" t="n">
-        <v>0.007198912282126802</v>
+        <v>0.007868156718859176</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.01202963193718528</v>
+        <v>-0.01208832173153287</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.01202963193718528</v>
+        <v>-0.01208832173153287</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>-0.01202963193718528</v>
+        <v>-0.01208832173153287</v>
       </c>
       <c r="P35" t="n">
-        <v>0.009503989916159595</v>
+        <v>0.009495383419815335</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.0007209408288376331</v>
+        <v>-0.0007930973117238923</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.0007209408288376331</v>
+        <v>-0.0007930973117238923</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.02424517325780692</v>
+        <v>-0.02424103028164121</v>
       </c>
       <c r="D36" t="n">
         <v>-0.005466936218677448</v>
@@ -2780,34 +2780,34 @@
         <v>0.005212835248513409</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.004731693213267728</v>
+        <v>-0.004741247709649908</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>0.0004621005304840212</v>
+        <v>0.0004562468342498733</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.001827149729899537</v>
+        <v>-0.002962789046377397</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.002105688084227523</v>
+        <v>-0.002085785459431418</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.002105688084227523</v>
+        <v>-0.002085785459431418</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>-0.002105688084227523</v>
+        <v>-0.002085785459431418</v>
       </c>
       <c r="P36" t="n">
-        <v>0.004950831942033276</v>
+        <v>0.004951172742046909</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.001504809852192394</v>
+        <v>-0.001495103579804143</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.001504809852192394</v>
+        <v>-0.001495103579804143</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -2835,7 +2835,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.006495726787829071</v>
+        <v>0.006500590340023612</v>
       </c>
       <c r="D37" t="n">
         <v>0.01341683295267332</v>
@@ -2845,34 +2845,34 @@
         <v>0.001827806665112267</v>
       </c>
       <c r="G37" t="n">
-        <v>0.003751876854075074</v>
+        <v>0.003747478997899159</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>0.01775555063022203</v>
+        <v>0.01776241981449679</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.0006203797420259405</v>
+        <v>-0.001099937018044989</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0138676601067064</v>
+        <v>-0.01384706532188261</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0138676601067064</v>
+        <v>-0.01384706532188261</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
-        <v>-0.0138676601067064</v>
+        <v>-0.01384706532188261</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.003201537728061509</v>
+        <v>-0.003194213023768521</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.01710713204428528</v>
+        <v>-0.01709930621997225</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.01710713204428528</v>
+        <v>-0.01709930621997225</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -2900,7 +2900,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.01227892119515685</v>
+        <v>0.01228302788332111</v>
       </c>
       <c r="D38" t="n">
         <v>0.02909218925968757</v>
@@ -2910,34 +2910,34 @@
         <v>-0.006368287166731486</v>
       </c>
       <c r="G38" t="n">
-        <v>0.007193890175755605</v>
+        <v>0.00718804175952167</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>0.006062106962484278</v>
+        <v>0.006058836818353472</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01644490129412719</v>
+        <v>0.01667045914279641</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0009956905358276212</v>
+        <v>-0.0009827470473098819</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0009956905358276212</v>
+        <v>-0.0009827470473098819</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="n">
-        <v>-0.0009956905358276212</v>
+        <v>-0.0009827470473098819</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.007219313952772558</v>
+        <v>-0.007211679840467192</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.007773936694957467</v>
+        <v>-0.007757113366284534</v>
       </c>
       <c r="R38" t="n">
-        <v>-0.007773936694957467</v>
+        <v>-0.007757113366284534</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.001155433486217339</v>
+        <v>-0.001151384878055395</v>
       </c>
       <c r="D39" t="n">
         <v>0.009771227334849092</v>
@@ -2975,34 +2975,34 @@
         <v>0.01922583523303341</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.0178121424404857</v>
+        <v>-0.0178075375123015</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>0.002714277036571081</v>
+        <v>0.002709789804391592</v>
       </c>
       <c r="J39" t="n">
-        <v>0.00329696873891557</v>
+        <v>0.003165832455280373</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.01754420182176807</v>
+        <v>-0.01752023292480932</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.01754420182176807</v>
+        <v>-0.01752023292480932</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
-        <v>-0.01754420182176807</v>
+        <v>-0.01752023292480932</v>
       </c>
       <c r="P39" t="n">
-        <v>0.01806184142647366</v>
+        <v>0.01805484283419371</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.002276292955051718</v>
+        <v>0.002265226554609062</v>
       </c>
       <c r="R39" t="n">
-        <v>0.002276292955051718</v>
+        <v>0.002265226554609062</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
